--- a/montecarlo/output.xlsx
+++ b/montecarlo/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="short-term" sheetId="1" r:id="rId1"/>
+    <sheet name="short-term-1-years" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3102.765500672364</v>
+        <v>3113.686723762224</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3678.500183148386</v>
+        <v>3687.292805478539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3937.23334651382</v>
+        <v>3922.701277601211</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -579,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4204.160198016354</v>
+        <v>4198.081402519281</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4484.095002563861</v>
+        <v>4466.107701565139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -603,7 +603,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>3916.355006702402</v>
+        <v>3913.901336556888</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -619,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>41.82220554016234</v>
+        <v>41.78705470946993</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -627,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.1412936336208369</v>
+        <v>-0.1337845663040263</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -635,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.04033465835575043</v>
+        <v>-0.03808840399774401</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -643,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.008639068667389626</v>
+        <v>0.009589724256232127</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -651,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.05814157473583348</v>
+        <v>0.05727528878653859</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -659,7 +659,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.1070659437183109</v>
+        <v>0.1045330151506449</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -667,7 +667,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.1523776892992106</v>
+        <v>0.151884295954338</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -675,7 +675,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.003318619085596933</v>
+        <v>-0.002045848119577253</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -683,7 +683,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.1185873659959977</v>
+        <v>0.116905222096048</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -749,28 +749,28 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1247.083631080888</v>
+        <v>1248.707934324212</v>
       </c>
       <c r="C26">
-        <v>1292.614787915601</v>
+        <v>1291.176918063339</v>
       </c>
       <c r="D26">
-        <v>1316.686844524857</v>
+        <v>1315.959227407884</v>
       </c>
       <c r="E26">
-        <v>1343.441961881723</v>
+        <v>1342.426092717385</v>
       </c>
       <c r="F26">
-        <v>1367.825935586231</v>
+        <v>1369.321478278969</v>
       </c>
       <c r="G26">
-        <v>1392.026494601067</v>
+        <v>1393.100199105029</v>
       </c>
       <c r="H26">
-        <v>1311.885317333369</v>
+        <v>1310.55491181205</v>
       </c>
       <c r="I26">
-        <v>1373.34783247575</v>
+        <v>1374.123986155667</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -778,28 +778,28 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2206.509548345879</v>
+        <v>2188.760050335312</v>
       </c>
       <c r="C27">
-        <v>2461.004610360279</v>
+        <v>2466.036550447743</v>
       </c>
       <c r="D27">
-        <v>2580.233826466318</v>
+        <v>2573.363126452412</v>
       </c>
       <c r="E27">
-        <v>2696.490353760821</v>
+        <v>2691.944954250129</v>
       </c>
       <c r="F27">
-        <v>2822.501308009594</v>
+        <v>2815.428839932377</v>
       </c>
       <c r="G27">
-        <v>2941.363312373002</v>
+        <v>2929.77824844076</v>
       </c>
       <c r="H27">
-        <v>2545.851723438738</v>
+        <v>2543.791658590241</v>
       </c>
       <c r="I27">
-        <v>2851.711823704287</v>
+        <v>2847.366275917089</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -807,28 +807,28 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>3102.765500672364</v>
+        <v>3113.686723762224</v>
       </c>
       <c r="C28">
-        <v>3678.500183148386</v>
+        <v>3687.292805478539</v>
       </c>
       <c r="D28">
-        <v>3937.23334651382</v>
+        <v>3922.701277601211</v>
       </c>
       <c r="E28">
-        <v>4204.160198016354</v>
+        <v>4198.081402519281</v>
       </c>
       <c r="F28">
-        <v>4484.095002563861</v>
+        <v>4466.107701565139</v>
       </c>
       <c r="G28">
-        <v>4751.504214392695</v>
+        <v>4733.057472178474</v>
       </c>
       <c r="H28">
-        <v>3870.133077817462</v>
+        <v>3869.746180290701</v>
       </c>
       <c r="I28">
-        <v>4554.141505058003</v>
+        <v>4535.696643497114</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>2039.830176983112</v>
+        <v>2043.619306814835</v>
       </c>
       <c r="C34">
-        <v>2290.363663758871</v>
+        <v>2291.019629018307</v>
       </c>
       <c r="D34">
-        <v>2388.143032643194</v>
+        <v>2384.957588739388</v>
       </c>
       <c r="E34">
-        <v>2482.129307497352</v>
+        <v>2482.188770025945</v>
       </c>
       <c r="F34">
-        <v>2573.540044230237</v>
+        <v>2576.980319446219</v>
       </c>
       <c r="G34">
-        <v>2668.858392002373</v>
+        <v>2677.388385199666</v>
       </c>
       <c r="H34">
-        <v>2358.447620094698</v>
+        <v>2356.980919894244</v>
       </c>
       <c r="I34">
-        <v>2601.346493667205</v>
+        <v>2606.645937911689</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -957,28 +957,28 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>2970.271003127259</v>
+        <v>2923.475439517638</v>
       </c>
       <c r="C35">
-        <v>3443.309215324742</v>
+        <v>3437.096911103056</v>
       </c>
       <c r="D35">
-        <v>3659.426594688722</v>
+        <v>3660.725750479544</v>
       </c>
       <c r="E35">
-        <v>3881.117938634002</v>
+        <v>3892.132668116157</v>
       </c>
       <c r="F35">
-        <v>4125.136605640513</v>
+        <v>4121.786359365039</v>
       </c>
       <c r="G35">
-        <v>4359.279817705081</v>
+        <v>4355.586049008741</v>
       </c>
       <c r="H35">
-        <v>3600.71811331226</v>
+        <v>3600.976311104425</v>
       </c>
       <c r="I35">
-        <v>4187.061130017391</v>
+        <v>4189.13716030059</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1107,28 +1107,28 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>2575.987779470011</v>
+        <v>2565.544262169058</v>
       </c>
       <c r="C42">
-        <v>2944.775133065951</v>
+        <v>2954.317150763103</v>
       </c>
       <c r="D42">
-        <v>3104.259380686891</v>
+        <v>3111.191961547754</v>
       </c>
       <c r="E42">
-        <v>3260.081520291267</v>
+        <v>3262.791758722613</v>
       </c>
       <c r="F42">
-        <v>3411.498663081852</v>
+        <v>3414.975458327235</v>
       </c>
       <c r="G42">
-        <v>3566.988929521878</v>
+        <v>3568.733372864364</v>
       </c>
       <c r="H42">
-        <v>3058.885532139411</v>
+        <v>3063.643918463549</v>
       </c>
       <c r="I42">
-        <v>3459.473654664703</v>
+        <v>3459.46426992578</v>
       </c>
     </row>
     <row r="44" spans="1:9">

--- a/montecarlo/output.xlsx
+++ b/montecarlo/output.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="short-term-1-years" sheetId="1" r:id="rId1"/>
+    <sheet name="medium term" sheetId="1" r:id="rId1"/>
+    <sheet name="short-term" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="41">
   <si>
     <t>Amount</t>
   </si>
@@ -494,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +520,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -531,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>113.3321588776</v>
+        <v>455.3008495150807</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -555,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3113.686723762224</v>
+        <v>28922.68489037659</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -563,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3687.292805478539</v>
+        <v>48537.07127295664</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -571,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3922.701277601211</v>
+        <v>59564.71367254369</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -579,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4198.081402519281</v>
+        <v>74302.54515083579</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -587,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4466.107701565139</v>
+        <v>92883.96787170522</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -595,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>99.98</v>
+        <v>99.73999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -603,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>3913.901336556888</v>
+        <v>45452.18535526778</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -619,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>41.78705470946993</v>
+        <v>3468.772805517483</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -627,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.1337845663040263</v>
+        <v>-0.06338521284013833</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -635,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03808840399774401</v>
+        <v>0.002500223220342955</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -643,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.009589724256232127</v>
+        <v>0.03697114117941649</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -651,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.05727528878653859</v>
+        <v>0.07290888030787079</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -659,7 +660,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.1045330151506449</v>
+        <v>0.1104059391287947</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -667,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.151884295954338</v>
+        <v>0.1428692187321482</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -675,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.002045848119577253</v>
+        <v>0.02919349843200043</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -683,7 +684,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.116905222096048</v>
+        <v>0.1166065295015791</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -720,28 +721,28 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="C25">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="D25">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="E25">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="F25">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="G25">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="H25">
-        <v>99</v>
+        <v>10000</v>
       </c>
       <c r="I25">
-        <v>99</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -749,28 +750,28 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1248.707934324212</v>
+        <v>9821.255305623845</v>
       </c>
       <c r="C26">
-        <v>1291.176918063339</v>
+        <v>12317.5684886087</v>
       </c>
       <c r="D26">
-        <v>1315.959227407884</v>
+        <v>13297.53558619538</v>
       </c>
       <c r="E26">
-        <v>1342.426092717385</v>
+        <v>14294.92136782273</v>
       </c>
       <c r="F26">
-        <v>1369.321478278969</v>
+        <v>15333.65578505494</v>
       </c>
       <c r="G26">
-        <v>1393.100199105029</v>
+        <v>16251.80336088348</v>
       </c>
       <c r="H26">
-        <v>1310.55491181205</v>
+        <v>13010.11220529193</v>
       </c>
       <c r="I26">
-        <v>1374.123986155667</v>
+        <v>15585.87213351939</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -778,28 +779,28 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2188.760050335312</v>
+        <v>11718.92788000589</v>
       </c>
       <c r="C27">
-        <v>2466.036550447743</v>
+        <v>15404.84986120035</v>
       </c>
       <c r="D27">
-        <v>2573.363126452412</v>
+        <v>17156.83970742489</v>
       </c>
       <c r="E27">
-        <v>2691.944954250129</v>
+        <v>19026.23017755747</v>
       </c>
       <c r="F27">
-        <v>2815.428839932377</v>
+        <v>20974.19877358378</v>
       </c>
       <c r="G27">
-        <v>2929.77824844076</v>
+        <v>22795.70508696611</v>
       </c>
       <c r="H27">
-        <v>2543.791658590241</v>
+        <v>16718.69584088558</v>
       </c>
       <c r="I27">
-        <v>2847.366275917089</v>
+        <v>21473.359813549</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -807,28 +808,2340 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>3113.686723762224</v>
+        <v>13776.29780912424</v>
       </c>
       <c r="C28">
-        <v>3687.292805478539</v>
+        <v>18647.13509292024</v>
       </c>
       <c r="D28">
-        <v>3922.701277601211</v>
+        <v>21328.07241414857</v>
       </c>
       <c r="E28">
-        <v>4198.081402519281</v>
+        <v>24190.27877772342</v>
       </c>
       <c r="F28">
-        <v>4466.107701565139</v>
+        <v>26980.20787582564</v>
       </c>
       <c r="G28">
-        <v>4733.057472178474</v>
+        <v>30219.42254996607</v>
       </c>
       <c r="H28">
-        <v>3869.746180290701</v>
+        <v>20709.44536598292</v>
       </c>
       <c r="I28">
-        <v>4535.696643497114</v>
+        <v>27935.55791520486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>15455.35795634232</v>
+      </c>
+      <c r="C29">
+        <v>22225.79892494183</v>
+      </c>
+      <c r="D29">
+        <v>25592.50352486606</v>
+      </c>
+      <c r="E29">
+        <v>29603.67874258191</v>
+      </c>
+      <c r="F29">
+        <v>34080.94057633068</v>
+      </c>
+      <c r="G29">
+        <v>38330.79741131094</v>
+      </c>
+      <c r="H29">
+        <v>24858.60876447104</v>
+      </c>
+      <c r="I29">
+        <v>35146.26173696327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>17925.34368187515</v>
+      </c>
+      <c r="C30">
+        <v>25823.82170713397</v>
+      </c>
+      <c r="D30">
+        <v>30218.22059726328</v>
+      </c>
+      <c r="E30">
+        <v>35589.66523765006</v>
+      </c>
+      <c r="F30">
+        <v>41410.77142787125</v>
+      </c>
+      <c r="G30">
+        <v>47687.72692989855</v>
+      </c>
+      <c r="H30">
+        <v>29384.5031235114</v>
+      </c>
+      <c r="I30">
+        <v>43131.20930746465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>20041.93250578742</v>
+      </c>
+      <c r="C31">
+        <v>29800.48691497965</v>
+      </c>
+      <c r="D31">
+        <v>35390.45357268448</v>
+      </c>
+      <c r="E31">
+        <v>41949.11371319374</v>
+      </c>
+      <c r="F31">
+        <v>49455.56683597071</v>
+      </c>
+      <c r="G31">
+        <v>57217.03732137848</v>
+      </c>
+      <c r="H31">
+        <v>34275.83954613147</v>
+      </c>
+      <c r="I31">
+        <v>51719.91839088828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>22165.17544425074</v>
+      </c>
+      <c r="C32">
+        <v>33929.96568532654</v>
+      </c>
+      <c r="D32">
+        <v>40679.38284559202</v>
+      </c>
+      <c r="E32">
+        <v>48933.89365611276</v>
+      </c>
+      <c r="F32">
+        <v>58566.13031532844</v>
+      </c>
+      <c r="G32">
+        <v>69028.24717855929</v>
+      </c>
+      <c r="H32">
+        <v>39450.05012289229</v>
+      </c>
+      <c r="I32">
+        <v>61494.08759907305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>24955.76375492895</v>
+      </c>
+      <c r="C33">
+        <v>37988.9734547067</v>
+      </c>
+      <c r="D33">
+        <v>46564.79412775719</v>
+      </c>
+      <c r="E33">
+        <v>56461.61354215845</v>
+      </c>
+      <c r="F33">
+        <v>68481.71375501176</v>
+      </c>
+      <c r="G33">
+        <v>81412.05078345863</v>
+      </c>
+      <c r="H33">
+        <v>44956.39631154748</v>
+      </c>
+      <c r="I33">
+        <v>72266.3929473407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>26885.86832119287</v>
+      </c>
+      <c r="C34">
+        <v>42582.04054045596</v>
+      </c>
+      <c r="D34">
+        <v>52198.42869869027</v>
+      </c>
+      <c r="E34">
+        <v>64702.44601807558</v>
+      </c>
+      <c r="F34">
+        <v>79724.53714268483</v>
+      </c>
+      <c r="G34">
+        <v>95659.79487115185</v>
+      </c>
+      <c r="H34">
+        <v>50684.93075912292</v>
+      </c>
+      <c r="I34">
+        <v>84015.77360862138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>28922.68489037659</v>
+      </c>
+      <c r="C35">
+        <v>48537.07127295664</v>
+      </c>
+      <c r="D35">
+        <v>59564.71367254369</v>
+      </c>
+      <c r="E35">
+        <v>74302.54515083579</v>
+      </c>
+      <c r="F35">
+        <v>92883.96787170522</v>
+      </c>
+      <c r="G35">
+        <v>111465.8846888206</v>
+      </c>
+      <c r="H35">
+        <v>57653.79752381663</v>
+      </c>
+      <c r="I35">
+        <v>97890.20216467562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>9900</v>
+      </c>
+      <c r="C39">
+        <v>9900</v>
+      </c>
+      <c r="D39">
+        <v>9900</v>
+      </c>
+      <c r="E39">
+        <v>9900</v>
+      </c>
+      <c r="F39">
+        <v>9900</v>
+      </c>
+      <c r="G39">
+        <v>9900</v>
+      </c>
+      <c r="H39">
+        <v>9900</v>
+      </c>
+      <c r="I39">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="C40">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="D40">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="E40">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="F40">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="G40">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="H40">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="I40">
+        <v>9390.57268055621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>9438.152478667496</v>
+      </c>
+      <c r="C41">
+        <v>11690.10985438505</v>
+      </c>
+      <c r="D41">
+        <v>12584.15431852201</v>
+      </c>
+      <c r="E41">
+        <v>13526.33134653869</v>
+      </c>
+      <c r="F41">
+        <v>14457.56471489814</v>
+      </c>
+      <c r="G41">
+        <v>15489.86236377061</v>
+      </c>
+      <c r="H41">
+        <v>12335.00460388863</v>
+      </c>
+      <c r="I41">
+        <v>14764.27102062949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>11005.59582996957</v>
+      </c>
+      <c r="C42">
+        <v>14785.56119361374</v>
+      </c>
+      <c r="D42">
+        <v>16361.48342354751</v>
+      </c>
+      <c r="E42">
+        <v>18096.93759343144</v>
+      </c>
+      <c r="F42">
+        <v>19972.42599956218</v>
+      </c>
+      <c r="G42">
+        <v>21836.167834972</v>
+      </c>
+      <c r="H42">
+        <v>15952.4509151689</v>
+      </c>
+      <c r="I42">
+        <v>20491.39964200644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>13246.12471301934</v>
+      </c>
+      <c r="C43">
+        <v>18021.78279646847</v>
+      </c>
+      <c r="D43">
+        <v>20422.7869963617</v>
+      </c>
+      <c r="E43">
+        <v>23139.51943292446</v>
+      </c>
+      <c r="F43">
+        <v>26051.67699186457</v>
+      </c>
+      <c r="G43">
+        <v>28889.83717184462</v>
+      </c>
+      <c r="H43">
+        <v>19893.47729718541</v>
+      </c>
+      <c r="I43">
+        <v>26802.50459325409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>14743.09644300375</v>
+      </c>
+      <c r="C44">
+        <v>21326.28995265764</v>
+      </c>
+      <c r="D44">
+        <v>24750.23717768012</v>
+      </c>
+      <c r="E44">
+        <v>28469.55584460031</v>
+      </c>
+      <c r="F44">
+        <v>32669.68574542326</v>
+      </c>
+      <c r="G44">
+        <v>36846.85982469866</v>
+      </c>
+      <c r="H44">
+        <v>23909.34100757544</v>
+      </c>
+      <c r="I44">
+        <v>33872.59982114412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>17017.21002927251</v>
+      </c>
+      <c r="C45">
+        <v>24514.84319000895</v>
+      </c>
+      <c r="D45">
+        <v>28932.52860050597</v>
+      </c>
+      <c r="E45">
+        <v>34212.19774883991</v>
+      </c>
+      <c r="F45">
+        <v>39911.51627066662</v>
+      </c>
+      <c r="G45">
+        <v>46195.99747476915</v>
+      </c>
+      <c r="H45">
+        <v>28075.47009710311</v>
+      </c>
+      <c r="I45">
+        <v>41733.3455971265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>19009.95598233608</v>
+      </c>
+      <c r="C46">
+        <v>28351.31929223616</v>
+      </c>
+      <c r="D46">
+        <v>33627.76203091746</v>
+      </c>
+      <c r="E46">
+        <v>40433.05821646351</v>
+      </c>
+      <c r="F46">
+        <v>48014.05903562403</v>
+      </c>
+      <c r="G46">
+        <v>56167.07172023426</v>
+      </c>
+      <c r="H46">
+        <v>32686.79720489871</v>
+      </c>
+      <c r="I46">
+        <v>50292.33581021578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>20246.84233400537</v>
+      </c>
+      <c r="C47">
+        <v>31966.47519252755</v>
+      </c>
+      <c r="D47">
+        <v>38820.96242770163</v>
+      </c>
+      <c r="E47">
+        <v>47128.23235284618</v>
+      </c>
+      <c r="F47">
+        <v>56739.3867167362</v>
+      </c>
+      <c r="G47">
+        <v>66425.33647233799</v>
+      </c>
+      <c r="H47">
+        <v>37610.34406472522</v>
+      </c>
+      <c r="I47">
+        <v>59507.02569188273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>23092.38325108857</v>
+      </c>
+      <c r="C48">
+        <v>36496.25640161191</v>
+      </c>
+      <c r="D48">
+        <v>44519.94372270646</v>
+      </c>
+      <c r="E48">
+        <v>54467.62141828277</v>
+      </c>
+      <c r="F48">
+        <v>66138.09046021466</v>
+      </c>
+      <c r="G48">
+        <v>78730.93384744736</v>
+      </c>
+      <c r="H48">
+        <v>43059.38169826885</v>
+      </c>
+      <c r="I48">
+        <v>69756.47147712966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>25202.55681290262</v>
+      </c>
+      <c r="C49">
+        <v>41371.35159912281</v>
+      </c>
+      <c r="D49">
+        <v>50906.87379679511</v>
+      </c>
+      <c r="E49">
+        <v>63046.88050097258</v>
+      </c>
+      <c r="F49">
+        <v>77447.44496187269</v>
+      </c>
+      <c r="G49">
+        <v>92866.83915086463</v>
+      </c>
+      <c r="H49">
+        <v>49090.2165767886</v>
+      </c>
+      <c r="I49">
+        <v>82109.79215759465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>9900</v>
+      </c>
+      <c r="C53">
+        <v>9900</v>
+      </c>
+      <c r="D53">
+        <v>9900</v>
+      </c>
+      <c r="E53">
+        <v>9900</v>
+      </c>
+      <c r="F53">
+        <v>9900</v>
+      </c>
+      <c r="G53">
+        <v>9900</v>
+      </c>
+      <c r="H53">
+        <v>9900</v>
+      </c>
+      <c r="I53">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="C54">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="D54">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="E54">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="F54">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="G54">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="H54">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="I54">
+        <v>9390.57268055621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="C55">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="D55">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="E55">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="F55">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="G55">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="H55">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="I55">
+        <v>8980.780289057795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>8867.728000904202</v>
+      </c>
+      <c r="C56">
+        <v>11236.12763256089</v>
+      </c>
+      <c r="D56">
+        <v>12155.10917323292</v>
+      </c>
+      <c r="E56">
+        <v>13045.00582540399</v>
+      </c>
+      <c r="F56">
+        <v>13917.10296748379</v>
+      </c>
+      <c r="G56">
+        <v>14849.78340583507</v>
+      </c>
+      <c r="H56">
+        <v>11894.40166363367</v>
+      </c>
+      <c r="I56">
+        <v>14205.6493250503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>10489.12060955259</v>
+      </c>
+      <c r="C57">
+        <v>14162.05615573062</v>
+      </c>
+      <c r="D57">
+        <v>15804.55019457685</v>
+      </c>
+      <c r="E57">
+        <v>17452.80881878525</v>
+      </c>
+      <c r="F57">
+        <v>19172.02986316483</v>
+      </c>
+      <c r="G57">
+        <v>20985.45294535438</v>
+      </c>
+      <c r="H57">
+        <v>15364.00346290554</v>
+      </c>
+      <c r="I57">
+        <v>19705.73659229775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>12571.13322639349</v>
+      </c>
+      <c r="C58">
+        <v>17239.63077551643</v>
+      </c>
+      <c r="D58">
+        <v>19674.87007923559</v>
+      </c>
+      <c r="E58">
+        <v>22193.3801236473</v>
+      </c>
+      <c r="F58">
+        <v>24972.89733948752</v>
+      </c>
+      <c r="G58">
+        <v>27867.38112068026</v>
+      </c>
+      <c r="H58">
+        <v>19064.30578697661</v>
+      </c>
+      <c r="I58">
+        <v>25826.77639651864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>14925.14446953723</v>
+      </c>
+      <c r="C59">
+        <v>20371.09275687037</v>
+      </c>
+      <c r="D59">
+        <v>23682.10481437116</v>
+      </c>
+      <c r="E59">
+        <v>27380.78337385963</v>
+      </c>
+      <c r="F59">
+        <v>31397.6562511531</v>
+      </c>
+      <c r="G59">
+        <v>35889.14451465258</v>
+      </c>
+      <c r="H59">
+        <v>22978.68136330133</v>
+      </c>
+      <c r="I59">
+        <v>32695.39944291619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>16323.7331285759</v>
+      </c>
+      <c r="C60">
+        <v>24011.31158610824</v>
+      </c>
+      <c r="D60">
+        <v>27940.89357100323</v>
+      </c>
+      <c r="E60">
+        <v>32890.54665982894</v>
+      </c>
+      <c r="F60">
+        <v>38334.22354218829</v>
+      </c>
+      <c r="G60">
+        <v>44000.32278853768</v>
+      </c>
+      <c r="H60">
+        <v>27196.71432634632</v>
+      </c>
+      <c r="I60">
+        <v>40065.09502360725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>19019.40954529406</v>
+      </c>
+      <c r="C61">
+        <v>27382.44104508639</v>
+      </c>
+      <c r="D61">
+        <v>32492.95048011673</v>
+      </c>
+      <c r="E61">
+        <v>38974.78995399249</v>
+      </c>
+      <c r="F61">
+        <v>46155.85053543362</v>
+      </c>
+      <c r="G61">
+        <v>53380.07833031394</v>
+      </c>
+      <c r="H61">
+        <v>31627.58395633059</v>
+      </c>
+      <c r="I61">
+        <v>48319.11846214851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>20700.23063171942</v>
+      </c>
+      <c r="C62">
+        <v>31291.91765692709</v>
+      </c>
+      <c r="D62">
+        <v>37403.26745449263</v>
+      </c>
+      <c r="E62">
+        <v>45090.04504368061</v>
+      </c>
+      <c r="F62">
+        <v>54415.20193716789</v>
+      </c>
+      <c r="G62">
+        <v>64285.76711588529</v>
+      </c>
+      <c r="H62">
+        <v>36345.9526180444</v>
+      </c>
+      <c r="I62">
+        <v>57394.82239432807</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>23525.37235094032</v>
+      </c>
+      <c r="C63">
+        <v>35728.69290730128</v>
+      </c>
+      <c r="D63">
+        <v>43106.64021399198</v>
+      </c>
+      <c r="E63">
+        <v>52409.88837450699</v>
+      </c>
+      <c r="F63">
+        <v>64221.86342190347</v>
+      </c>
+      <c r="G63">
+        <v>77184.71599969936</v>
+      </c>
+      <c r="H63">
+        <v>41861.36145098124</v>
+      </c>
+      <c r="I63">
+        <v>68051.1641117336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>9900</v>
+      </c>
+      <c r="C67">
+        <v>9900</v>
+      </c>
+      <c r="D67">
+        <v>9900</v>
+      </c>
+      <c r="E67">
+        <v>9900</v>
+      </c>
+      <c r="F67">
+        <v>9900</v>
+      </c>
+      <c r="G67">
+        <v>9900</v>
+      </c>
+      <c r="H67">
+        <v>9900</v>
+      </c>
+      <c r="I67">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="C68">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="D68">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="E68">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="F68">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="G68">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="H68">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="I68">
+        <v>9390.57268055621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="C69">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="D69">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="E69">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="F69">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="G69">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="H69">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="I69">
+        <v>8980.780289057795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="C70">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="D70">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="E70">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="F70">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="G70">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="H70">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="I70">
+        <v>8633.866428884701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>8619.78349805703</v>
+      </c>
+      <c r="C71">
+        <v>10746.11713553929</v>
+      </c>
+      <c r="D71">
+        <v>11683.55330734418</v>
+      </c>
+      <c r="E71">
+        <v>12553.71322947726</v>
+      </c>
+      <c r="F71">
+        <v>13430.50102618518</v>
+      </c>
+      <c r="G71">
+        <v>14243.47842548133</v>
+      </c>
+      <c r="H71">
+        <v>11419.54417847473</v>
+      </c>
+      <c r="I71">
+        <v>13671.89794413927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>10573.05619913483</v>
+      </c>
+      <c r="C72">
+        <v>13634.92783291568</v>
+      </c>
+      <c r="D72">
+        <v>15112.52328031317</v>
+      </c>
+      <c r="E72">
+        <v>16700.37785669797</v>
+      </c>
+      <c r="F72">
+        <v>18412.34436128785</v>
+      </c>
+      <c r="G72">
+        <v>20127.3725708464</v>
+      </c>
+      <c r="H72">
+        <v>14727.86538292385</v>
+      </c>
+      <c r="I72">
+        <v>18882.87325460303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>12531.52348527886</v>
+      </c>
+      <c r="C73">
+        <v>16783.59096499452</v>
+      </c>
+      <c r="D73">
+        <v>18890.33147960897</v>
+      </c>
+      <c r="E73">
+        <v>21403.23835711707</v>
+      </c>
+      <c r="F73">
+        <v>24017.57442756135</v>
+      </c>
+      <c r="G73">
+        <v>26714.07269237268</v>
+      </c>
+      <c r="H73">
+        <v>18440.05035105595</v>
+      </c>
+      <c r="I73">
+        <v>24799.91069790884</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>14897.2600367979</v>
+      </c>
+      <c r="C74">
+        <v>20019.41520612131</v>
+      </c>
+      <c r="D74">
+        <v>22947.15941783941</v>
+      </c>
+      <c r="E74">
+        <v>26298.14288600312</v>
+      </c>
+      <c r="F74">
+        <v>30134.02028700397</v>
+      </c>
+      <c r="G74">
+        <v>34163.38220686862</v>
+      </c>
+      <c r="H74">
+        <v>22315.81350068983</v>
+      </c>
+      <c r="I74">
+        <v>31294.7674678835</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>16235.54958474392</v>
+      </c>
+      <c r="C75">
+        <v>23316.74666639104</v>
+      </c>
+      <c r="D75">
+        <v>27220.4298135514</v>
+      </c>
+      <c r="E75">
+        <v>31695.28044708616</v>
+      </c>
+      <c r="F75">
+        <v>36905.10451062738</v>
+      </c>
+      <c r="G75">
+        <v>42383.79586124881</v>
+      </c>
+      <c r="H75">
+        <v>26395.87565763586</v>
+      </c>
+      <c r="I75">
+        <v>38476.35852609517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>18722.69910249289</v>
+      </c>
+      <c r="C76">
+        <v>26631.06617381587</v>
+      </c>
+      <c r="D76">
+        <v>31577.88576966936</v>
+      </c>
+      <c r="E76">
+        <v>37639.12329024187</v>
+      </c>
+      <c r="F76">
+        <v>44669.7971588443</v>
+      </c>
+      <c r="G76">
+        <v>52057.36569053336</v>
+      </c>
+      <c r="H76">
+        <v>30721.27615458715</v>
+      </c>
+      <c r="I76">
+        <v>46856.58687477672</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>20823.43884212185</v>
+      </c>
+      <c r="C77">
+        <v>30733.78632601019</v>
+      </c>
+      <c r="D77">
+        <v>36880.13241959469</v>
+      </c>
+      <c r="E77">
+        <v>44526.79127572537</v>
+      </c>
+      <c r="F77">
+        <v>53775.96138748887</v>
+      </c>
+      <c r="G77">
+        <v>63500.18171664614</v>
+      </c>
+      <c r="H77">
+        <v>35736.54669381231</v>
+      </c>
+      <c r="I77">
+        <v>56541.0767425193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>9900</v>
+      </c>
+      <c r="C81">
+        <v>9900</v>
+      </c>
+      <c r="D81">
+        <v>9900</v>
+      </c>
+      <c r="E81">
+        <v>9900</v>
+      </c>
+      <c r="F81">
+        <v>9900</v>
+      </c>
+      <c r="G81">
+        <v>9900</v>
+      </c>
+      <c r="H81">
+        <v>9900</v>
+      </c>
+      <c r="I81">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="C82">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="D82">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="E82">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="F82">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="G82">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="H82">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="I82">
+        <v>9390.57268055621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="C83">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="D83">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="E83">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="F83">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="G83">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="H83">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="I83">
+        <v>8980.780289057795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="C84">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="D84">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="E84">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="F84">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="G84">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="H84">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="I84">
+        <v>8633.866428884701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="C85">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="D85">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="E85">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="F85">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="G85">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="H85">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="I85">
+        <v>8327.703243049193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>8377.976356698453</v>
+      </c>
+      <c r="C86">
+        <v>10460.94566578749</v>
+      </c>
+      <c r="D86">
+        <v>11314.15946674805</v>
+      </c>
+      <c r="E86">
+        <v>12143.73770525133</v>
+      </c>
+      <c r="F86">
+        <v>12984.70335138021</v>
+      </c>
+      <c r="G86">
+        <v>13819.71153854127</v>
+      </c>
+      <c r="H86">
+        <v>11080.28401418394</v>
+      </c>
+      <c r="I86">
+        <v>13241.29541596352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>10147.88163503828</v>
+      </c>
+      <c r="C87">
+        <v>13287.84342996646</v>
+      </c>
+      <c r="D87">
+        <v>14683.28903720904</v>
+      </c>
+      <c r="E87">
+        <v>16277.57157428563</v>
+      </c>
+      <c r="F87">
+        <v>17860.36002480463</v>
+      </c>
+      <c r="G87">
+        <v>19464.95379481621</v>
+      </c>
+      <c r="H87">
+        <v>14365.13685021846</v>
+      </c>
+      <c r="I87">
+        <v>18341.39914281568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>12085.64170076902</v>
+      </c>
+      <c r="C88">
+        <v>16213.99002561652</v>
+      </c>
+      <c r="D88">
+        <v>18392.12078041776</v>
+      </c>
+      <c r="E88">
+        <v>20647.86411714312</v>
+      </c>
+      <c r="F88">
+        <v>23331.75777149248</v>
+      </c>
+      <c r="G88">
+        <v>25957.70204945764</v>
+      </c>
+      <c r="H88">
+        <v>17861.86484370572</v>
+      </c>
+      <c r="I88">
+        <v>24015.15993751922</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>13358.28897564399</v>
+      </c>
+      <c r="C89">
+        <v>19297.87262049529</v>
+      </c>
+      <c r="D89">
+        <v>22190.20116621525</v>
+      </c>
+      <c r="E89">
+        <v>25682.03554142104</v>
+      </c>
+      <c r="F89">
+        <v>29377.40687955839</v>
+      </c>
+      <c r="G89">
+        <v>33155.34048818575</v>
+      </c>
+      <c r="H89">
+        <v>21612.68426367583</v>
+      </c>
+      <c r="I89">
+        <v>30458.89799023162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>15279.58358151845</v>
+      </c>
+      <c r="C90">
+        <v>22404.86536712496</v>
+      </c>
+      <c r="D90">
+        <v>26356.28073300186</v>
+      </c>
+      <c r="E90">
+        <v>30929.2411377065</v>
+      </c>
+      <c r="F90">
+        <v>36055.09289442426</v>
+      </c>
+      <c r="G90">
+        <v>41791.16539314284</v>
+      </c>
+      <c r="H90">
+        <v>25583.89900315208</v>
+      </c>
+      <c r="I90">
+        <v>37648.41199314537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>17226.32341208915</v>
+      </c>
+      <c r="C91">
+        <v>25969.00068742529</v>
+      </c>
+      <c r="D91">
+        <v>30991.08169806911</v>
+      </c>
+      <c r="E91">
+        <v>37023.07061936396</v>
+      </c>
+      <c r="F91">
+        <v>43678.81854918328</v>
+      </c>
+      <c r="G91">
+        <v>51157.18147326996</v>
+      </c>
+      <c r="H91">
+        <v>30023.07586720653</v>
+      </c>
+      <c r="I91">
+        <v>45820.98366108115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>9900</v>
+      </c>
+      <c r="C95">
+        <v>9900</v>
+      </c>
+      <c r="D95">
+        <v>9900</v>
+      </c>
+      <c r="E95">
+        <v>9900</v>
+      </c>
+      <c r="F95">
+        <v>9900</v>
+      </c>
+      <c r="G95">
+        <v>9900</v>
+      </c>
+      <c r="H95">
+        <v>9900</v>
+      </c>
+      <c r="I95">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="C96">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="D96">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="E96">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="F96">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="G96">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="H96">
+        <v>9390.572680556208</v>
+      </c>
+      <c r="I96">
+        <v>9390.57268055621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="C97">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="D97">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="E97">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="F97">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="G97">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="H97">
+        <v>8980.780289057795</v>
+      </c>
+      <c r="I97">
+        <v>8980.780289057795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="C98">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="D98">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="E98">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="F98">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="G98">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="H98">
+        <v>8633.866428884699</v>
+      </c>
+      <c r="I98">
+        <v>8633.866428884701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="C99">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="D99">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="E99">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="F99">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="G99">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="H99">
+        <v>8327.703243049191</v>
+      </c>
+      <c r="I99">
+        <v>8327.703243049193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>8048.934394157803</v>
+      </c>
+      <c r="C100">
+        <v>8048.934394157803</v>
+      </c>
+      <c r="D100">
+        <v>8048.934394157803</v>
+      </c>
+      <c r="E100">
+        <v>8048.934394157803</v>
+      </c>
+      <c r="F100">
+        <v>8048.934394157803</v>
+      </c>
+      <c r="G100">
+        <v>8048.934394157803</v>
+      </c>
+      <c r="H100">
+        <v>8048.934394157803</v>
+      </c>
+      <c r="I100">
+        <v>8048.934394157803</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>8011.414293404117</v>
+      </c>
+      <c r="C101">
+        <v>10124.6490989365</v>
+      </c>
+      <c r="D101">
+        <v>10960.84392178898</v>
+      </c>
+      <c r="E101">
+        <v>11771.23108392365</v>
+      </c>
+      <c r="F101">
+        <v>12575.72868018232</v>
+      </c>
+      <c r="G101">
+        <v>13415.67944791488</v>
+      </c>
+      <c r="H101">
+        <v>10718.93284646202</v>
+      </c>
+      <c r="I101">
+        <v>12845.34685363371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>9392.739552447805</v>
+      </c>
+      <c r="C102">
+        <v>12709.41270250731</v>
+      </c>
+      <c r="D102">
+        <v>14196.41864827257</v>
+      </c>
+      <c r="E102">
+        <v>15747.10121093558</v>
+      </c>
+      <c r="F102">
+        <v>17380.77757148359</v>
+      </c>
+      <c r="G102">
+        <v>19014.17445894905</v>
+      </c>
+      <c r="H102">
+        <v>13808.30988491047</v>
+      </c>
+      <c r="I102">
+        <v>17850.73335790169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>11457.54577064204</v>
+      </c>
+      <c r="C103">
+        <v>15667.99468983932</v>
+      </c>
+      <c r="D103">
+        <v>17826.92197288027</v>
+      </c>
+      <c r="E103">
+        <v>20030.48386958701</v>
+      </c>
+      <c r="F103">
+        <v>22510.31462290297</v>
+      </c>
+      <c r="G103">
+        <v>25283.942005082</v>
+      </c>
+      <c r="H103">
+        <v>17272.523881678</v>
+      </c>
+      <c r="I103">
+        <v>23334.84517335603</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>13268.74564669315</v>
+      </c>
+      <c r="C104">
+        <v>18681.30067861826</v>
+      </c>
+      <c r="D104">
+        <v>21522.97868727472</v>
+      </c>
+      <c r="E104">
+        <v>24696.92370241139</v>
+      </c>
+      <c r="F104">
+        <v>28335.24718866921</v>
+      </c>
+      <c r="G104">
+        <v>32299.3046212818</v>
+      </c>
+      <c r="H104">
+        <v>20896.26733893244</v>
+      </c>
+      <c r="I104">
+        <v>29499.626211727</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>10</v>
+      </c>
+      <c r="B105">
+        <v>15597.50990810309</v>
+      </c>
+      <c r="C105">
+        <v>21987.24531360398</v>
+      </c>
+      <c r="D105">
+        <v>25691.12188829344</v>
+      </c>
+      <c r="E105">
+        <v>30114.20114595227</v>
+      </c>
+      <c r="F105">
+        <v>35172.81785189258</v>
+      </c>
+      <c r="G105">
+        <v>40409.01510560812</v>
+      </c>
+      <c r="H105">
+        <v>25008.93900689548</v>
+      </c>
+      <c r="I105">
+        <v>36742.3440995701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>113.3321588776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3236.689669549553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3695.400716377385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3959.269156770915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4218.360485613202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>4492.869678979806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3913.827425813286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>40.84312977298499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>-0.1324617272165352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>-0.03383513026830044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.01093845396622279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.0595133789728818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0.1087850316843288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.1541294757880629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>6.558727680698163E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.1199293970222776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1250.943017599711</v>
+      </c>
+      <c r="C26">
+        <v>1293.827091064017</v>
+      </c>
+      <c r="D26">
+        <v>1317.826665121134</v>
+      </c>
+      <c r="E26">
+        <v>1343.365505228439</v>
+      </c>
+      <c r="F26">
+        <v>1370.221812001041</v>
+      </c>
+      <c r="G26">
+        <v>1394.302055061993</v>
+      </c>
+      <c r="H26">
+        <v>1312.562503628248</v>
+      </c>
+      <c r="I26">
+        <v>1375.415245837632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2205.628280020278</v>
+      </c>
+      <c r="C27">
+        <v>2465.259651172673</v>
+      </c>
+      <c r="D27">
+        <v>2577.922542292469</v>
+      </c>
+      <c r="E27">
+        <v>2696.622851953531</v>
+      </c>
+      <c r="F27">
+        <v>2818.075471643476</v>
+      </c>
+      <c r="G27">
+        <v>2931.830550170432</v>
+      </c>
+      <c r="H27">
+        <v>2548.789458355793</v>
+      </c>
+      <c r="I27">
+        <v>2850.172487229356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3236.689669549553</v>
+      </c>
+      <c r="C28">
+        <v>3695.400716377385</v>
+      </c>
+      <c r="D28">
+        <v>3959.269156770915</v>
+      </c>
+      <c r="E28">
+        <v>4218.360485613202</v>
+      </c>
+      <c r="F28">
+        <v>4492.869678979806</v>
+      </c>
+      <c r="G28">
+        <v>4750.064794184235</v>
+      </c>
+      <c r="H28">
+        <v>3894.350084001649</v>
+      </c>
+      <c r="I28">
+        <v>4557.382515824901</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -928,28 +3241,28 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>2043.619306814835</v>
+        <v>2024.052050036441</v>
       </c>
       <c r="C34">
-        <v>2291.019629018307</v>
+        <v>2290.861552020022</v>
       </c>
       <c r="D34">
-        <v>2384.957588739388</v>
+        <v>2386.147040332328</v>
       </c>
       <c r="E34">
-        <v>2482.188770025945</v>
+        <v>2481.076769920974</v>
       </c>
       <c r="F34">
-        <v>2576.980319446219</v>
+        <v>2578.598535907908</v>
       </c>
       <c r="G34">
-        <v>2677.388385199666</v>
+        <v>2669.937103090686</v>
       </c>
       <c r="H34">
-        <v>2356.980919894244</v>
+        <v>2356.572885068224</v>
       </c>
       <c r="I34">
-        <v>2606.645937911689</v>
+        <v>2604.793725898081</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -957,28 +3270,28 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>2923.475439517638</v>
+        <v>3033.619177219045</v>
       </c>
       <c r="C35">
-        <v>3437.096911103056</v>
+        <v>3439.304666434889</v>
       </c>
       <c r="D35">
-        <v>3660.725750479544</v>
+        <v>3658.157210609917</v>
       </c>
       <c r="E35">
-        <v>3892.132668116157</v>
+        <v>3887.726528093147</v>
       </c>
       <c r="F35">
-        <v>4121.786359365039</v>
+        <v>4126.530578437545</v>
       </c>
       <c r="G35">
-        <v>4355.586049008741</v>
+        <v>4353.529347016496</v>
       </c>
       <c r="H35">
-        <v>3600.976311104425</v>
+        <v>3604.030450229876</v>
       </c>
       <c r="I35">
-        <v>4189.13716030059</v>
+        <v>4185.281346637208</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1107,28 +3420,28 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>2565.544262169058</v>
+        <v>2516.598508147371</v>
       </c>
       <c r="C42">
-        <v>2954.317150763103</v>
+        <v>2942.008848594099</v>
       </c>
       <c r="D42">
-        <v>3111.191961547754</v>
+        <v>3109.880963074106</v>
       </c>
       <c r="E42">
-        <v>3262.791758722613</v>
+        <v>3259.468620435533</v>
       </c>
       <c r="F42">
-        <v>3414.975458327235</v>
+        <v>3412.068336127414</v>
       </c>
       <c r="G42">
-        <v>3568.733372864364</v>
+        <v>3569.0597681491</v>
       </c>
       <c r="H42">
-        <v>3063.643918463549</v>
+        <v>3059.837282691266</v>
       </c>
       <c r="I42">
-        <v>3459.46426992578</v>
+        <v>3459.55985127095</v>
       </c>
     </row>
     <row r="44" spans="1:9">

--- a/montecarlo/output.xlsx
+++ b/montecarlo/output.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="medium term" sheetId="1" r:id="rId1"/>
-    <sheet name="short-term" sheetId="2" r:id="rId2"/>
+    <sheet name="long-term" sheetId="1" r:id="rId1"/>
+    <sheet name="medium-term" sheetId="2" r:id="rId2"/>
+    <sheet name="short-term" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="41">
   <si>
     <t>Amount</t>
   </si>
@@ -495,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +521,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -532,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>455.3008495150807</v>
+        <v>1223.487853344124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -556,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>28922.68489037659</v>
+        <v>115472.9432846173</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -564,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>48537.07127295664</v>
+        <v>276843.1828701746</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -572,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>59564.71367254369</v>
+        <v>395616.7501163135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -580,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>74302.54515083579</v>
+        <v>583446.8238216951</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -588,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>92883.96787170522</v>
+        <v>855828.2103850334</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -596,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>99.73999999999999</v>
+        <v>99.22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -604,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>45452.18535526778</v>
+        <v>255041.9222370085</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -620,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>3468.772805517483</v>
+        <v>68616.30798533263</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -628,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.06338521284013833</v>
+        <v>-0.004715068132126819</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -636,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.002500223220342955</v>
+        <v>0.03033947589135807</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -644,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.03697114117941649</v>
+        <v>0.05029993564686442</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -652,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.07290888030787079</v>
+        <v>0.0723084963680168</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -660,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.1104059391287947</v>
+        <v>0.09449336431451633</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -668,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.1428692187321482</v>
+        <v>0.1136774279860289</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -676,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02919349843200043</v>
+        <v>0.04642521392005663</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -684,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.1166065295015791</v>
+        <v>0.0983672444818111</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -721,28 +722,28 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -750,28 +751,28 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>9821.255305623845</v>
+        <v>16290.19203746266</v>
       </c>
       <c r="C26">
-        <v>12317.5684886087</v>
+        <v>21380.97477725926</v>
       </c>
       <c r="D26">
-        <v>13297.53558619538</v>
+        <v>23477.71102773281</v>
       </c>
       <c r="E26">
-        <v>14294.92136782273</v>
+        <v>25486.86379199748</v>
       </c>
       <c r="F26">
-        <v>15333.65578505494</v>
+        <v>27506.8688730776</v>
       </c>
       <c r="G26">
-        <v>16251.80336088348</v>
+        <v>29574.30071441198</v>
       </c>
       <c r="H26">
-        <v>13010.11220529193</v>
+        <v>22872.9993087046</v>
       </c>
       <c r="I26">
-        <v>15585.87213351939</v>
+        <v>28146.55944451503</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -779,28 +780,28 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>11718.92788000589</v>
+        <v>17971.6831674849</v>
       </c>
       <c r="C27">
-        <v>15404.84986120035</v>
+        <v>24809.73213381869</v>
       </c>
       <c r="D27">
-        <v>17156.83970742489</v>
+        <v>28008.3831011818</v>
       </c>
       <c r="E27">
-        <v>19026.23017755747</v>
+        <v>31407.95801708564</v>
       </c>
       <c r="F27">
-        <v>20974.19877358378</v>
+        <v>34965.41414355161</v>
       </c>
       <c r="G27">
-        <v>22795.70508696611</v>
+        <v>38758.88035796567</v>
       </c>
       <c r="H27">
-        <v>16718.69584088558</v>
+        <v>27176.4169497948</v>
       </c>
       <c r="I27">
-        <v>21473.359813549</v>
+        <v>36166.44906855694</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -808,28 +809,28 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>13776.29780912424</v>
+        <v>19259.35631639699</v>
       </c>
       <c r="C28">
-        <v>18647.13509292024</v>
+        <v>28302.55474080428</v>
       </c>
       <c r="D28">
-        <v>21328.07241414857</v>
+        <v>32840.7892069105</v>
       </c>
       <c r="E28">
-        <v>24190.27877772342</v>
+        <v>37751.01352847289</v>
       </c>
       <c r="F28">
-        <v>26980.20787582564</v>
+        <v>43097.55094643559</v>
       </c>
       <c r="G28">
-        <v>30219.42254996607</v>
+        <v>48981.91020695629</v>
       </c>
       <c r="H28">
-        <v>20709.44536598292</v>
+        <v>31788.84939605543</v>
       </c>
       <c r="I28">
-        <v>27935.55791520486</v>
+        <v>44761.43821149499</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -837,28 +838,28 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>15455.35795634232</v>
+        <v>21190.74463584888</v>
       </c>
       <c r="C29">
-        <v>22225.79892494183</v>
+        <v>32166.3908154906</v>
       </c>
       <c r="D29">
-        <v>25592.50352486606</v>
+        <v>37979.91857843553</v>
       </c>
       <c r="E29">
-        <v>29603.67874258191</v>
+        <v>44605.82770482083</v>
       </c>
       <c r="F29">
-        <v>34080.94057633068</v>
+        <v>51945.10742673378</v>
       </c>
       <c r="G29">
-        <v>38330.79741131094</v>
+        <v>60086.62163872805</v>
       </c>
       <c r="H29">
-        <v>24858.60876447104</v>
+        <v>36723.16345014701</v>
       </c>
       <c r="I29">
-        <v>35146.26173696327</v>
+        <v>54269.39178472259</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -866,28 +867,28 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>17925.34368187515</v>
+        <v>22944.30153616594</v>
       </c>
       <c r="C30">
-        <v>25823.82170713397</v>
+        <v>36320.27082737011</v>
       </c>
       <c r="D30">
-        <v>30218.22059726328</v>
+        <v>43291.10791685971</v>
       </c>
       <c r="E30">
-        <v>35589.66523765006</v>
+        <v>51780.43004616585</v>
       </c>
       <c r="F30">
-        <v>41410.77142787125</v>
+        <v>61582.05106078612</v>
       </c>
       <c r="G30">
-        <v>47687.72692989855</v>
+        <v>72372.62599933754</v>
       </c>
       <c r="H30">
-        <v>29384.5031235114</v>
+        <v>41964.40731413875</v>
       </c>
       <c r="I30">
-        <v>43131.20930746465</v>
+        <v>64690.48869654775</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -895,28 +896,28 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>20041.93250578742</v>
+        <v>24815.55102353959</v>
       </c>
       <c r="C31">
-        <v>29800.48691497965</v>
+        <v>40504.24821573735</v>
       </c>
       <c r="D31">
-        <v>35390.45357268448</v>
+        <v>49562.13305345563</v>
       </c>
       <c r="E31">
-        <v>41949.11371319374</v>
+        <v>59896.12291575025</v>
       </c>
       <c r="F31">
-        <v>49455.56683597071</v>
+        <v>72385.56746303049</v>
       </c>
       <c r="G31">
-        <v>57217.03732137848</v>
+        <v>85718.20377891601</v>
       </c>
       <c r="H31">
-        <v>34275.83954613147</v>
+        <v>47827.03947537942</v>
       </c>
       <c r="I31">
-        <v>51719.91839088828</v>
+        <v>76165.31225535687</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -924,28 +925,28 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>22165.17544425074</v>
+        <v>27543.40599073019</v>
       </c>
       <c r="C32">
-        <v>33929.96568532654</v>
+        <v>45452.44437553835</v>
       </c>
       <c r="D32">
-        <v>40679.38284559202</v>
+        <v>55612.41906791211</v>
       </c>
       <c r="E32">
-        <v>48933.89365611276</v>
+        <v>68210.4978207961</v>
       </c>
       <c r="F32">
-        <v>58566.13031532844</v>
+        <v>84199.12296217481</v>
       </c>
       <c r="G32">
-        <v>69028.24717855929</v>
+        <v>100380.6940352933</v>
       </c>
       <c r="H32">
-        <v>39450.05012289229</v>
+        <v>53773.96291958048</v>
       </c>
       <c r="I32">
-        <v>61494.08759907305</v>
+        <v>88657.88284024468</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -953,28 +954,28 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>24955.76375492895</v>
+        <v>32571.93646277452</v>
       </c>
       <c r="C33">
-        <v>37988.9734547067</v>
+        <v>50393.5998263373</v>
       </c>
       <c r="D33">
-        <v>46564.79412775719</v>
+        <v>62452.7670522644</v>
       </c>
       <c r="E33">
-        <v>56461.61354215845</v>
+        <v>78139.25949302892</v>
       </c>
       <c r="F33">
-        <v>68481.71375501176</v>
+        <v>95718.96011917935</v>
       </c>
       <c r="G33">
-        <v>81412.05078345863</v>
+        <v>116680.6565667668</v>
       </c>
       <c r="H33">
-        <v>44956.39631154748</v>
+        <v>60636.74470359115</v>
       </c>
       <c r="I33">
-        <v>72266.3929473407</v>
+        <v>102096.7226736808</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -982,28 +983,28 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>26885.86832119287</v>
+        <v>36332.14418056348</v>
       </c>
       <c r="C34">
-        <v>42582.04054045596</v>
+        <v>55736.06432090359</v>
       </c>
       <c r="D34">
-        <v>52198.42869869027</v>
+        <v>69869.26601029956</v>
       </c>
       <c r="E34">
-        <v>64702.44601807558</v>
+        <v>88226.42804264463</v>
       </c>
       <c r="F34">
-        <v>79724.53714268483</v>
+        <v>109712.7892723466</v>
       </c>
       <c r="G34">
-        <v>95659.79487115185</v>
+        <v>134918.979288837</v>
       </c>
       <c r="H34">
-        <v>50684.93075912292</v>
+        <v>67770.85515556831</v>
       </c>
       <c r="I34">
-        <v>84015.77360862138</v>
+        <v>117383.7797262437</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1011,1793 +1012,5273 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>28922.68489037659</v>
+        <v>39062.79046515038</v>
       </c>
       <c r="C35">
-        <v>48537.07127295664</v>
+        <v>61733.32390218256</v>
       </c>
       <c r="D35">
-        <v>59564.71367254369</v>
+        <v>77275.07852070371</v>
       </c>
       <c r="E35">
-        <v>74302.54515083579</v>
+        <v>98134.14642369693</v>
       </c>
       <c r="F35">
-        <v>92883.96787170522</v>
+        <v>124409.8003164204</v>
       </c>
       <c r="G35">
-        <v>111465.8846888206</v>
+        <v>153443.5898017885</v>
       </c>
       <c r="H35">
-        <v>57653.79752381663</v>
+        <v>75192.53938446257</v>
       </c>
       <c r="I35">
-        <v>97890.20216467562</v>
+        <v>133392.038736582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>43186.6692137249</v>
+      </c>
+      <c r="C36">
+        <v>68176.24006617107</v>
+      </c>
+      <c r="D36">
+        <v>85434.05974936896</v>
+      </c>
+      <c r="E36">
+        <v>110772.3273489374</v>
+      </c>
+      <c r="F36">
+        <v>140776.7995449828</v>
+      </c>
+      <c r="G36">
+        <v>176489.3657087802</v>
+      </c>
+      <c r="H36">
+        <v>83483.41397727581</v>
+      </c>
+      <c r="I36">
+        <v>152440.2579441274</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>45301.28734481215</v>
+      </c>
+      <c r="C37">
+        <v>74065.94942689511</v>
+      </c>
+      <c r="D37">
+        <v>95160.60427878278</v>
+      </c>
+      <c r="E37">
+        <v>122931.4619398506</v>
+      </c>
+      <c r="F37">
+        <v>158786.5009484359</v>
+      </c>
+      <c r="G37">
+        <v>200906.5968441887</v>
+      </c>
+      <c r="H37">
+        <v>91907.11536043471</v>
+      </c>
+      <c r="I37">
+        <v>172237.494574075</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>35</v>
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>47892.7630965088</v>
+      </c>
+      <c r="C38">
+        <v>81440.756573794</v>
+      </c>
+      <c r="D38">
+        <v>104085.5979236106</v>
+      </c>
+      <c r="E38">
+        <v>136553.2710835094</v>
+      </c>
+      <c r="F38">
+        <v>178056.3597755558</v>
+      </c>
+      <c r="G38">
+        <v>227223.2786621977</v>
+      </c>
+      <c r="H38">
+        <v>101299.8797202152</v>
+      </c>
+      <c r="I38">
+        <v>194164.2829256436</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>9900</v>
+        <v>53007.31270245815</v>
       </c>
       <c r="C39">
-        <v>9900</v>
+        <v>88697.34336267757</v>
       </c>
       <c r="D39">
-        <v>9900</v>
+        <v>113716.290647422</v>
       </c>
       <c r="E39">
-        <v>9900</v>
+        <v>150896.5489489078</v>
       </c>
       <c r="F39">
-        <v>9900</v>
+        <v>198982.0216252623</v>
       </c>
       <c r="G39">
-        <v>9900</v>
+        <v>257786.0433882027</v>
       </c>
       <c r="H39">
-        <v>9900</v>
+        <v>111086.2895009005</v>
       </c>
       <c r="I39">
-        <v>9900</v>
+        <v>217501.2911857768</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>9390.572680556208</v>
+        <v>52101.72057252239</v>
       </c>
       <c r="C40">
-        <v>9390.572680556208</v>
+        <v>95840.12389690483</v>
       </c>
       <c r="D40">
-        <v>9390.572680556208</v>
+        <v>124130.9715108109</v>
       </c>
       <c r="E40">
-        <v>9390.572680556208</v>
+        <v>166849.7808275364</v>
       </c>
       <c r="F40">
-        <v>9390.572680556208</v>
+        <v>221250.4493220328</v>
       </c>
       <c r="G40">
-        <v>9390.572680556208</v>
+        <v>287029.2112953907</v>
       </c>
       <c r="H40">
-        <v>9390.572680556208</v>
+        <v>120881.4158420574</v>
       </c>
       <c r="I40">
-        <v>9390.57268055621</v>
+        <v>243481.820144819</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>9438.152478667496</v>
+        <v>57602.13930612802</v>
       </c>
       <c r="C41">
-        <v>11690.10985438505</v>
+        <v>103241.2048155307</v>
       </c>
       <c r="D41">
-        <v>12584.15431852201</v>
+        <v>136553.7552049729</v>
       </c>
       <c r="E41">
-        <v>13526.33134653869</v>
+        <v>182286.289303382</v>
       </c>
       <c r="F41">
-        <v>14457.56471489814</v>
+        <v>244892.1065309313</v>
       </c>
       <c r="G41">
-        <v>15489.86236377061</v>
+        <v>323511.7446834216</v>
       </c>
       <c r="H41">
-        <v>12335.00460388863</v>
+        <v>131800.6156751618</v>
       </c>
       <c r="I41">
-        <v>14764.27102062949</v>
+        <v>270648.1990130927</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>11005.59582996957</v>
+        <v>59488.75533540034</v>
       </c>
       <c r="C42">
-        <v>14785.56119361374</v>
+        <v>111831.723019441</v>
       </c>
       <c r="D42">
-        <v>16361.48342354751</v>
+        <v>147162.5393123968</v>
       </c>
       <c r="E42">
-        <v>18096.93759343144</v>
+        <v>199435.0243074757</v>
       </c>
       <c r="F42">
-        <v>19972.42599956218</v>
+        <v>271036.5418761519</v>
       </c>
       <c r="G42">
-        <v>21836.167834972</v>
+        <v>363425.6055500894</v>
       </c>
       <c r="H42">
-        <v>15952.4509151689</v>
+        <v>143091.3158407342</v>
       </c>
       <c r="I42">
-        <v>20491.39964200644</v>
+        <v>301481.6182700989</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>13246.12471301934</v>
+        <v>63418.83169112016</v>
       </c>
       <c r="C43">
-        <v>18021.78279646847</v>
+        <v>119781.5587059027</v>
       </c>
       <c r="D43">
-        <v>20422.7869963617</v>
+        <v>161544.2460127408</v>
       </c>
       <c r="E43">
-        <v>23139.51943292446</v>
+        <v>218113.0569504256</v>
       </c>
       <c r="F43">
-        <v>26051.67699186457</v>
+        <v>298174.6517744447</v>
       </c>
       <c r="G43">
-        <v>28889.83717184462</v>
+        <v>403223.2501611341</v>
       </c>
       <c r="H43">
-        <v>19893.47729718541</v>
+        <v>155855.1743678169</v>
       </c>
       <c r="I43">
-        <v>26802.50459325409</v>
+        <v>333322.9393578064</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>14743.09644300375</v>
+        <v>69863.14552598087</v>
       </c>
       <c r="C44">
-        <v>21326.28995265764</v>
+        <v>129520.2754230735</v>
       </c>
       <c r="D44">
-        <v>24750.23717768012</v>
+        <v>175159.6506665732</v>
       </c>
       <c r="E44">
-        <v>28469.55584460031</v>
+        <v>239096.6565467479</v>
       </c>
       <c r="F44">
-        <v>32669.68574542326</v>
+        <v>327411.4564362878</v>
       </c>
       <c r="G44">
-        <v>36846.85982469866</v>
+        <v>439581.512803826</v>
       </c>
       <c r="H44">
-        <v>23909.34100757544</v>
+        <v>169430.0227274179</v>
       </c>
       <c r="I44">
-        <v>33872.59982114412</v>
+        <v>368091.4144331678</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>17017.21002927251</v>
+        <v>72455.54263939866</v>
       </c>
       <c r="C45">
-        <v>24514.84319000895</v>
+        <v>139166.5367899767</v>
       </c>
       <c r="D45">
-        <v>28932.52860050597</v>
+        <v>187715.3810443585</v>
       </c>
       <c r="E45">
-        <v>34212.19774883991</v>
+        <v>260289.0795020802</v>
       </c>
       <c r="F45">
-        <v>39911.51627066662</v>
+        <v>362559.749627511</v>
       </c>
       <c r="G45">
-        <v>46195.99747476915</v>
+        <v>490725.4595237644</v>
       </c>
       <c r="H45">
-        <v>28075.47009710311</v>
+        <v>182567.2925111621</v>
       </c>
       <c r="I45">
-        <v>41733.3455971265</v>
+        <v>405239.2497508188</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>19009.95598233608</v>
+        <v>70878.98318088113</v>
       </c>
       <c r="C46">
-        <v>28351.31929223616</v>
+        <v>149820.9460347279</v>
       </c>
       <c r="D46">
-        <v>33627.76203091746</v>
+        <v>202821.8059205561</v>
       </c>
       <c r="E46">
-        <v>40433.05821646351</v>
+        <v>284498.18811934</v>
       </c>
       <c r="F46">
-        <v>48014.05903562403</v>
+        <v>395121.7236297125</v>
       </c>
       <c r="G46">
-        <v>56167.07172023426</v>
+        <v>539418.8478621792</v>
       </c>
       <c r="H46">
-        <v>32686.79720489871</v>
+        <v>197241.4020080112</v>
       </c>
       <c r="I46">
-        <v>50292.33581021578</v>
+        <v>447811.9913685162</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>20246.84233400537</v>
+        <v>75269.75605001203</v>
       </c>
       <c r="C47">
-        <v>31966.47519252755</v>
+        <v>160189.834425608</v>
       </c>
       <c r="D47">
-        <v>38820.96242770163</v>
+        <v>218940.4299645066</v>
       </c>
       <c r="E47">
-        <v>47128.23235284618</v>
+        <v>307706.3515792622</v>
       </c>
       <c r="F47">
-        <v>56739.3867167362</v>
+        <v>435112.1859711281</v>
       </c>
       <c r="G47">
-        <v>66425.33647233799</v>
+        <v>598599.0133631661</v>
       </c>
       <c r="H47">
-        <v>37610.34406472522</v>
+        <v>212727.3751531602</v>
       </c>
       <c r="I47">
-        <v>59507.02569188273</v>
+        <v>493979.9867186096</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>23092.38325108857</v>
+        <v>78331.575592657</v>
       </c>
       <c r="C48">
-        <v>36496.25640161191</v>
+        <v>173066.9081393398</v>
       </c>
       <c r="D48">
-        <v>44519.94372270646</v>
+        <v>235516.9338835061</v>
       </c>
       <c r="E48">
-        <v>54467.62141828277</v>
+        <v>333311.3023209883</v>
       </c>
       <c r="F48">
-        <v>66138.09046021466</v>
+        <v>474759.3281378284</v>
       </c>
       <c r="G48">
-        <v>78730.93384744736</v>
+        <v>662605.4124280923</v>
       </c>
       <c r="H48">
-        <v>43059.38169826885</v>
+        <v>228589.10953979</v>
       </c>
       <c r="I48">
-        <v>69756.47147712966</v>
+        <v>542120.9667988432</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>25202.55681290262</v>
+        <v>80686.40063585319</v>
       </c>
       <c r="C49">
-        <v>41371.35159912281</v>
+        <v>184539.7692255206</v>
       </c>
       <c r="D49">
-        <v>50906.87379679511</v>
+        <v>252631.8000628301</v>
       </c>
       <c r="E49">
-        <v>63046.88050097258</v>
+        <v>362620.1566107272</v>
       </c>
       <c r="F49">
-        <v>77447.44496187269</v>
+        <v>520709.9406070209</v>
       </c>
       <c r="G49">
-        <v>92866.83915086463</v>
+        <v>725183.3204387705</v>
       </c>
       <c r="H49">
-        <v>49090.2165767886</v>
+        <v>246841.7145033849</v>
       </c>
       <c r="I49">
-        <v>82109.79215759465</v>
+        <v>595486.305967126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>83513.63179222839</v>
+      </c>
+      <c r="C50">
+        <v>197280.3163492697</v>
+      </c>
+      <c r="D50">
+        <v>272116.5212972985</v>
+      </c>
+      <c r="E50">
+        <v>393374.5372840896</v>
+      </c>
+      <c r="F50">
+        <v>569942.7026306497</v>
+      </c>
+      <c r="G50">
+        <v>804484.0914482839</v>
+      </c>
+      <c r="H50">
+        <v>264847.226662949</v>
+      </c>
+      <c r="I50">
+        <v>654946.23897505</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>37</v>
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>91935.72365655437</v>
+      </c>
+      <c r="C51">
+        <v>213227.847312673</v>
+      </c>
+      <c r="D51">
+        <v>292712.5384622467</v>
+      </c>
+      <c r="E51">
+        <v>422186.369011693</v>
+      </c>
+      <c r="F51">
+        <v>622547.9531862509</v>
+      </c>
+      <c r="G51">
+        <v>880212.0791929448</v>
+      </c>
+      <c r="H51">
+        <v>285175.6367151074</v>
+      </c>
+      <c r="I51">
+        <v>716686.3704284668</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
+      <c r="A52">
         <v>27</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>35</v>
+      <c r="B52">
+        <v>82173.49450879052</v>
+      </c>
+      <c r="C52">
+        <v>227887.7978424266</v>
+      </c>
+      <c r="D52">
+        <v>316744.9845366532</v>
+      </c>
+      <c r="E52">
+        <v>455057.1107029623</v>
+      </c>
+      <c r="F52">
+        <v>664153.4017743262</v>
+      </c>
+      <c r="G52">
+        <v>962716.6885008261</v>
+      </c>
+      <c r="H52">
+        <v>305974.2090339837</v>
+      </c>
+      <c r="I52">
+        <v>778278.2016071752</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B53">
-        <v>9900</v>
+        <v>93371.92896125559</v>
       </c>
       <c r="C53">
-        <v>9900</v>
+        <v>242351.8824573412</v>
       </c>
       <c r="D53">
-        <v>9900</v>
+        <v>336685.0757386523</v>
       </c>
       <c r="E53">
-        <v>9900</v>
+        <v>495057.3673618686</v>
       </c>
       <c r="F53">
-        <v>9900</v>
+        <v>724988.3407833106</v>
       </c>
       <c r="G53">
-        <v>9900</v>
+        <v>1049266.732245178</v>
       </c>
       <c r="H53">
-        <v>9900</v>
+        <v>328125.3065133368</v>
       </c>
       <c r="I53">
-        <v>9900</v>
+        <v>846348.9887761078</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>9390.572680556208</v>
+        <v>97605.89541670008</v>
       </c>
       <c r="C54">
-        <v>9390.572680556208</v>
+        <v>256682.9785371603</v>
       </c>
       <c r="D54">
-        <v>9390.572680556208</v>
+        <v>363281.7106956288</v>
       </c>
       <c r="E54">
-        <v>9390.572680556208</v>
+        <v>533393.8093500471</v>
       </c>
       <c r="F54">
-        <v>9390.572680556208</v>
+        <v>784258.0447096297</v>
       </c>
       <c r="G54">
-        <v>9390.572680556208</v>
+        <v>1138797.405225906</v>
       </c>
       <c r="H54">
-        <v>9390.572680556208</v>
+        <v>354423.5774673615</v>
       </c>
       <c r="I54">
-        <v>9390.57268055621</v>
+        <v>924956.2282409094</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>8980.780289057795</v>
+        <v>115472.9432846173</v>
       </c>
       <c r="C55">
-        <v>8980.780289057795</v>
+        <v>276843.1828701746</v>
       </c>
       <c r="D55">
-        <v>8980.780289057795</v>
+        <v>395616.7501163135</v>
       </c>
       <c r="E55">
-        <v>8980.780289057795</v>
+        <v>583446.8238216951</v>
       </c>
       <c r="F55">
-        <v>8980.780289057795</v>
+        <v>855828.2103850334</v>
       </c>
       <c r="G55">
-        <v>8980.780289057795</v>
+        <v>1257328.203106631</v>
       </c>
       <c r="H55">
-        <v>8980.780289057795</v>
+        <v>384667.3045180967</v>
       </c>
       <c r="I55">
-        <v>8980.780289057795</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56">
-        <v>8867.728000904202</v>
-      </c>
-      <c r="C56">
-        <v>11236.12763256089</v>
-      </c>
-      <c r="D56">
-        <v>12155.10917323292</v>
-      </c>
-      <c r="E56">
-        <v>13045.00582540399</v>
-      </c>
-      <c r="F56">
-        <v>13917.10296748379</v>
-      </c>
-      <c r="G56">
-        <v>14849.78340583507</v>
-      </c>
-      <c r="H56">
-        <v>11894.40166363367</v>
-      </c>
-      <c r="I56">
-        <v>14205.6493250503</v>
+        <v>1024291.630463815</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>10489.12060955259</v>
-      </c>
-      <c r="C57">
-        <v>14162.05615573062</v>
-      </c>
-      <c r="D57">
-        <v>15804.55019457685</v>
-      </c>
-      <c r="E57">
-        <v>17452.80881878525</v>
-      </c>
-      <c r="F57">
-        <v>19172.02986316483</v>
-      </c>
-      <c r="G57">
-        <v>20985.45294535438</v>
-      </c>
-      <c r="H57">
-        <v>15364.00346290554</v>
-      </c>
-      <c r="I57">
-        <v>19705.73659229775</v>
+      <c r="A57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>12571.13322639349</v>
-      </c>
-      <c r="C58">
-        <v>17239.63077551643</v>
-      </c>
-      <c r="D58">
-        <v>19674.87007923559</v>
-      </c>
-      <c r="E58">
-        <v>22193.3801236473</v>
-      </c>
-      <c r="F58">
-        <v>24972.89733948752</v>
-      </c>
-      <c r="G58">
-        <v>27867.38112068026</v>
-      </c>
-      <c r="H58">
-        <v>19064.30578697661</v>
-      </c>
-      <c r="I58">
-        <v>25826.77639651864</v>
+      <c r="A58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>14925.14446953723</v>
+        <v>19800</v>
       </c>
       <c r="C59">
-        <v>20371.09275687037</v>
+        <v>19800</v>
       </c>
       <c r="D59">
-        <v>23682.10481437116</v>
+        <v>19800</v>
       </c>
       <c r="E59">
-        <v>27380.78337385963</v>
+        <v>19800</v>
       </c>
       <c r="F59">
-        <v>31397.6562511531</v>
+        <v>19800</v>
       </c>
       <c r="G59">
-        <v>35889.14451465258</v>
+        <v>19800</v>
       </c>
       <c r="H59">
-        <v>22978.68136330133</v>
+        <v>19800</v>
       </c>
       <c r="I59">
-        <v>32695.39944291619</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>16323.7331285759</v>
+        <v>15900.88298583113</v>
       </c>
       <c r="C60">
-        <v>24011.31158610824</v>
+        <v>15900.88298583113</v>
       </c>
       <c r="D60">
-        <v>27940.89357100323</v>
+        <v>15900.88298583113</v>
       </c>
       <c r="E60">
-        <v>32890.54665982894</v>
+        <v>15900.88298583113</v>
       </c>
       <c r="F60">
-        <v>38334.22354218829</v>
+        <v>15900.88298583113</v>
       </c>
       <c r="G60">
-        <v>44000.32278853768</v>
+        <v>15900.88298583113</v>
       </c>
       <c r="H60">
-        <v>27196.71432634632</v>
+        <v>15900.88298583113</v>
       </c>
       <c r="I60">
-        <v>40065.09502360725</v>
+        <v>15900.88298583112</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>19019.40954529406</v>
+        <v>14003.11791161117</v>
       </c>
       <c r="C61">
-        <v>27382.44104508639</v>
+        <v>17900.99455145296</v>
       </c>
       <c r="D61">
-        <v>32492.95048011673</v>
+        <v>19511.45338838125</v>
       </c>
       <c r="E61">
-        <v>38974.78995399249</v>
+        <v>21141.68435921876</v>
       </c>
       <c r="F61">
-        <v>46155.85053543362</v>
+        <v>22729.01661582059</v>
       </c>
       <c r="G61">
-        <v>53380.07833031394</v>
+        <v>24371.03414669972</v>
       </c>
       <c r="H61">
-        <v>31627.58395633059</v>
+        <v>19050.46930600728</v>
       </c>
       <c r="I61">
-        <v>48319.11846214851</v>
+        <v>23176.39639924287</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>20700.23063171942</v>
+        <v>15434.13567224389</v>
       </c>
       <c r="C62">
-        <v>31291.91765692709</v>
+        <v>21051.15299717462</v>
       </c>
       <c r="D62">
-        <v>37403.26745449263</v>
+        <v>23832.66755340225</v>
       </c>
       <c r="E62">
-        <v>45090.04504368061</v>
+        <v>26662.35798417494</v>
       </c>
       <c r="F62">
-        <v>54415.20193716789</v>
+        <v>29583.03880397602</v>
       </c>
       <c r="G62">
-        <v>64285.76711588529</v>
+        <v>32531.70662348325</v>
       </c>
       <c r="H62">
-        <v>36345.9526180444</v>
+        <v>23167.27084668792</v>
       </c>
       <c r="I62">
-        <v>57394.82239432807</v>
+        <v>30438.24773009747</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>23525.37235094032</v>
+        <v>17622.57743009824</v>
       </c>
       <c r="C63">
-        <v>35728.69290730128</v>
+        <v>24824.30626727015</v>
       </c>
       <c r="D63">
-        <v>43106.64021399198</v>
+        <v>28525.74890612887</v>
       </c>
       <c r="E63">
-        <v>52409.88837450699</v>
+        <v>32472.28151930537</v>
       </c>
       <c r="F63">
-        <v>64221.86342190347</v>
+        <v>37242.54764421535</v>
       </c>
       <c r="G63">
-        <v>77184.71599969936</v>
+        <v>41716.67513130411</v>
       </c>
       <c r="H63">
-        <v>41861.36145098124</v>
+        <v>27641.07450581284</v>
       </c>
       <c r="I63">
-        <v>68051.1641117336</v>
+        <v>38421.13666789301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>19062.98808200807</v>
+      </c>
+      <c r="C64">
+        <v>28700.70119603346</v>
+      </c>
+      <c r="D64">
+        <v>33501.3262413452</v>
+      </c>
+      <c r="E64">
+        <v>39031.39562078843</v>
+      </c>
+      <c r="F64">
+        <v>45307.80896377224</v>
+      </c>
+      <c r="G64">
+        <v>51966.80522793606</v>
+      </c>
+      <c r="H64">
+        <v>32476.61977519354</v>
+      </c>
+      <c r="I64">
+        <v>47162.14478129837</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>38</v>
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>20755.63014016306</v>
+      </c>
+      <c r="C65">
+        <v>32906.50012829423</v>
+      </c>
+      <c r="D65">
+        <v>39070.3593538167</v>
+      </c>
+      <c r="E65">
+        <v>46034.74611360974</v>
+      </c>
+      <c r="F65">
+        <v>54111.50959205667</v>
+      </c>
+      <c r="G65">
+        <v>62678.33834472475</v>
+      </c>
+      <c r="H65">
+        <v>37683.69559021742</v>
+      </c>
+      <c r="I65">
+        <v>56717.71983525364</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>35</v>
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>24401.00180346269</v>
+      </c>
+      <c r="C66">
+        <v>37334.84688226618</v>
+      </c>
+      <c r="D66">
+        <v>44801.54352011815</v>
+      </c>
+      <c r="E66">
+        <v>53444.04963369142</v>
+      </c>
+      <c r="F66">
+        <v>64208.06301488884</v>
+      </c>
+      <c r="G66">
+        <v>75196.96247538285</v>
+      </c>
+      <c r="H66">
+        <v>43181.08773940326</v>
+      </c>
+      <c r="I66">
+        <v>67262.77516404643</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>9900</v>
+        <v>26516.52250668805</v>
       </c>
       <c r="C67">
-        <v>9900</v>
+        <v>42486.85607268297</v>
       </c>
       <c r="D67">
-        <v>9900</v>
+        <v>50902.44717393876</v>
       </c>
       <c r="E67">
-        <v>9900</v>
+        <v>61983.13928747596</v>
       </c>
       <c r="F67">
-        <v>9900</v>
+        <v>74912.0671696146</v>
       </c>
       <c r="G67">
-        <v>9900</v>
+        <v>88979.97856212291</v>
       </c>
       <c r="H67">
-        <v>9900</v>
+        <v>49409.04391386226</v>
       </c>
       <c r="I67">
-        <v>9900</v>
+        <v>79026.79721273242</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>9390.572680556208</v>
+        <v>29711.15925192015</v>
       </c>
       <c r="C68">
-        <v>9390.572680556208</v>
+        <v>47320.99190456781</v>
       </c>
       <c r="D68">
-        <v>9390.572680556208</v>
+        <v>57895.40472303206</v>
       </c>
       <c r="E68">
-        <v>9390.572680556208</v>
+        <v>70795.75136930624</v>
       </c>
       <c r="F68">
-        <v>9390.572680556208</v>
+        <v>86846.50140393039</v>
       </c>
       <c r="G68">
-        <v>9390.572680556208</v>
+        <v>103856.0317423955</v>
       </c>
       <c r="H68">
-        <v>9390.572680556208</v>
+        <v>55847.46445696888</v>
       </c>
       <c r="I68">
-        <v>9390.57268055621</v>
+        <v>91998.30736992531</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>8980.780289057795</v>
+        <v>32461.48026360696</v>
       </c>
       <c r="C69">
-        <v>8980.780289057795</v>
+        <v>52009.57065427277</v>
       </c>
       <c r="D69">
-        <v>8980.780289057795</v>
+        <v>64272.74321584366</v>
       </c>
       <c r="E69">
-        <v>8980.780289057795</v>
+        <v>80350.83207060459</v>
       </c>
       <c r="F69">
-        <v>8980.780289057795</v>
+        <v>99015.45345926503</v>
       </c>
       <c r="G69">
-        <v>8980.780289057795</v>
+        <v>121287.4342082458</v>
       </c>
       <c r="H69">
-        <v>8980.780289057795</v>
+        <v>62251.48489079352</v>
       </c>
       <c r="I69">
-        <v>8980.780289057795</v>
+        <v>106025.922021101</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>8633.866428884699</v>
+        <v>35017.81895182672</v>
       </c>
       <c r="C70">
-        <v>8633.866428884699</v>
+        <v>57598.79483101936</v>
       </c>
       <c r="D70">
-        <v>8633.866428884699</v>
+        <v>71824.1461707851</v>
       </c>
       <c r="E70">
-        <v>8633.866428884699</v>
+        <v>90996.14220595703</v>
       </c>
       <c r="F70">
-        <v>8633.866428884699</v>
+        <v>113538.7586850815</v>
       </c>
       <c r="G70">
-        <v>8633.866428884699</v>
+        <v>140408.5744339553</v>
       </c>
       <c r="H70">
-        <v>8633.866428884699</v>
+        <v>69652.73893414428</v>
       </c>
       <c r="I70">
-        <v>8633.866428884701</v>
+        <v>122089.3549010867</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>8619.78349805703</v>
+        <v>39472.59562218239</v>
       </c>
       <c r="C71">
-        <v>10746.11713553929</v>
+        <v>63980.21600956745</v>
       </c>
       <c r="D71">
-        <v>11683.55330734418</v>
+        <v>80069.75353801265</v>
       </c>
       <c r="E71">
-        <v>12553.71322947726</v>
+        <v>101815.1105325407</v>
       </c>
       <c r="F71">
-        <v>13430.50102618518</v>
+        <v>129248.2252069806</v>
       </c>
       <c r="G71">
-        <v>14243.47842548133</v>
+        <v>160381.4870909065</v>
       </c>
       <c r="H71">
-        <v>11419.54417847473</v>
+        <v>77620.79417766849</v>
       </c>
       <c r="I71">
-        <v>13671.89794413927</v>
+        <v>139365.3494434338</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B72">
-        <v>10573.05619913483</v>
+        <v>40584.24977595585</v>
       </c>
       <c r="C72">
-        <v>13634.92783291568</v>
+        <v>69497.41003012976</v>
       </c>
       <c r="D72">
-        <v>15112.52328031317</v>
+        <v>89221.4264561216</v>
       </c>
       <c r="E72">
-        <v>16700.37785669797</v>
+        <v>114338.7799916758</v>
       </c>
       <c r="F72">
-        <v>18412.34436128785</v>
+        <v>145859.2196344389</v>
       </c>
       <c r="G72">
-        <v>20127.3725708464</v>
+        <v>183123.4601863914</v>
       </c>
       <c r="H72">
-        <v>14727.86538292385</v>
+        <v>85931.96320031257</v>
       </c>
       <c r="I72">
-        <v>18882.87325460303</v>
+        <v>157847.0437923291</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>12531.52348527886</v>
+        <v>43800.74365001472</v>
       </c>
       <c r="C73">
-        <v>16783.59096499452</v>
+        <v>75920.33110665697</v>
       </c>
       <c r="D73">
-        <v>18890.33147960897</v>
+        <v>97631.32434895672</v>
       </c>
       <c r="E73">
-        <v>21403.23835711707</v>
+        <v>127963.4411423668</v>
       </c>
       <c r="F73">
-        <v>24017.57442756135</v>
+        <v>165052.4193309246</v>
       </c>
       <c r="G73">
-        <v>26714.07269237268</v>
+        <v>206701.9788926334</v>
       </c>
       <c r="H73">
-        <v>18440.05035105595</v>
+        <v>94648.35452025699</v>
       </c>
       <c r="I73">
-        <v>24799.91069790884</v>
+        <v>178719.9964724019</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>14897.2600367979</v>
+        <v>45980.68186625012</v>
       </c>
       <c r="C74">
-        <v>20019.41520612131</v>
+        <v>82674.0559489552</v>
       </c>
       <c r="D74">
-        <v>22947.15941783941</v>
+        <v>107423.5744113797</v>
       </c>
       <c r="E74">
-        <v>26298.14288600312</v>
+        <v>141384.1557823198</v>
       </c>
       <c r="F74">
-        <v>30134.02028700397</v>
+        <v>183356.2755955648</v>
       </c>
       <c r="G74">
-        <v>34163.38220686862</v>
+        <v>232689.6239359792</v>
       </c>
       <c r="H74">
-        <v>22315.81350068983</v>
+        <v>104151.9921035109</v>
       </c>
       <c r="I74">
-        <v>31294.7674678835</v>
+        <v>199744.7906545502</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>16235.54958474392</v>
+        <v>49339.49464287268</v>
       </c>
       <c r="C75">
-        <v>23316.74666639104</v>
+        <v>90311.29122829081</v>
       </c>
       <c r="D75">
-        <v>27220.4298135514</v>
+        <v>117261.6310113383</v>
       </c>
       <c r="E75">
-        <v>31695.28044708616</v>
+        <v>155024.5464933947</v>
       </c>
       <c r="F75">
-        <v>36905.10451062738</v>
+        <v>204042.178547525</v>
       </c>
       <c r="G75">
-        <v>42383.79586124881</v>
+        <v>260615.3880388129</v>
       </c>
       <c r="H75">
-        <v>26395.87565763586</v>
+        <v>113445.2711458394</v>
       </c>
       <c r="I75">
-        <v>38476.35852609517</v>
+        <v>223687.783779583</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>18722.69910249289</v>
+        <v>51817.54225340431</v>
       </c>
       <c r="C76">
-        <v>26631.06617381587</v>
+        <v>96480.85602003927</v>
       </c>
       <c r="D76">
-        <v>31577.88576966936</v>
+        <v>126653.3483432216</v>
       </c>
       <c r="E76">
-        <v>37639.12329024187</v>
+        <v>169527.7957826395</v>
       </c>
       <c r="F76">
-        <v>44669.7971588443</v>
+        <v>227511.0925871642</v>
       </c>
       <c r="G76">
-        <v>52057.36569053336</v>
+        <v>290044.1714529165</v>
       </c>
       <c r="H76">
-        <v>30721.27615458715</v>
+        <v>123025.5762471905</v>
       </c>
       <c r="I76">
-        <v>46856.58687477672</v>
+        <v>248901.9077485189</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>20823.43884212185</v>
+        <v>54979.08244495138</v>
       </c>
       <c r="C77">
-        <v>30733.78632601019</v>
+        <v>105543.691247073</v>
       </c>
       <c r="D77">
-        <v>36880.13241959469</v>
+        <v>138353.6725758323</v>
       </c>
       <c r="E77">
-        <v>44526.79127572537</v>
+        <v>186048.9782832501</v>
       </c>
       <c r="F77">
-        <v>53775.96138748887</v>
+        <v>249529.5275890674</v>
       </c>
       <c r="G77">
-        <v>63500.18171664614</v>
+        <v>329814.0159006266</v>
       </c>
       <c r="H77">
-        <v>35736.54669381231</v>
+        <v>134183.4412602198</v>
       </c>
       <c r="I77">
-        <v>56541.0767425193</v>
+        <v>276529.2813815097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>59224.89737533708</v>
+      </c>
+      <c r="C78">
+        <v>114147.5359737241</v>
+      </c>
+      <c r="D78">
+        <v>151001.5276646412</v>
+      </c>
+      <c r="E78">
+        <v>203898.6651632317</v>
+      </c>
+      <c r="F78">
+        <v>276520.0138509362</v>
+      </c>
+      <c r="G78">
+        <v>367704.6757669382</v>
+      </c>
+      <c r="H78">
+        <v>146273.0950839513</v>
+      </c>
+      <c r="I78">
+        <v>306328.1822697326</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>39</v>
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>62596.52081542782</v>
+      </c>
+      <c r="C79">
+        <v>122854.7266435263</v>
+      </c>
+      <c r="D79">
+        <v>164516.5285477155</v>
+      </c>
+      <c r="E79">
+        <v>223156.1959379726</v>
+      </c>
+      <c r="F79">
+        <v>303084.1008556894</v>
+      </c>
+      <c r="G79">
+        <v>406030.265524713</v>
+      </c>
+      <c r="H79">
+        <v>158874.7802938402</v>
+      </c>
+      <c r="I79">
+        <v>337852.9961249877</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>35</v>
+      <c r="A80">
+        <v>21</v>
+      </c>
+      <c r="B80">
+        <v>60692.89492401719</v>
+      </c>
+      <c r="C80">
+        <v>133380.2217311801</v>
+      </c>
+      <c r="D80">
+        <v>177803.2642986384</v>
+      </c>
+      <c r="E80">
+        <v>245537.8949884913</v>
+      </c>
+      <c r="F80">
+        <v>332143.6411810282</v>
+      </c>
+      <c r="G80">
+        <v>453728.5421556752</v>
+      </c>
+      <c r="H80">
+        <v>172924.6901500394</v>
+      </c>
+      <c r="I80">
+        <v>374636.8635160942</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B81">
-        <v>9900</v>
+        <v>68714.27744992402</v>
       </c>
       <c r="C81">
-        <v>9900</v>
+        <v>143798.3382494105</v>
       </c>
       <c r="D81">
-        <v>9900</v>
+        <v>190869.0263818957</v>
       </c>
       <c r="E81">
-        <v>9900</v>
+        <v>266005.0353198963</v>
       </c>
       <c r="F81">
-        <v>9900</v>
+        <v>366387.205511915</v>
       </c>
       <c r="G81">
-        <v>9900</v>
+        <v>502433.6679338286</v>
       </c>
       <c r="H81">
-        <v>9900</v>
+        <v>186893.8163771151</v>
       </c>
       <c r="I81">
-        <v>9900</v>
+        <v>415107.0118484667</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B82">
-        <v>9390.572680556208</v>
+        <v>71532.32438162074</v>
       </c>
       <c r="C82">
-        <v>9390.572680556208</v>
+        <v>154442.7308588847</v>
       </c>
       <c r="D82">
-        <v>9390.572680556208</v>
+        <v>208485.5128710354</v>
       </c>
       <c r="E82">
-        <v>9390.572680556208</v>
+        <v>288899.9931380468</v>
       </c>
       <c r="F82">
-        <v>9390.572680556208</v>
+        <v>399871.4231692687</v>
       </c>
       <c r="G82">
-        <v>9390.572680556208</v>
+        <v>556082.0133714796</v>
       </c>
       <c r="H82">
-        <v>9390.572680556208</v>
+        <v>201009.9685704584</v>
       </c>
       <c r="I82">
-        <v>9390.57268055621</v>
+        <v>457048.8795337299</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B83">
-        <v>8980.780289057795</v>
+        <v>75221.30133823707</v>
       </c>
       <c r="C83">
-        <v>8980.780289057795</v>
+        <v>166030.1441246532</v>
       </c>
       <c r="D83">
-        <v>8980.780289057795</v>
+        <v>224426.1011662338</v>
       </c>
       <c r="E83">
-        <v>8980.780289057795</v>
+        <v>312283.9723458789</v>
       </c>
       <c r="F83">
-        <v>8980.780289057795</v>
+        <v>437254.6148671805</v>
       </c>
       <c r="G83">
-        <v>8980.780289057795</v>
+        <v>608028.6994341162</v>
       </c>
       <c r="H83">
-        <v>8980.780289057795</v>
+        <v>216657.3288168017</v>
       </c>
       <c r="I83">
-        <v>8980.780289057795</v>
+        <v>500808.0898512251</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B84">
-        <v>8633.866428884699</v>
+        <v>74798.75809536719</v>
       </c>
       <c r="C84">
-        <v>8633.866428884699</v>
+        <v>177971.247910524</v>
       </c>
       <c r="D84">
-        <v>8633.866428884699</v>
+        <v>241766.0391298057</v>
       </c>
       <c r="E84">
-        <v>8633.866428884699</v>
+        <v>340266.3782669898</v>
       </c>
       <c r="F84">
-        <v>8633.866428884699</v>
+        <v>482358.8109390488</v>
       </c>
       <c r="G84">
-        <v>8633.866428884699</v>
+        <v>669727.6558594577</v>
       </c>
       <c r="H84">
-        <v>8633.866428884699</v>
+        <v>234935.3561078808</v>
       </c>
       <c r="I84">
-        <v>8633.866428884701</v>
+        <v>553240.4862811825</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B85">
-        <v>8327.703243049191</v>
+        <v>80953.68309234914</v>
       </c>
       <c r="C85">
-        <v>8327.703243049191</v>
+        <v>189232.9926178879</v>
       </c>
       <c r="D85">
-        <v>8327.703243049191</v>
+        <v>262031.265652043</v>
       </c>
       <c r="E85">
-        <v>8327.703243049191</v>
+        <v>371673.8281376743</v>
       </c>
       <c r="F85">
-        <v>8327.703243049191</v>
+        <v>521469.606228593</v>
       </c>
       <c r="G85">
-        <v>8327.703243049191</v>
+        <v>743296.1238603228</v>
       </c>
       <c r="H85">
-        <v>8327.703243049191</v>
+        <v>253620.0293152342</v>
       </c>
       <c r="I85">
-        <v>8327.703243049193</v>
+        <v>603837.9605855099</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B86">
-        <v>8377.976356698453</v>
+        <v>72476.88718160868</v>
       </c>
       <c r="C86">
-        <v>10460.94566578749</v>
+        <v>200658.250481593</v>
       </c>
       <c r="D86">
-        <v>11314.15946674805</v>
+        <v>281596.3779345003</v>
       </c>
       <c r="E86">
-        <v>12143.73770525133</v>
+        <v>399591.2232450709</v>
       </c>
       <c r="F86">
-        <v>12984.70335138021</v>
+        <v>573091.9169069767</v>
       </c>
       <c r="G86">
-        <v>13819.71153854127</v>
+        <v>808724.6646997902</v>
       </c>
       <c r="H86">
-        <v>11080.28401418394</v>
+        <v>271183.3029024961</v>
       </c>
       <c r="I86">
-        <v>13241.29541596352</v>
+        <v>661227.1473956247</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B87">
-        <v>10147.88163503828</v>
+        <v>78152.32507244467</v>
       </c>
       <c r="C87">
-        <v>13287.84342996646</v>
+        <v>215752.8279804018</v>
       </c>
       <c r="D87">
-        <v>14683.28903720904</v>
+        <v>305454.2184213325</v>
       </c>
       <c r="E87">
-        <v>16277.57157428563</v>
+        <v>433221.7938506117</v>
       </c>
       <c r="F87">
-        <v>17860.36002480463</v>
+        <v>616542.7433566386</v>
       </c>
       <c r="G87">
-        <v>19464.95379481621</v>
+        <v>873291.4140910471</v>
       </c>
       <c r="H87">
-        <v>14365.13685021846</v>
+        <v>293093.82286771</v>
       </c>
       <c r="I87">
-        <v>18341.39914281568</v>
+        <v>717119.0726272938</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B88">
-        <v>12085.64170076902</v>
+        <v>72484.36390415009</v>
       </c>
       <c r="C88">
-        <v>16213.99002561652</v>
+        <v>224113.7039911659</v>
       </c>
       <c r="D88">
-        <v>18392.12078041776</v>
+        <v>319305.140935076</v>
       </c>
       <c r="E88">
-        <v>20647.86411714312</v>
+        <v>466557.7573984616</v>
       </c>
       <c r="F88">
-        <v>23331.75777149248</v>
+        <v>676817.4424619037</v>
       </c>
       <c r="G88">
-        <v>25957.70204945764</v>
+        <v>954796.2216938443</v>
       </c>
       <c r="H88">
-        <v>17861.86484370572</v>
+        <v>310480.2410500186</v>
       </c>
       <c r="I88">
-        <v>24015.15993751922</v>
+        <v>782305.5631833028</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B89">
-        <v>13358.28897564399</v>
+        <v>60965.36345832039</v>
       </c>
       <c r="C89">
-        <v>19297.87262049529</v>
+        <v>244648.3911062058</v>
       </c>
       <c r="D89">
-        <v>22190.20116621525</v>
+        <v>346930.0286455605</v>
       </c>
       <c r="E89">
-        <v>25682.03554142104</v>
+        <v>506433.7895632421</v>
       </c>
       <c r="F89">
-        <v>29377.40687955839</v>
+        <v>743687.1839780845</v>
       </c>
       <c r="G89">
-        <v>33155.34048818575</v>
+        <v>1053039.227990576</v>
       </c>
       <c r="H89">
-        <v>21612.68426367583</v>
+        <v>337093.876533404</v>
       </c>
       <c r="I89">
-        <v>30458.89799023162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90">
-        <v>9</v>
-      </c>
-      <c r="B90">
-        <v>15279.58358151845</v>
-      </c>
-      <c r="C90">
-        <v>22404.86536712496</v>
-      </c>
-      <c r="D90">
-        <v>26356.28073300186</v>
-      </c>
-      <c r="E90">
-        <v>30929.2411377065</v>
-      </c>
-      <c r="F90">
-        <v>36055.09289442426</v>
-      </c>
-      <c r="G90">
-        <v>41791.16539314284</v>
-      </c>
-      <c r="H90">
-        <v>25583.89900315208</v>
-      </c>
-      <c r="I90">
-        <v>37648.41199314537</v>
+        <v>864100.2156757721</v>
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91">
-        <v>10</v>
-      </c>
-      <c r="B91">
-        <v>17226.32341208915</v>
-      </c>
-      <c r="C91">
-        <v>25969.00068742529</v>
-      </c>
-      <c r="D91">
-        <v>30991.08169806911</v>
-      </c>
-      <c r="E91">
-        <v>37023.07061936396</v>
-      </c>
-      <c r="F91">
-        <v>43678.81854918328</v>
-      </c>
-      <c r="G91">
-        <v>51157.18147326996</v>
-      </c>
-      <c r="H91">
-        <v>30023.07586720653</v>
-      </c>
-      <c r="I91">
-        <v>45820.98366108115</v>
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>40</v>
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>19800</v>
+      </c>
+      <c r="C93">
+        <v>19800</v>
+      </c>
+      <c r="D93">
+        <v>19800</v>
+      </c>
+      <c r="E93">
+        <v>19800</v>
+      </c>
+      <c r="F93">
+        <v>19800</v>
+      </c>
+      <c r="G93">
+        <v>19800</v>
+      </c>
+      <c r="H93">
+        <v>19800</v>
+      </c>
+      <c r="I93">
+        <v>19800</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>35</v>
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C94">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D94">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E94">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F94">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G94">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H94">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I94">
+        <v>15900.88298583112</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
       <c r="C95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
       <c r="D95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
       <c r="E95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
       <c r="F95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
       <c r="G95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
       <c r="H95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
       <c r="I95">
-        <v>9900</v>
+        <v>13441.83760958354</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B96">
-        <v>9390.572680556208</v>
+        <v>12190.15557620739</v>
       </c>
       <c r="C96">
-        <v>9390.572680556208</v>
+        <v>15610.0950050699</v>
       </c>
       <c r="D96">
-        <v>9390.572680556208</v>
+        <v>17008.33734167532</v>
       </c>
       <c r="E96">
-        <v>9390.572680556208</v>
+        <v>18327.30259380013</v>
       </c>
       <c r="F96">
-        <v>9390.572680556208</v>
+        <v>19663.47466390223</v>
       </c>
       <c r="G96">
-        <v>9390.572680556208</v>
+        <v>21070.41807105429</v>
       </c>
       <c r="H96">
-        <v>9390.572680556208</v>
+        <v>16591.44520353518</v>
       </c>
       <c r="I96">
-        <v>9390.57268055621</v>
+        <v>20123.53276402876</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B97">
-        <v>8980.780289057795</v>
+        <v>13801.63296612862</v>
       </c>
       <c r="C97">
-        <v>8980.780289057795</v>
+        <v>18922.59757234313</v>
       </c>
       <c r="D97">
-        <v>8980.780289057795</v>
+        <v>21078.99476665273</v>
       </c>
       <c r="E97">
-        <v>8980.780289057795</v>
+        <v>23511.17389332157</v>
       </c>
       <c r="F97">
-        <v>8980.780289057795</v>
+        <v>26055.34372654136</v>
       </c>
       <c r="G97">
-        <v>8980.780289057795</v>
+        <v>28676.5659330956</v>
       </c>
       <c r="H97">
-        <v>8980.780289057795</v>
+        <v>20500.82244159538</v>
       </c>
       <c r="I97">
-        <v>8980.780289057795</v>
+        <v>26802.4836142807</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B98">
-        <v>8633.866428884699</v>
+        <v>15953.28330384142</v>
       </c>
       <c r="C98">
-        <v>8633.866428884699</v>
+        <v>22509.94707997155</v>
       </c>
       <c r="D98">
-        <v>8633.866428884699</v>
+        <v>25662.54499713782</v>
       </c>
       <c r="E98">
-        <v>8633.866428884699</v>
+        <v>29091.06535314523</v>
       </c>
       <c r="F98">
-        <v>8633.866428884699</v>
+        <v>33182.42163726037</v>
       </c>
       <c r="G98">
-        <v>8633.866428884699</v>
+        <v>37339.65898106929</v>
       </c>
       <c r="H98">
-        <v>8633.866428884699</v>
+        <v>24883.10301788665</v>
       </c>
       <c r="I98">
-        <v>8633.866428884701</v>
+        <v>34295.51771973149</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B99">
-        <v>8327.703243049191</v>
+        <v>18124.83372391135</v>
       </c>
       <c r="C99">
-        <v>8327.703243049191</v>
+        <v>26074.48738221853</v>
       </c>
       <c r="D99">
-        <v>8327.703243049191</v>
+        <v>30570.10763674115</v>
       </c>
       <c r="E99">
-        <v>8327.703243049191</v>
+        <v>35430.08079079631</v>
       </c>
       <c r="F99">
-        <v>8327.703243049191</v>
+        <v>40957.6608696418</v>
       </c>
       <c r="G99">
-        <v>8327.703243049191</v>
+        <v>46620.98279807006</v>
       </c>
       <c r="H99">
-        <v>8327.703243049191</v>
+        <v>29613.14210325004</v>
       </c>
       <c r="I99">
-        <v>8327.703243049193</v>
+        <v>42603.82982206911</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B100">
-        <v>8048.934394157803</v>
+        <v>20147.71643092037</v>
       </c>
       <c r="C100">
-        <v>8048.934394157803</v>
+        <v>29918.98618272199</v>
       </c>
       <c r="D100">
-        <v>8048.934394157803</v>
+        <v>35506.42591903928</v>
       </c>
       <c r="E100">
-        <v>8048.934394157803</v>
+        <v>41993.34496938862</v>
       </c>
       <c r="F100">
-        <v>8048.934394157803</v>
+        <v>49390.91878610208</v>
       </c>
       <c r="G100">
-        <v>8048.934394157803</v>
+        <v>56995.72077960595</v>
       </c>
       <c r="H100">
-        <v>8048.934394157803</v>
+        <v>34450.28828507129</v>
       </c>
       <c r="I100">
-        <v>8048.934394157803</v>
+        <v>51431.4233205964</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B101">
-        <v>8011.414293404117</v>
+        <v>22552.17713274816</v>
       </c>
       <c r="C101">
-        <v>10124.6490989365</v>
+        <v>34374.86431057042</v>
       </c>
       <c r="D101">
-        <v>10960.84392178898</v>
+        <v>41162.88933518122</v>
       </c>
       <c r="E101">
-        <v>11771.23108392365</v>
+        <v>49211.18070258766</v>
       </c>
       <c r="F101">
-        <v>12575.72868018232</v>
+        <v>58578.31629422147</v>
       </c>
       <c r="G101">
-        <v>13415.67944791488</v>
+        <v>68238.61486202115</v>
       </c>
       <c r="H101">
-        <v>10718.93284646202</v>
+        <v>39841.27691979036</v>
       </c>
       <c r="I101">
-        <v>12845.34685363371</v>
+        <v>61440.66489700379</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B102">
-        <v>9392.739552447805</v>
+        <v>25128.44691546004</v>
       </c>
       <c r="C102">
-        <v>12709.41270250731</v>
+        <v>39113.24935236584</v>
       </c>
       <c r="D102">
-        <v>14196.41864827257</v>
+        <v>47078.21199464612</v>
       </c>
       <c r="E102">
-        <v>15747.10121093558</v>
+        <v>57472.87505331343</v>
       </c>
       <c r="F102">
-        <v>17380.77757148359</v>
+        <v>69325.19565118937</v>
       </c>
       <c r="G102">
-        <v>19014.17445894905</v>
+        <v>81778.539317325</v>
       </c>
       <c r="H102">
-        <v>13808.30988491047</v>
+        <v>45664.04054408498</v>
       </c>
       <c r="I102">
-        <v>17850.73335790169</v>
+        <v>73021.45697148214</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <v>11457.54577064204</v>
+        <v>28164.66301513157</v>
       </c>
       <c r="C103">
-        <v>15667.99468983932</v>
+        <v>44463.10111802789</v>
       </c>
       <c r="D103">
-        <v>17826.92197288027</v>
+        <v>53832.08770058221</v>
       </c>
       <c r="E103">
-        <v>20030.48386958701</v>
+        <v>65879.30871888634</v>
       </c>
       <c r="F103">
-        <v>22510.31462290297</v>
+        <v>81183.04500633224</v>
       </c>
       <c r="G103">
-        <v>25283.942005082</v>
+        <v>97285.23272769451</v>
       </c>
       <c r="H103">
-        <v>17272.523881678</v>
+        <v>52072.10524127769</v>
       </c>
       <c r="I103">
-        <v>23334.84517335603</v>
+        <v>85861.80133181004</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>13268.74564669315</v>
+        <v>30506.2427147676</v>
       </c>
       <c r="C104">
-        <v>18681.30067861826</v>
+        <v>48937.98866613556</v>
       </c>
       <c r="D104">
-        <v>21522.97868727472</v>
+        <v>60673.16279168722</v>
       </c>
       <c r="E104">
-        <v>24696.92370241139</v>
+        <v>75490.31743025217</v>
       </c>
       <c r="F104">
-        <v>28335.24718866921</v>
+        <v>92891.01695576384</v>
       </c>
       <c r="G104">
-        <v>32299.3046212818</v>
+        <v>113628.1777466437</v>
       </c>
       <c r="H104">
-        <v>20896.26733893244</v>
+        <v>58541.84260190339</v>
       </c>
       <c r="I104">
-        <v>29499.626211727</v>
+        <v>99191.02490627045</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>32415.04779803666</v>
+      </c>
+      <c r="C105">
+        <v>54422.7038791495</v>
+      </c>
+      <c r="D105">
+        <v>67615.15554228162</v>
+      </c>
+      <c r="E105">
+        <v>85233.3708185468</v>
+      </c>
+      <c r="F105">
+        <v>105880.6730579305</v>
+      </c>
+      <c r="G105">
+        <v>131474.2509772242</v>
+      </c>
+      <c r="H105">
+        <v>65346.8144906073</v>
+      </c>
+      <c r="I105">
+        <v>113892.4323434582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106">
+        <v>34067.90878042493</v>
+      </c>
+      <c r="C106">
+        <v>59916.12978724593</v>
+      </c>
+      <c r="D106">
+        <v>75476.91593608978</v>
+      </c>
+      <c r="E106">
+        <v>95794.95787512141</v>
+      </c>
+      <c r="F106">
+        <v>121009.6291373209</v>
+      </c>
+      <c r="G106">
+        <v>151092.4581512952</v>
+      </c>
+      <c r="H106">
+        <v>72704.50014529143</v>
+      </c>
+      <c r="I106">
+        <v>130341.3350076908</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107">
+        <v>37538.87199065309</v>
+      </c>
+      <c r="C107">
+        <v>65357.92894368552</v>
+      </c>
+      <c r="D107">
+        <v>83135.78119116728</v>
+      </c>
+      <c r="E107">
+        <v>107123.4190323123</v>
+      </c>
+      <c r="F107">
+        <v>136345.5036140084</v>
+      </c>
+      <c r="G107">
+        <v>172100.5782810888</v>
+      </c>
+      <c r="H107">
+        <v>80586.2896903377</v>
+      </c>
+      <c r="I107">
+        <v>147699.6599773822</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>42016.67331350835</v>
+      </c>
+      <c r="C108">
+        <v>72081.23603114943</v>
+      </c>
+      <c r="D108">
+        <v>92236.71588364785</v>
+      </c>
+      <c r="E108">
+        <v>120095.1831272151</v>
+      </c>
+      <c r="F108">
+        <v>154230.2991275679</v>
+      </c>
+      <c r="G108">
+        <v>195215.8610129388</v>
+      </c>
+      <c r="H108">
+        <v>89331.08808388801</v>
+      </c>
+      <c r="I108">
+        <v>167040.7805208194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109">
+        <v>44303.47933774304</v>
+      </c>
+      <c r="C109">
+        <v>78971.67611040868</v>
+      </c>
+      <c r="D109">
+        <v>101856.239505728</v>
+      </c>
+      <c r="E109">
+        <v>133330.1203409166</v>
+      </c>
+      <c r="F109">
+        <v>171511.2337710116</v>
+      </c>
+      <c r="G109">
+        <v>220866.8220117596</v>
+      </c>
+      <c r="H109">
+        <v>98533.39775859324</v>
+      </c>
+      <c r="I109">
+        <v>188008.6866155479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>49202.13221186404</v>
+      </c>
+      <c r="C110">
+        <v>85833.04871634924</v>
+      </c>
+      <c r="D110">
+        <v>111599.3087296255</v>
+      </c>
+      <c r="E110">
+        <v>146343.1538901184</v>
+      </c>
+      <c r="F110">
+        <v>192284.190684466</v>
+      </c>
+      <c r="G110">
+        <v>248938.3373698552</v>
+      </c>
+      <c r="H110">
+        <v>107646.4060412136</v>
+      </c>
+      <c r="I110">
+        <v>211331.6445964077</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>51142.3921603713</v>
+      </c>
+      <c r="C111">
+        <v>92224.32888845986</v>
+      </c>
+      <c r="D111">
+        <v>121881.5623922628</v>
+      </c>
+      <c r="E111">
+        <v>162777.3662193398</v>
+      </c>
+      <c r="F111">
+        <v>214878.9023425232</v>
+      </c>
+      <c r="G111">
+        <v>279502.605640661</v>
+      </c>
+      <c r="H111">
+        <v>117874.3888149133</v>
+      </c>
+      <c r="I111">
+        <v>236343.556349329</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112">
+        <v>50396.98131928645</v>
+      </c>
+      <c r="C112">
+        <v>99776.98941466649</v>
+      </c>
+      <c r="D112">
+        <v>131929.4801183296</v>
+      </c>
+      <c r="E112">
+        <v>179288.4471404501</v>
+      </c>
+      <c r="F112">
+        <v>238500.0842516178</v>
+      </c>
+      <c r="G112">
+        <v>313397.5423135144</v>
+      </c>
+      <c r="H112">
+        <v>128551.9391626316</v>
+      </c>
+      <c r="I112">
+        <v>263163.3234911188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>51722.02844466393</v>
+      </c>
+      <c r="C113">
+        <v>108284.3084949145</v>
+      </c>
+      <c r="D113">
+        <v>144197.4982312447</v>
+      </c>
+      <c r="E113">
+        <v>196579.3892450051</v>
+      </c>
+      <c r="F113">
+        <v>262228.506283237</v>
+      </c>
+      <c r="G113">
+        <v>352107.8712550937</v>
+      </c>
+      <c r="H113">
+        <v>139691.0547496575</v>
+      </c>
+      <c r="I113">
+        <v>293045.5586031297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>21</v>
+      </c>
+      <c r="B114">
+        <v>51604.90158638835</v>
+      </c>
+      <c r="C114">
+        <v>118016.0702431906</v>
+      </c>
+      <c r="D114">
+        <v>155924.6533555886</v>
+      </c>
+      <c r="E114">
+        <v>215265.0333227303</v>
+      </c>
+      <c r="F114">
+        <v>294392.9384934087</v>
+      </c>
+      <c r="G114">
+        <v>393164.2699294318</v>
+      </c>
+      <c r="H114">
+        <v>151947.274856583</v>
+      </c>
+      <c r="I114">
+        <v>326294.9369269771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>54872.12879038716</v>
+      </c>
+      <c r="C115">
+        <v>125495.2122532853</v>
+      </c>
+      <c r="D115">
+        <v>170418.3803671434</v>
+      </c>
+      <c r="E115">
+        <v>236050.1647767609</v>
+      </c>
+      <c r="F115">
+        <v>321809.7369444845</v>
+      </c>
+      <c r="G115">
+        <v>428196.3877782425</v>
+      </c>
+      <c r="H115">
+        <v>164999.9526268401</v>
+      </c>
+      <c r="I115">
+        <v>359704.043603859</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116">
+        <v>53740.78058709834</v>
+      </c>
+      <c r="C116">
+        <v>135843.4464720155</v>
+      </c>
+      <c r="D116">
+        <v>184357.8093429857</v>
+      </c>
+      <c r="E116">
+        <v>255617.6392014817</v>
+      </c>
+      <c r="F116">
+        <v>354354.6382767841</v>
+      </c>
+      <c r="G116">
+        <v>479856.3385992442</v>
+      </c>
+      <c r="H116">
+        <v>178725.0044636564</v>
+      </c>
+      <c r="I116">
+        <v>397624.0849195039</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117">
+        <v>55371.70262221805</v>
+      </c>
+      <c r="C117">
+        <v>145658.4941204092</v>
+      </c>
+      <c r="D117">
+        <v>199673.8307834364</v>
+      </c>
+      <c r="E117">
+        <v>280534.3474080083</v>
+      </c>
+      <c r="F117">
+        <v>389776.6242753608</v>
+      </c>
+      <c r="G117">
+        <v>530560.5887382678</v>
+      </c>
+      <c r="H117">
+        <v>193021.3064417357</v>
+      </c>
+      <c r="I117">
+        <v>437988.1893091302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>25</v>
+      </c>
+      <c r="B118">
+        <v>60855.97873182785</v>
+      </c>
+      <c r="C118">
+        <v>157736.3326117799</v>
+      </c>
+      <c r="D118">
+        <v>217039.1440131718</v>
+      </c>
+      <c r="E118">
+        <v>303089.0270213453</v>
+      </c>
+      <c r="F118">
+        <v>426411.9174186203</v>
+      </c>
+      <c r="G118">
+        <v>584556.8879598858</v>
+      </c>
+      <c r="H118">
+        <v>208423.308240001</v>
+      </c>
+      <c r="I118">
+        <v>483022.6755887456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>26</v>
+      </c>
+      <c r="B119">
+        <v>68755.31903717438</v>
+      </c>
+      <c r="C119">
+        <v>166037.5869775461</v>
+      </c>
+      <c r="D119">
+        <v>230903.8174859645</v>
+      </c>
+      <c r="E119">
+        <v>328017.392293049</v>
+      </c>
+      <c r="F119">
+        <v>466480.9517693786</v>
+      </c>
+      <c r="G119">
+        <v>644026.1137411008</v>
+      </c>
+      <c r="H119">
+        <v>224590.9920014038</v>
+      </c>
+      <c r="I119">
+        <v>530558.1205895138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>27</v>
+      </c>
+      <c r="B120">
+        <v>60271.74861304049</v>
+      </c>
+      <c r="C120">
+        <v>179292.5273309442</v>
+      </c>
+      <c r="D120">
+        <v>249832.4950708495</v>
+      </c>
+      <c r="E120">
+        <v>354661.1895764667</v>
+      </c>
+      <c r="F120">
+        <v>503995.1669398121</v>
+      </c>
+      <c r="G120">
+        <v>711664.343877899</v>
+      </c>
+      <c r="H120">
+        <v>241292.1717990318</v>
+      </c>
+      <c r="I120">
+        <v>581184.477702389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>28</v>
+      </c>
+      <c r="B121">
+        <v>64496.2180156015</v>
+      </c>
+      <c r="C121">
+        <v>191640.2516771744</v>
+      </c>
+      <c r="D121">
+        <v>268740.3945886856</v>
+      </c>
+      <c r="E121">
+        <v>383696.4189088769</v>
+      </c>
+      <c r="F121">
+        <v>552616.9777852661</v>
+      </c>
+      <c r="G121">
+        <v>779936.2955749664</v>
+      </c>
+      <c r="H121">
+        <v>259793.2813225912</v>
+      </c>
+      <c r="I121">
+        <v>638967.9219814494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>29</v>
+      </c>
+      <c r="B122">
+        <v>63349.04519088029</v>
+      </c>
+      <c r="C122">
+        <v>202929.1030183594</v>
+      </c>
+      <c r="D122">
+        <v>289910.8608331048</v>
+      </c>
+      <c r="E122">
+        <v>415240.6539840532</v>
+      </c>
+      <c r="F122">
+        <v>602405.856424361</v>
+      </c>
+      <c r="G122">
+        <v>860869.7202368092</v>
+      </c>
+      <c r="H122">
+        <v>278125.3510468666</v>
+      </c>
+      <c r="I122">
+        <v>700049.5850521998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>30</v>
+      </c>
+      <c r="B123">
+        <v>48949.57720515737</v>
+      </c>
+      <c r="C123">
+        <v>219138.4668469144</v>
+      </c>
+      <c r="D123">
+        <v>311622.8888129563</v>
+      </c>
+      <c r="E123">
+        <v>445522.9277445807</v>
+      </c>
+      <c r="F123">
+        <v>674119.0151529731</v>
+      </c>
+      <c r="G123">
+        <v>957871.0653945584</v>
+      </c>
+      <c r="H123">
+        <v>299161.5371311873</v>
+      </c>
+      <c r="I123">
+        <v>772819.8650416818</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>19800</v>
+      </c>
+      <c r="C127">
+        <v>19800</v>
+      </c>
+      <c r="D127">
+        <v>19800</v>
+      </c>
+      <c r="E127">
+        <v>19800</v>
+      </c>
+      <c r="F127">
+        <v>19800</v>
+      </c>
+      <c r="G127">
+        <v>19800</v>
+      </c>
+      <c r="H127">
+        <v>19800</v>
+      </c>
+      <c r="I127">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C128">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D128">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E128">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F128">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G128">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H128">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I128">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="C129">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="D129">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="E129">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="F129">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="G129">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="H129">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="I129">
+        <v>13441.83760958354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="C130">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="D130">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="E130">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="F130">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="G130">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="H130">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="I130">
+        <v>11849.68120845455</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <v>10914.57112625275</v>
+      </c>
+      <c r="C131">
+        <v>14126.76573899033</v>
+      </c>
+      <c r="D131">
+        <v>15303.10637822777</v>
+      </c>
+      <c r="E131">
+        <v>16565.85209458649</v>
+      </c>
+      <c r="F131">
+        <v>17725.8193150459</v>
+      </c>
+      <c r="G131">
+        <v>18963.47429477339</v>
+      </c>
+      <c r="H131">
+        <v>14966.64622736903</v>
+      </c>
+      <c r="I131">
+        <v>18086.22144794271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>12774.13733822775</v>
+      </c>
+      <c r="C132">
+        <v>17249.58969152443</v>
+      </c>
+      <c r="D132">
+        <v>19312.5491868387</v>
+      </c>
+      <c r="E132">
+        <v>21579.54919166596</v>
+      </c>
+      <c r="F132">
+        <v>23948.89047250939</v>
+      </c>
+      <c r="G132">
+        <v>26297.33978127552</v>
+      </c>
+      <c r="H132">
+        <v>18828.50915897718</v>
+      </c>
+      <c r="I132">
+        <v>24563.49563122473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>15081.29026053099</v>
+      </c>
+      <c r="C133">
+        <v>20735.11628515858</v>
+      </c>
+      <c r="D133">
+        <v>23632.69515092204</v>
+      </c>
+      <c r="E133">
+        <v>26993.58610607465</v>
+      </c>
+      <c r="F133">
+        <v>30573.30411115556</v>
+      </c>
+      <c r="G133">
+        <v>34415.95798838021</v>
+      </c>
+      <c r="H133">
+        <v>23003.58598407428</v>
+      </c>
+      <c r="I133">
+        <v>31600.97164766202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>16504.44366045023</v>
+      </c>
+      <c r="C134">
+        <v>24398.38163933988</v>
+      </c>
+      <c r="D134">
+        <v>28389.30026669079</v>
+      </c>
+      <c r="E134">
+        <v>32888.98303965863</v>
+      </c>
+      <c r="F134">
+        <v>37948.3701618367</v>
+      </c>
+      <c r="G134">
+        <v>43084.27277640349</v>
+      </c>
+      <c r="H134">
+        <v>27449.14543497626</v>
+      </c>
+      <c r="I134">
+        <v>39327.6044878118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135">
+        <v>18748.81583531324</v>
+      </c>
+      <c r="C135">
+        <v>28496.21298686073</v>
+      </c>
+      <c r="D135">
+        <v>33564.99336784075</v>
+      </c>
+      <c r="E135">
+        <v>39366.1964868234</v>
+      </c>
+      <c r="F135">
+        <v>45979.74897453518</v>
+      </c>
+      <c r="G135">
+        <v>53037.87874836486</v>
+      </c>
+      <c r="H135">
+        <v>32422.68441181459</v>
+      </c>
+      <c r="I135">
+        <v>48064.31238608809</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>21093.04585934938</v>
+      </c>
+      <c r="C136">
+        <v>32444.14953023754</v>
+      </c>
+      <c r="D136">
+        <v>38541.94374972355</v>
+      </c>
+      <c r="E136">
+        <v>46355.85314863396</v>
+      </c>
+      <c r="F136">
+        <v>54946.56053433989</v>
+      </c>
+      <c r="G136">
+        <v>64764.40904352844</v>
+      </c>
+      <c r="H136">
+        <v>37387.98538663802</v>
+      </c>
+      <c r="I136">
+        <v>57785.74014491429</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
         <v>10</v>
       </c>
-      <c r="B105">
-        <v>15597.50990810309</v>
-      </c>
-      <c r="C105">
-        <v>21987.24531360398</v>
-      </c>
-      <c r="D105">
-        <v>25691.12188829344</v>
-      </c>
-      <c r="E105">
-        <v>30114.20114595227</v>
-      </c>
-      <c r="F105">
-        <v>35172.81785189258</v>
-      </c>
-      <c r="G105">
-        <v>40409.01510560812</v>
-      </c>
-      <c r="H105">
-        <v>25008.93900689548</v>
-      </c>
-      <c r="I105">
-        <v>36742.3440995701</v>
+      <c r="B137">
+        <v>22814.20278297192</v>
+      </c>
+      <c r="C137">
+        <v>36703.20183704889</v>
+      </c>
+      <c r="D137">
+        <v>44315.36838012285</v>
+      </c>
+      <c r="E137">
+        <v>53874.37275967162</v>
+      </c>
+      <c r="F137">
+        <v>64782.54489297918</v>
+      </c>
+      <c r="G137">
+        <v>76684.86418424024</v>
+      </c>
+      <c r="H137">
+        <v>42902.22905893254</v>
+      </c>
+      <c r="I137">
+        <v>68304.04957603975</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138">
+        <v>25663.37803137142</v>
+      </c>
+      <c r="C138">
+        <v>41418.07547565227</v>
+      </c>
+      <c r="D138">
+        <v>50603.93350937842</v>
+      </c>
+      <c r="E138">
+        <v>62154.38438219593</v>
+      </c>
+      <c r="F138">
+        <v>75137.89518839811</v>
+      </c>
+      <c r="G138">
+        <v>90153.74198344196</v>
+      </c>
+      <c r="H138">
+        <v>48875.17578480177</v>
+      </c>
+      <c r="I138">
+        <v>79783.50218312135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>12</v>
+      </c>
+      <c r="B139">
+        <v>28317.6747600566</v>
+      </c>
+      <c r="C139">
+        <v>46739.99201861181</v>
+      </c>
+      <c r="D139">
+        <v>57216.37733587798</v>
+      </c>
+      <c r="E139">
+        <v>70793.67935877643</v>
+      </c>
+      <c r="F139">
+        <v>86964.1073687911</v>
+      </c>
+      <c r="G139">
+        <v>105450.7065827795</v>
+      </c>
+      <c r="H139">
+        <v>55353.05214838924</v>
+      </c>
+      <c r="I139">
+        <v>92410.51636843426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>13</v>
+      </c>
+      <c r="B140">
+        <v>30832.38024262418</v>
+      </c>
+      <c r="C140">
+        <v>51576.46282947483</v>
+      </c>
+      <c r="D140">
+        <v>64248.43637918604</v>
+      </c>
+      <c r="E140">
+        <v>80364.27663448601</v>
+      </c>
+      <c r="F140">
+        <v>99871.46966398365</v>
+      </c>
+      <c r="G140">
+        <v>122372.7786623044</v>
+      </c>
+      <c r="H140">
+        <v>61959.29554187307</v>
+      </c>
+      <c r="I140">
+        <v>106328.0602356719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>33285.6811613818</v>
+      </c>
+      <c r="C141">
+        <v>56158.93701172304</v>
+      </c>
+      <c r="D141">
+        <v>71601.89541323787</v>
+      </c>
+      <c r="E141">
+        <v>89969.77924565351</v>
+      </c>
+      <c r="F141">
+        <v>112975.7383886825</v>
+      </c>
+      <c r="G141">
+        <v>140923.0689454783</v>
+      </c>
+      <c r="H141">
+        <v>68772.28783412981</v>
+      </c>
+      <c r="I141">
+        <v>121470.8400646283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>15</v>
+      </c>
+      <c r="B142">
+        <v>35480.17511433825</v>
+      </c>
+      <c r="C142">
+        <v>62082.31994612524</v>
+      </c>
+      <c r="D142">
+        <v>79232.03769916402</v>
+      </c>
+      <c r="E142">
+        <v>100284.7385887172</v>
+      </c>
+      <c r="F142">
+        <v>128146.6475270733</v>
+      </c>
+      <c r="G142">
+        <v>160220.0140898491</v>
+      </c>
+      <c r="H142">
+        <v>76264.88772955349</v>
+      </c>
+      <c r="I142">
+        <v>138405.94404593</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143">
+        <v>38949.50610484697</v>
+      </c>
+      <c r="C143">
+        <v>68804.29956408819</v>
+      </c>
+      <c r="D143">
+        <v>88312.71326522731</v>
+      </c>
+      <c r="E143">
+        <v>113131.3612996936</v>
+      </c>
+      <c r="F143">
+        <v>143226.8165521011</v>
+      </c>
+      <c r="G143">
+        <v>182432.6890922177</v>
+      </c>
+      <c r="H143">
+        <v>84948.6658892081</v>
+      </c>
+      <c r="I143">
+        <v>155983.3475427459</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>17</v>
+      </c>
+      <c r="B144">
+        <v>42557.78964796032</v>
+      </c>
+      <c r="C144">
+        <v>75290.31902893889</v>
+      </c>
+      <c r="D144">
+        <v>96345.37751056661</v>
+      </c>
+      <c r="E144">
+        <v>124903.8113361477</v>
+      </c>
+      <c r="F144">
+        <v>161833.48090082</v>
+      </c>
+      <c r="G144">
+        <v>203360.8131289257</v>
+      </c>
+      <c r="H144">
+        <v>93279.23525905285</v>
+      </c>
+      <c r="I144">
+        <v>175645.447139091</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <v>46176.87523031059</v>
+      </c>
+      <c r="C145">
+        <v>81903.07944329715</v>
+      </c>
+      <c r="D145">
+        <v>105908.7458989172</v>
+      </c>
+      <c r="E145">
+        <v>137546.6917591609</v>
+      </c>
+      <c r="F145">
+        <v>182768.3218571509</v>
+      </c>
+      <c r="G145">
+        <v>234655.8123780178</v>
+      </c>
+      <c r="H145">
+        <v>102103.8278313885</v>
+      </c>
+      <c r="I145">
+        <v>199004.0129562899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>49379.59527997887</v>
+      </c>
+      <c r="C146">
+        <v>88072.56878937289</v>
+      </c>
+      <c r="D146">
+        <v>116531.1028302593</v>
+      </c>
+      <c r="E146">
+        <v>152584.7957718259</v>
+      </c>
+      <c r="F146">
+        <v>204145.4343191074</v>
+      </c>
+      <c r="G146">
+        <v>263868.5529901577</v>
+      </c>
+      <c r="H146">
+        <v>111811.8725672203</v>
+      </c>
+      <c r="I146">
+        <v>223127.6098495522</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>20</v>
+      </c>
+      <c r="B147">
+        <v>52101.96409037693</v>
+      </c>
+      <c r="C147">
+        <v>95813.57190313083</v>
+      </c>
+      <c r="D147">
+        <v>126351.1553290367</v>
+      </c>
+      <c r="E147">
+        <v>168334.8800533851</v>
+      </c>
+      <c r="F147">
+        <v>227472.6244129977</v>
+      </c>
+      <c r="G147">
+        <v>297167.795804224</v>
+      </c>
+      <c r="H147">
+        <v>122071.5070381718</v>
+      </c>
+      <c r="I147">
+        <v>249476.0792027184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>21</v>
+      </c>
+      <c r="B148">
+        <v>54439.29784986655</v>
+      </c>
+      <c r="C148">
+        <v>104177.383943817</v>
+      </c>
+      <c r="D148">
+        <v>136931.2114200268</v>
+      </c>
+      <c r="E148">
+        <v>184352.1811688635</v>
+      </c>
+      <c r="F148">
+        <v>251610.242072233</v>
+      </c>
+      <c r="G148">
+        <v>331430.8538505832</v>
+      </c>
+      <c r="H148">
+        <v>132717.1968341662</v>
+      </c>
+      <c r="I148">
+        <v>277664.0142375392</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>22</v>
+      </c>
+      <c r="B149">
+        <v>54138.48966136283</v>
+      </c>
+      <c r="C149">
+        <v>112462.2839525042</v>
+      </c>
+      <c r="D149">
+        <v>148457.7662629143</v>
+      </c>
+      <c r="E149">
+        <v>202136.2651939386</v>
+      </c>
+      <c r="F149">
+        <v>276916.9375988235</v>
+      </c>
+      <c r="G149">
+        <v>370581.4010187452</v>
+      </c>
+      <c r="H149">
+        <v>143982.7076669801</v>
+      </c>
+      <c r="I149">
+        <v>308554.3159358024</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>23</v>
+      </c>
+      <c r="B150">
+        <v>54721.72711681963</v>
+      </c>
+      <c r="C150">
+        <v>119653.4193012004</v>
+      </c>
+      <c r="D150">
+        <v>160141.3067069392</v>
+      </c>
+      <c r="E150">
+        <v>221037.3234430561</v>
+      </c>
+      <c r="F150">
+        <v>308230.3361999374</v>
+      </c>
+      <c r="G150">
+        <v>411104.8598258023</v>
+      </c>
+      <c r="H150">
+        <v>155855.3847453882</v>
+      </c>
+      <c r="I150">
+        <v>342373.3358505789</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>24</v>
+      </c>
+      <c r="B151">
+        <v>55085.5844856666</v>
+      </c>
+      <c r="C151">
+        <v>130226.1705133783</v>
+      </c>
+      <c r="D151">
+        <v>175726.4224016122</v>
+      </c>
+      <c r="E151">
+        <v>243050.5988174861</v>
+      </c>
+      <c r="F151">
+        <v>338830.6655430987</v>
+      </c>
+      <c r="G151">
+        <v>456505.7733010562</v>
+      </c>
+      <c r="H151">
+        <v>169574.6757265899</v>
+      </c>
+      <c r="I151">
+        <v>379436.327015567</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>25</v>
+      </c>
+      <c r="B152">
+        <v>60820.67616176313</v>
+      </c>
+      <c r="C152">
+        <v>139428.0411917102</v>
+      </c>
+      <c r="D152">
+        <v>189906.8869019545</v>
+      </c>
+      <c r="E152">
+        <v>264027.7697966857</v>
+      </c>
+      <c r="F152">
+        <v>372345.6007283077</v>
+      </c>
+      <c r="G152">
+        <v>500786.0407540962</v>
+      </c>
+      <c r="H152">
+        <v>184110.5753522786</v>
+      </c>
+      <c r="I152">
+        <v>418225.1298816126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>26</v>
+      </c>
+      <c r="B153">
+        <v>70415.8948716305</v>
+      </c>
+      <c r="C153">
+        <v>150437.1950875713</v>
+      </c>
+      <c r="D153">
+        <v>204160.8771102344</v>
+      </c>
+      <c r="E153">
+        <v>287396.3920243371</v>
+      </c>
+      <c r="F153">
+        <v>408286.6785308002</v>
+      </c>
+      <c r="G153">
+        <v>561900.7709561164</v>
+      </c>
+      <c r="H153">
+        <v>198557.7833300032</v>
+      </c>
+      <c r="I153">
+        <v>460920.7966626661</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>27</v>
+      </c>
+      <c r="B154">
+        <v>72977.11946164997</v>
+      </c>
+      <c r="C154">
+        <v>161924.3235879519</v>
+      </c>
+      <c r="D154">
+        <v>220884.8752447575</v>
+      </c>
+      <c r="E154">
+        <v>313425.9318388266</v>
+      </c>
+      <c r="F154">
+        <v>442681.3364262149</v>
+      </c>
+      <c r="G154">
+        <v>620535.256568911</v>
+      </c>
+      <c r="H154">
+        <v>214413.1083632373</v>
+      </c>
+      <c r="I154">
+        <v>505042.3981977244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>28</v>
+      </c>
+      <c r="B155">
+        <v>75838.75117360531</v>
+      </c>
+      <c r="C155">
+        <v>175061.4548800319</v>
+      </c>
+      <c r="D155">
+        <v>237482.7131901644</v>
+      </c>
+      <c r="E155">
+        <v>341839.1035632639</v>
+      </c>
+      <c r="F155">
+        <v>488726.948159761</v>
+      </c>
+      <c r="G155">
+        <v>678970.8241582322</v>
+      </c>
+      <c r="H155">
+        <v>231217.0034907929</v>
+      </c>
+      <c r="I155">
+        <v>556015.1620708962</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>29</v>
+      </c>
+      <c r="B156">
+        <v>81436.44305746489</v>
+      </c>
+      <c r="C156">
+        <v>184648.5783074252</v>
+      </c>
+      <c r="D156">
+        <v>256055.2227493205</v>
+      </c>
+      <c r="E156">
+        <v>369015.5721595542</v>
+      </c>
+      <c r="F156">
+        <v>542524.6177904084</v>
+      </c>
+      <c r="G156">
+        <v>754555.9493963546</v>
+      </c>
+      <c r="H156">
+        <v>249665.8975756791</v>
+      </c>
+      <c r="I156">
+        <v>613945.6440816349</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>30</v>
+      </c>
+      <c r="B157">
+        <v>77643.43646498783</v>
+      </c>
+      <c r="C157">
+        <v>201601.2733760501</v>
+      </c>
+      <c r="D157">
+        <v>279233.97657498</v>
+      </c>
+      <c r="E157">
+        <v>404495.5270844096</v>
+      </c>
+      <c r="F157">
+        <v>596120.1556226376</v>
+      </c>
+      <c r="G157">
+        <v>841155.005706229</v>
+      </c>
+      <c r="H157">
+        <v>272052.4772375439</v>
+      </c>
+      <c r="I157">
+        <v>679735.0523137584</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>19800</v>
+      </c>
+      <c r="C161">
+        <v>19800</v>
+      </c>
+      <c r="D161">
+        <v>19800</v>
+      </c>
+      <c r="E161">
+        <v>19800</v>
+      </c>
+      <c r="F161">
+        <v>19800</v>
+      </c>
+      <c r="G161">
+        <v>19800</v>
+      </c>
+      <c r="H161">
+        <v>19800</v>
+      </c>
+      <c r="I161">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C162">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D162">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E162">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F162">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G162">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H162">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I162">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="C163">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="D163">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="E163">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="F163">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="G163">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="H163">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="I163">
+        <v>13441.83760958354</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="C164">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="D164">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="E164">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="F164">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="G164">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="H164">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="I164">
+        <v>11849.68120845455</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="C165">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="D165">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="E165">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="F165">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="G165">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="H165">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="I165">
+        <v>10780.7254124547</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>10233.98976475038</v>
+      </c>
+      <c r="C166">
+        <v>13069.11699663836</v>
+      </c>
+      <c r="D166">
+        <v>14203.83038221536</v>
+      </c>
+      <c r="E166">
+        <v>15300.32009924805</v>
+      </c>
+      <c r="F166">
+        <v>16410.18266145589</v>
+      </c>
+      <c r="G166">
+        <v>17459.81232162066</v>
+      </c>
+      <c r="H166">
+        <v>13851.43056756596</v>
+      </c>
+      <c r="I166">
+        <v>16726.09408033087</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>12069.62108728033</v>
+      </c>
+      <c r="C167">
+        <v>16245.3748030741</v>
+      </c>
+      <c r="D167">
+        <v>18130.40054842641</v>
+      </c>
+      <c r="E167">
+        <v>20066.04025594671</v>
+      </c>
+      <c r="F167">
+        <v>22225.54448846482</v>
+      </c>
+      <c r="G167">
+        <v>24329.92884177655</v>
+      </c>
+      <c r="H167">
+        <v>17651.11775770775</v>
+      </c>
+      <c r="I167">
+        <v>22797.89931923729</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>14085.50370311132</v>
+      </c>
+      <c r="C168">
+        <v>19622.59314984137</v>
+      </c>
+      <c r="D168">
+        <v>22315.75020089639</v>
+      </c>
+      <c r="E168">
+        <v>25272.29543707697</v>
+      </c>
+      <c r="F168">
+        <v>28475.3534749249</v>
+      </c>
+      <c r="G168">
+        <v>31979.16661005899</v>
+      </c>
+      <c r="H168">
+        <v>21688.36199496843</v>
+      </c>
+      <c r="I168">
+        <v>29511.84969640481</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>8</v>
+      </c>
+      <c r="B169">
+        <v>16227.82858814958</v>
+      </c>
+      <c r="C169">
+        <v>23184.00980823255</v>
+      </c>
+      <c r="D169">
+        <v>26942.49550777172</v>
+      </c>
+      <c r="E169">
+        <v>30987.54157213903</v>
+      </c>
+      <c r="F169">
+        <v>35552.01173856249</v>
+      </c>
+      <c r="G169">
+        <v>40414.2134573473</v>
+      </c>
+      <c r="H169">
+        <v>26098.93140573527</v>
+      </c>
+      <c r="I169">
+        <v>36822.01154131375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>18858.19285840214</v>
+      </c>
+      <c r="C170">
+        <v>26888.35234539932</v>
+      </c>
+      <c r="D170">
+        <v>31727.04400073702</v>
+      </c>
+      <c r="E170">
+        <v>37215.69290543798</v>
+      </c>
+      <c r="F170">
+        <v>43243.38574280937</v>
+      </c>
+      <c r="G170">
+        <v>49580.24564417813</v>
+      </c>
+      <c r="H170">
+        <v>30738.90495145692</v>
+      </c>
+      <c r="I170">
+        <v>45097.39189046741</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <v>20059.56739840434</v>
+      </c>
+      <c r="C171">
+        <v>31038.18280910949</v>
+      </c>
+      <c r="D171">
+        <v>36925.40291186801</v>
+      </c>
+      <c r="E171">
+        <v>43629.76581866469</v>
+      </c>
+      <c r="F171">
+        <v>51575.51987510467</v>
+      </c>
+      <c r="G171">
+        <v>60369.74335388597</v>
+      </c>
+      <c r="H171">
+        <v>35730.85066496968</v>
+      </c>
+      <c r="I171">
+        <v>54197.85399166506</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>11</v>
+      </c>
+      <c r="B172">
+        <v>23686.6066223818</v>
+      </c>
+      <c r="C172">
+        <v>35217.99170592707</v>
+      </c>
+      <c r="D172">
+        <v>42438.22253719506</v>
+      </c>
+      <c r="E172">
+        <v>51242.22013847614</v>
+      </c>
+      <c r="F172">
+        <v>61135.31915704915</v>
+      </c>
+      <c r="G172">
+        <v>72172.57147965935</v>
+      </c>
+      <c r="H172">
+        <v>41230.11530109312</v>
+      </c>
+      <c r="I172">
+        <v>64221.98948658026</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>12</v>
+      </c>
+      <c r="B173">
+        <v>25771.53275289131</v>
+      </c>
+      <c r="C173">
+        <v>40142.42126791981</v>
+      </c>
+      <c r="D173">
+        <v>48421.59283638584</v>
+      </c>
+      <c r="E173">
+        <v>59123.3847262169</v>
+      </c>
+      <c r="F173">
+        <v>71486.45483950946</v>
+      </c>
+      <c r="G173">
+        <v>84923.49133207275</v>
+      </c>
+      <c r="H173">
+        <v>46929.03354391331</v>
+      </c>
+      <c r="I173">
+        <v>75555.14808138147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>27804.22394336205</v>
+      </c>
+      <c r="C174">
+        <v>44098.93111783463</v>
+      </c>
+      <c r="D174">
+        <v>54590.97811609048</v>
+      </c>
+      <c r="E174">
+        <v>67389.19146384162</v>
+      </c>
+      <c r="F174">
+        <v>82473.34089079911</v>
+      </c>
+      <c r="G174">
+        <v>98977.37399461283</v>
+      </c>
+      <c r="H174">
+        <v>52647.22629558592</v>
+      </c>
+      <c r="I174">
+        <v>87649.21080919524</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>14</v>
+      </c>
+      <c r="B175">
+        <v>30918.35990421243</v>
+      </c>
+      <c r="C175">
+        <v>49105.26313837322</v>
+      </c>
+      <c r="D175">
+        <v>60912.82759411394</v>
+      </c>
+      <c r="E175">
+        <v>76464.55714018051</v>
+      </c>
+      <c r="F175">
+        <v>94249.28557571044</v>
+      </c>
+      <c r="G175">
+        <v>115673.5561756328</v>
+      </c>
+      <c r="H175">
+        <v>59129.00368155946</v>
+      </c>
+      <c r="I175">
+        <v>100983.1039575443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>31997.76202833735</v>
+      </c>
+      <c r="C176">
+        <v>53935.76819407078</v>
+      </c>
+      <c r="D176">
+        <v>68138.43834768189</v>
+      </c>
+      <c r="E176">
+        <v>86218.57965989002</v>
+      </c>
+      <c r="F176">
+        <v>107384.4553360705</v>
+      </c>
+      <c r="G176">
+        <v>132271.1645349358</v>
+      </c>
+      <c r="H176">
+        <v>65847.01223729787</v>
+      </c>
+      <c r="I176">
+        <v>115817.2577479569</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <v>34357.75326380626</v>
+      </c>
+      <c r="C177">
+        <v>59581.16396906911</v>
+      </c>
+      <c r="D177">
+        <v>75596.48281093301</v>
+      </c>
+      <c r="E177">
+        <v>96616.93955221701</v>
+      </c>
+      <c r="F177">
+        <v>122386.3592855585</v>
+      </c>
+      <c r="G177">
+        <v>152996.7784614977</v>
+      </c>
+      <c r="H177">
+        <v>73078.02678438458</v>
+      </c>
+      <c r="I177">
+        <v>132232.3398407578</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>17</v>
+      </c>
+      <c r="B178">
+        <v>37468.18237169868</v>
+      </c>
+      <c r="C178">
+        <v>65699.4857002254</v>
+      </c>
+      <c r="D178">
+        <v>82361.13893158715</v>
+      </c>
+      <c r="E178">
+        <v>107696.4619769376</v>
+      </c>
+      <c r="F178">
+        <v>138971.3153524002</v>
+      </c>
+      <c r="G178">
+        <v>175084.1582372552</v>
+      </c>
+      <c r="H178">
+        <v>80330.57975419867</v>
+      </c>
+      <c r="I178">
+        <v>151133.1702640762</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>18</v>
+      </c>
+      <c r="B179">
+        <v>40379.70748308338</v>
+      </c>
+      <c r="C179">
+        <v>70758.35917910121</v>
+      </c>
+      <c r="D179">
+        <v>91084.058367035</v>
+      </c>
+      <c r="E179">
+        <v>120136.8612132357</v>
+      </c>
+      <c r="F179">
+        <v>155340.2041755107</v>
+      </c>
+      <c r="G179">
+        <v>199140.8939277783</v>
+      </c>
+      <c r="H179">
+        <v>88356.69860473435</v>
+      </c>
+      <c r="I179">
+        <v>170935.9022533488</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>19</v>
+      </c>
+      <c r="B180">
+        <v>45212.89606549431</v>
+      </c>
+      <c r="C180">
+        <v>77357.14880496096</v>
+      </c>
+      <c r="D180">
+        <v>99275.8529509207</v>
+      </c>
+      <c r="E180">
+        <v>132908.8172041967</v>
+      </c>
+      <c r="F180">
+        <v>173406.5968735262</v>
+      </c>
+      <c r="G180">
+        <v>224860.7340496508</v>
+      </c>
+      <c r="H180">
+        <v>97117.84718851563</v>
+      </c>
+      <c r="I180">
+        <v>191485.7706466918</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>20</v>
+      </c>
+      <c r="B181">
+        <v>49910.95496157496</v>
+      </c>
+      <c r="C181">
+        <v>84449.21455872274</v>
+      </c>
+      <c r="D181">
+        <v>109236.2327984878</v>
+      </c>
+      <c r="E181">
+        <v>147222.5788710648</v>
+      </c>
+      <c r="F181">
+        <v>194267.0035159013</v>
+      </c>
+      <c r="G181">
+        <v>250734.4763668527</v>
+      </c>
+      <c r="H181">
+        <v>106866.6418937279</v>
+      </c>
+      <c r="I181">
+        <v>213878.3129968049</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>21</v>
+      </c>
+      <c r="B182">
+        <v>51659.97214352819</v>
+      </c>
+      <c r="C182">
+        <v>91625.73234161097</v>
+      </c>
+      <c r="D182">
+        <v>120671.0145290601</v>
+      </c>
+      <c r="E182">
+        <v>160926.4790510273</v>
+      </c>
+      <c r="F182">
+        <v>217857.5826538063</v>
+      </c>
+      <c r="G182">
+        <v>283354.5470058218</v>
+      </c>
+      <c r="H182">
+        <v>116778.7648218442</v>
+      </c>
+      <c r="I182">
+        <v>239997.903460909</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>22</v>
+      </c>
+      <c r="B183">
+        <v>53711.47577249141</v>
+      </c>
+      <c r="C183">
+        <v>99348.38001931609</v>
+      </c>
+      <c r="D183">
+        <v>131370.0050140597</v>
+      </c>
+      <c r="E183">
+        <v>177945.8625548298</v>
+      </c>
+      <c r="F183">
+        <v>241279.0846055456</v>
+      </c>
+      <c r="G183">
+        <v>318798.610279988</v>
+      </c>
+      <c r="H183">
+        <v>127785.323067273</v>
+      </c>
+      <c r="I183">
+        <v>267755.3161793542</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>23</v>
+      </c>
+      <c r="B184">
+        <v>61576.63991764209</v>
+      </c>
+      <c r="C184">
+        <v>107861.8019583701</v>
+      </c>
+      <c r="D184">
+        <v>144143.1554553728</v>
+      </c>
+      <c r="E184">
+        <v>195873.5884239134</v>
+      </c>
+      <c r="F184">
+        <v>266603.102957023</v>
+      </c>
+      <c r="G184">
+        <v>358138.9070247564</v>
+      </c>
+      <c r="H184">
+        <v>139371.4444261927</v>
+      </c>
+      <c r="I184">
+        <v>296973.6413132542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>24</v>
+      </c>
+      <c r="B185">
+        <v>62307.52431181538</v>
+      </c>
+      <c r="C185">
+        <v>116047.2806610957</v>
+      </c>
+      <c r="D185">
+        <v>155387.9868529975</v>
+      </c>
+      <c r="E185">
+        <v>215227.0759730795</v>
+      </c>
+      <c r="F185">
+        <v>295643.2091967614</v>
+      </c>
+      <c r="G185">
+        <v>397474.3996645964</v>
+      </c>
+      <c r="H185">
+        <v>151181.84338824</v>
+      </c>
+      <c r="I185">
+        <v>330753.6087810969</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>25</v>
+      </c>
+      <c r="B186">
+        <v>61839.80852649516</v>
+      </c>
+      <c r="C186">
+        <v>124833.4574789893</v>
+      </c>
+      <c r="D186">
+        <v>169783.050064656</v>
+      </c>
+      <c r="E186">
+        <v>234117.8291037735</v>
+      </c>
+      <c r="F186">
+        <v>324807.9407639104</v>
+      </c>
+      <c r="G186">
+        <v>437141.0997252343</v>
+      </c>
+      <c r="H186">
+        <v>164189.8611952696</v>
+      </c>
+      <c r="I186">
+        <v>365413.7710428337</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>26</v>
+      </c>
+      <c r="B187">
+        <v>62247.50358756176</v>
+      </c>
+      <c r="C187">
+        <v>134762.0084940855</v>
+      </c>
+      <c r="D187">
+        <v>183002.6177948154</v>
+      </c>
+      <c r="E187">
+        <v>254992.746756683</v>
+      </c>
+      <c r="F187">
+        <v>357391.8226151296</v>
+      </c>
+      <c r="G187">
+        <v>482965.8887336766</v>
+      </c>
+      <c r="H187">
+        <v>177606.8356012343</v>
+      </c>
+      <c r="I187">
+        <v>403961.9795212343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>27</v>
+      </c>
+      <c r="B188">
+        <v>56845.99064788206</v>
+      </c>
+      <c r="C188">
+        <v>144312.4525404741</v>
+      </c>
+      <c r="D188">
+        <v>196791.6279881608</v>
+      </c>
+      <c r="E188">
+        <v>277014.8372549879</v>
+      </c>
+      <c r="F188">
+        <v>393106.3361446239</v>
+      </c>
+      <c r="G188">
+        <v>533679.7915701367</v>
+      </c>
+      <c r="H188">
+        <v>191876.1715057057</v>
+      </c>
+      <c r="I188">
+        <v>444181.4934332243</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>28</v>
+      </c>
+      <c r="B189">
+        <v>60893.66924528437</v>
+      </c>
+      <c r="C189">
+        <v>156545.5405400165</v>
+      </c>
+      <c r="D189">
+        <v>212739.1633927138</v>
+      </c>
+      <c r="E189">
+        <v>303384.7951633154</v>
+      </c>
+      <c r="F189">
+        <v>430745.3230209483</v>
+      </c>
+      <c r="G189">
+        <v>592798.6640258896</v>
+      </c>
+      <c r="H189">
+        <v>206949.7006163386</v>
+      </c>
+      <c r="I189">
+        <v>488181.7055346624</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>29</v>
+      </c>
+      <c r="B190">
+        <v>61300.8576834803</v>
+      </c>
+      <c r="C190">
+        <v>166367.7573592313</v>
+      </c>
+      <c r="D190">
+        <v>229893.9974060887</v>
+      </c>
+      <c r="E190">
+        <v>327042.1758498435</v>
+      </c>
+      <c r="F190">
+        <v>468322.7105025513</v>
+      </c>
+      <c r="G190">
+        <v>650083.9460009994</v>
+      </c>
+      <c r="H190">
+        <v>221827.0849158963</v>
+      </c>
+      <c r="I190">
+        <v>535739.1021439744</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>30</v>
+      </c>
+      <c r="B191">
+        <v>60147.98700012934</v>
+      </c>
+      <c r="C191">
+        <v>179292.6257001765</v>
+      </c>
+      <c r="D191">
+        <v>249432.528382703</v>
+      </c>
+      <c r="E191">
+        <v>353485.7558095825</v>
+      </c>
+      <c r="F191">
+        <v>516039.723494316</v>
+      </c>
+      <c r="G191">
+        <v>732432.5938514256</v>
+      </c>
+      <c r="H191">
+        <v>241074.5557714466</v>
+      </c>
+      <c r="I191">
+        <v>589860.963781826</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>19800</v>
+      </c>
+      <c r="C195">
+        <v>19800</v>
+      </c>
+      <c r="D195">
+        <v>19800</v>
+      </c>
+      <c r="E195">
+        <v>19800</v>
+      </c>
+      <c r="F195">
+        <v>19800</v>
+      </c>
+      <c r="G195">
+        <v>19800</v>
+      </c>
+      <c r="H195">
+        <v>19800</v>
+      </c>
+      <c r="I195">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C196">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D196">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E196">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F196">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G196">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H196">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I196">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="C197">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="D197">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="E197">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="F197">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="G197">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="H197">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="I197">
+        <v>13441.83760958354</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="C198">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="D198">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="E198">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="F198">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="G198">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="H198">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="I198">
+        <v>11849.68120845455</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="C199">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="D199">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="E199">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="F199">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="G199">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="H199">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="I199">
+        <v>10780.7254124547</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="C200">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="D200">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="E200">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="F200">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="G200">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="H200">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="I200">
+        <v>10028.84867737882</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201">
+        <v>6</v>
+      </c>
+      <c r="B201">
+        <v>9766.730237344609</v>
+      </c>
+      <c r="C201">
+        <v>12390.75639149976</v>
+      </c>
+      <c r="D201">
+        <v>13395.74702942019</v>
+      </c>
+      <c r="E201">
+        <v>14423.92955515861</v>
+      </c>
+      <c r="F201">
+        <v>15417.31612146273</v>
+      </c>
+      <c r="G201">
+        <v>16442.62503506297</v>
+      </c>
+      <c r="H201">
+        <v>13099.65844716375</v>
+      </c>
+      <c r="I201">
+        <v>15734.18968671414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202">
+        <v>7</v>
+      </c>
+      <c r="B202">
+        <v>11652.06553840661</v>
+      </c>
+      <c r="C202">
+        <v>15430.47915927387</v>
+      </c>
+      <c r="D202">
+        <v>17160.94619265721</v>
+      </c>
+      <c r="E202">
+        <v>19109.23839168246</v>
+      </c>
+      <c r="F202">
+        <v>21066.71974583527</v>
+      </c>
+      <c r="G202">
+        <v>23097.42693076964</v>
+      </c>
+      <c r="H202">
+        <v>16759.74214931025</v>
+      </c>
+      <c r="I202">
+        <v>21617.01023689118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>12992.21145831267</v>
+      </c>
+      <c r="C203">
+        <v>18868.74527473464</v>
+      </c>
+      <c r="D203">
+        <v>21471.9554862929</v>
+      </c>
+      <c r="E203">
+        <v>24191.19505251803</v>
+      </c>
+      <c r="F203">
+        <v>27353.55903492273</v>
+      </c>
+      <c r="G203">
+        <v>30351.63253221612</v>
+      </c>
+      <c r="H203">
+        <v>20776.24784099527</v>
+      </c>
+      <c r="I203">
+        <v>28206.96079267778</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204">
+        <v>9</v>
+      </c>
+      <c r="B204">
+        <v>15488.01020553106</v>
+      </c>
+      <c r="C204">
+        <v>22401.60342692496</v>
+      </c>
+      <c r="D204">
+        <v>25778.46612156861</v>
+      </c>
+      <c r="E204">
+        <v>29887.25481770144</v>
+      </c>
+      <c r="F204">
+        <v>34154.98776434705</v>
+      </c>
+      <c r="G204">
+        <v>38877.51626421988</v>
+      </c>
+      <c r="H204">
+        <v>25061.10082522236</v>
+      </c>
+      <c r="I204">
+        <v>35508.66474898903</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205">
+        <v>10</v>
+      </c>
+      <c r="B205">
+        <v>17856.67580884327</v>
+      </c>
+      <c r="C205">
+        <v>26147.61496481528</v>
+      </c>
+      <c r="D205">
+        <v>30770.75269982154</v>
+      </c>
+      <c r="E205">
+        <v>35894.23014969568</v>
+      </c>
+      <c r="F205">
+        <v>41986.16438270787</v>
+      </c>
+      <c r="G205">
+        <v>48472.19555226449</v>
+      </c>
+      <c r="H205">
+        <v>29696.08344134707</v>
+      </c>
+      <c r="I205">
+        <v>43723.8234447111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206">
+        <v>11</v>
+      </c>
+      <c r="B206">
+        <v>18180.53903145618</v>
+      </c>
+      <c r="C206">
+        <v>29858.75906871011</v>
+      </c>
+      <c r="D206">
+        <v>35365.54192496873</v>
+      </c>
+      <c r="E206">
+        <v>42264.34618105117</v>
+      </c>
+      <c r="F206">
+        <v>50125.21455194996</v>
+      </c>
+      <c r="G206">
+        <v>58866.56466083109</v>
+      </c>
+      <c r="H206">
+        <v>34245.13665563352</v>
+      </c>
+      <c r="I206">
+        <v>52626.05639463409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207">
+        <v>12</v>
+      </c>
+      <c r="B207">
+        <v>21295.84682767729</v>
+      </c>
+      <c r="C207">
+        <v>34215.90947591551</v>
+      </c>
+      <c r="D207">
+        <v>41144.86288932465</v>
+      </c>
+      <c r="E207">
+        <v>49275.90661473965</v>
+      </c>
+      <c r="F207">
+        <v>59768.05482642741</v>
+      </c>
+      <c r="G207">
+        <v>70338.27692221449</v>
+      </c>
+      <c r="H207">
+        <v>39611.27764506446</v>
+      </c>
+      <c r="I207">
+        <v>62387.45399538794</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208">
+        <v>13</v>
+      </c>
+      <c r="B208">
+        <v>23494.75938799468</v>
+      </c>
+      <c r="C208">
+        <v>38057.75888198093</v>
+      </c>
+      <c r="D208">
+        <v>46437.06766432178</v>
+      </c>
+      <c r="E208">
+        <v>56904.79856446436</v>
+      </c>
+      <c r="F208">
+        <v>69551.39833485271</v>
+      </c>
+      <c r="G208">
+        <v>82916.77983947979</v>
+      </c>
+      <c r="H208">
+        <v>44903.58525520247</v>
+      </c>
+      <c r="I208">
+        <v>73194.26057309809</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="B209">
+        <v>24182.2916863524</v>
+      </c>
+      <c r="C209">
+        <v>42764.1301134683</v>
+      </c>
+      <c r="D209">
+        <v>53229.64856147229</v>
+      </c>
+      <c r="E209">
+        <v>65750.81776594478</v>
+      </c>
+      <c r="F209">
+        <v>81045.20646855803</v>
+      </c>
+      <c r="G209">
+        <v>97318.84872885504</v>
+      </c>
+      <c r="H209">
+        <v>51061.10191697722</v>
+      </c>
+      <c r="I209">
+        <v>85613.73250872376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210">
+        <v>15</v>
+      </c>
+      <c r="B210">
+        <v>27312.37225082139</v>
+      </c>
+      <c r="C210">
+        <v>47636.00975583995</v>
+      </c>
+      <c r="D210">
+        <v>59430.51105254526</v>
+      </c>
+      <c r="E210">
+        <v>74983.58849026132</v>
+      </c>
+      <c r="F210">
+        <v>92775.54142812671</v>
+      </c>
+      <c r="G210">
+        <v>113331.2825460566</v>
+      </c>
+      <c r="H210">
+        <v>57576.47435110583</v>
+      </c>
+      <c r="I210">
+        <v>98818.86930402248</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211">
+        <v>16</v>
+      </c>
+      <c r="B211">
+        <v>30885.79270102562</v>
+      </c>
+      <c r="C211">
+        <v>53362.60060018825</v>
+      </c>
+      <c r="D211">
+        <v>66657.90412713277</v>
+      </c>
+      <c r="E211">
+        <v>84709.57028771889</v>
+      </c>
+      <c r="F211">
+        <v>105631.6577298283</v>
+      </c>
+      <c r="G211">
+        <v>130868.5499645352</v>
+      </c>
+      <c r="H211">
+        <v>64476.43896261489</v>
+      </c>
+      <c r="I211">
+        <v>113415.9670454355</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212">
+        <v>17</v>
+      </c>
+      <c r="B212">
+        <v>31251.11522957472</v>
+      </c>
+      <c r="C212">
+        <v>58427.73436886221</v>
+      </c>
+      <c r="D212">
+        <v>73533.39539265647</v>
+      </c>
+      <c r="E212">
+        <v>94628.5295500145</v>
+      </c>
+      <c r="F212">
+        <v>120119.1207482251</v>
+      </c>
+      <c r="G212">
+        <v>150075.1939924858</v>
+      </c>
+      <c r="H212">
+        <v>71501.41410522902</v>
+      </c>
+      <c r="I212">
+        <v>129529.4911663682</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213">
+        <v>18</v>
+      </c>
+      <c r="B213">
+        <v>34283.21353353297</v>
+      </c>
+      <c r="C213">
+        <v>63879.02401672105</v>
+      </c>
+      <c r="D213">
+        <v>81203.34394843157</v>
+      </c>
+      <c r="E213">
+        <v>106355.2625554235</v>
+      </c>
+      <c r="F213">
+        <v>136110.2943485248</v>
+      </c>
+      <c r="G213">
+        <v>170112.2241347491</v>
+      </c>
+      <c r="H213">
+        <v>78915.7501510052</v>
+      </c>
+      <c r="I213">
+        <v>147023.0558087883</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214">
+        <v>19</v>
+      </c>
+      <c r="B214">
+        <v>38229.98550850809</v>
+      </c>
+      <c r="C214">
+        <v>69709.5241736764</v>
+      </c>
+      <c r="D214">
+        <v>89389.60752384804</v>
+      </c>
+      <c r="E214">
+        <v>117572.9212004117</v>
+      </c>
+      <c r="F214">
+        <v>152981.8475705789</v>
+      </c>
+      <c r="G214">
+        <v>192411.5855675242</v>
+      </c>
+      <c r="H214">
+        <v>86531.95854177359</v>
+      </c>
+      <c r="I214">
+        <v>165904.2891227669</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215">
+        <v>20</v>
+      </c>
+      <c r="B215">
+        <v>41196.89492180548</v>
+      </c>
+      <c r="C215">
+        <v>75973.55026881088</v>
+      </c>
+      <c r="D215">
+        <v>98424.93116844169</v>
+      </c>
+      <c r="E215">
+        <v>130570.3885899812</v>
+      </c>
+      <c r="F215">
+        <v>171091.3387533211</v>
+      </c>
+      <c r="G215">
+        <v>218119.5406118709</v>
+      </c>
+      <c r="H215">
+        <v>95187.20988117112</v>
+      </c>
+      <c r="I215">
+        <v>185973.6408186884</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216">
+        <v>21</v>
+      </c>
+      <c r="B216">
+        <v>40317.02584913613</v>
+      </c>
+      <c r="C216">
+        <v>81852.5235234876</v>
+      </c>
+      <c r="D216">
+        <v>107339.3123739802</v>
+      </c>
+      <c r="E216">
+        <v>143650.7677356267</v>
+      </c>
+      <c r="F216">
+        <v>189936.2821016863</v>
+      </c>
+      <c r="G216">
+        <v>245997.7947222385</v>
+      </c>
+      <c r="H216">
+        <v>103684.4871377773</v>
+      </c>
+      <c r="I216">
+        <v>207187.4715487625</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217">
+        <v>22</v>
+      </c>
+      <c r="B217">
+        <v>35268.79551465619</v>
+      </c>
+      <c r="C217">
+        <v>88743.8024398811</v>
+      </c>
+      <c r="D217">
+        <v>116774.3021854339</v>
+      </c>
+      <c r="E217">
+        <v>158396.8964420672</v>
+      </c>
+      <c r="F217">
+        <v>210092.5027815218</v>
+      </c>
+      <c r="G217">
+        <v>276712.2238154433</v>
+      </c>
+      <c r="H217">
+        <v>113185.0605430621</v>
+      </c>
+      <c r="I217">
+        <v>231874.880433305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218">
+        <v>23</v>
+      </c>
+      <c r="B218">
+        <v>38495.98331278787</v>
+      </c>
+      <c r="C218">
+        <v>96391.09026675839</v>
+      </c>
+      <c r="D218">
+        <v>128624.8083960254</v>
+      </c>
+      <c r="E218">
+        <v>172351.7351975619</v>
+      </c>
+      <c r="F218">
+        <v>235688.9644843452</v>
+      </c>
+      <c r="G218">
+        <v>307684.5393306426</v>
+      </c>
+      <c r="H218">
+        <v>123412.9198199657</v>
+      </c>
+      <c r="I218">
+        <v>258379.0749777292</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219">
+        <v>24</v>
+      </c>
+      <c r="B219">
+        <v>42125.43563650449</v>
+      </c>
+      <c r="C219">
+        <v>105482.9035943821</v>
+      </c>
+      <c r="D219">
+        <v>140304.47157395</v>
+      </c>
+      <c r="E219">
+        <v>189511.6190619192</v>
+      </c>
+      <c r="F219">
+        <v>260916.47336197</v>
+      </c>
+      <c r="G219">
+        <v>343133.5525603152</v>
+      </c>
+      <c r="H219">
+        <v>135189.7523751485</v>
+      </c>
+      <c r="I219">
+        <v>286287.8651293566</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220">
+        <v>25</v>
+      </c>
+      <c r="B220">
+        <v>46552.59278843505</v>
+      </c>
+      <c r="C220">
+        <v>113115.5636153644</v>
+      </c>
+      <c r="D220">
+        <v>151923.2758891772</v>
+      </c>
+      <c r="E220">
+        <v>208306.1351736123</v>
+      </c>
+      <c r="F220">
+        <v>284734.5004561653</v>
+      </c>
+      <c r="G220">
+        <v>378591.4011183796</v>
+      </c>
+      <c r="H220">
+        <v>146394.5508246659</v>
+      </c>
+      <c r="I220">
+        <v>315447.5074006178</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221">
+        <v>26</v>
+      </c>
+      <c r="B221">
+        <v>46729.23471098902</v>
+      </c>
+      <c r="C221">
+        <v>121163.0478277184</v>
+      </c>
+      <c r="D221">
+        <v>164320.653946204</v>
+      </c>
+      <c r="E221">
+        <v>225708.7098075799</v>
+      </c>
+      <c r="F221">
+        <v>313568.3639291856</v>
+      </c>
+      <c r="G221">
+        <v>413404.3604977105</v>
+      </c>
+      <c r="H221">
+        <v>158485.1623833098</v>
+      </c>
+      <c r="I221">
+        <v>348372.3240339902</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222">
+        <v>27</v>
+      </c>
+      <c r="B222">
+        <v>49307.89114372807</v>
+      </c>
+      <c r="C222">
+        <v>131535.7045475817</v>
+      </c>
+      <c r="D222">
+        <v>178673.8219719104</v>
+      </c>
+      <c r="E222">
+        <v>246810.8336953411</v>
+      </c>
+      <c r="F222">
+        <v>344893.4101915149</v>
+      </c>
+      <c r="G222">
+        <v>459275.4550132449</v>
+      </c>
+      <c r="H222">
+        <v>171816.753925195</v>
+      </c>
+      <c r="I222">
+        <v>383919.9629596178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223">
+        <v>28</v>
+      </c>
+      <c r="B223">
+        <v>53223.4638698069</v>
+      </c>
+      <c r="C223">
+        <v>140094.198011094</v>
+      </c>
+      <c r="D223">
+        <v>191178.8099355809</v>
+      </c>
+      <c r="E223">
+        <v>269179.9958286996</v>
+      </c>
+      <c r="F223">
+        <v>374741.9701766</v>
+      </c>
+      <c r="G223">
+        <v>507067.9233290964</v>
+      </c>
+      <c r="H223">
+        <v>185491.3157108145</v>
+      </c>
+      <c r="I223">
+        <v>422336.3724341166</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224">
+        <v>29</v>
+      </c>
+      <c r="B224">
+        <v>58152.26749929749</v>
+      </c>
+      <c r="C224">
+        <v>149731.7094617894</v>
+      </c>
+      <c r="D224">
+        <v>208407.9063919423</v>
+      </c>
+      <c r="E224">
+        <v>292319.5859176904</v>
+      </c>
+      <c r="F224">
+        <v>414527.7366161158</v>
+      </c>
+      <c r="G224">
+        <v>564748.4729235822</v>
+      </c>
+      <c r="H224">
+        <v>201022.8504592447</v>
+      </c>
+      <c r="I224">
+        <v>465561.791225264</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225">
+        <v>30</v>
+      </c>
+      <c r="B225">
+        <v>58276.78574785639</v>
+      </c>
+      <c r="C225">
+        <v>163372.0740213687</v>
+      </c>
+      <c r="D225">
+        <v>225588.7035197163</v>
+      </c>
+      <c r="E225">
+        <v>322152.8468280737</v>
+      </c>
+      <c r="F225">
+        <v>457293.240838801</v>
+      </c>
+      <c r="G225">
+        <v>624271.7391337453</v>
+      </c>
+      <c r="H225">
+        <v>219099.5181029221</v>
+      </c>
+      <c r="I225">
+        <v>517115.8358853861</v>
       </c>
     </row>
   </sheetData>
@@ -2806,6 +6287,2318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>531.1843244342608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>38852.25881211022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>63406.72658417116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>79179.04651719297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>100543.5621705786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>128259.4405563373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>99.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>53134.38056424683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>5112.324154470553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>-0.06049731101825781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.001343051177492019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.03672076736151458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.07349823096440208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0.1112454760988929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.1452118530633617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.02869933128964701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.1184640382476015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>20000</v>
+      </c>
+      <c r="C25">
+        <v>20000</v>
+      </c>
+      <c r="D25">
+        <v>20000</v>
+      </c>
+      <c r="E25">
+        <v>20000</v>
+      </c>
+      <c r="F25">
+        <v>20000</v>
+      </c>
+      <c r="G25">
+        <v>20000</v>
+      </c>
+      <c r="H25">
+        <v>20000</v>
+      </c>
+      <c r="I25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>15566.68011941786</v>
+      </c>
+      <c r="C26">
+        <v>21540.36409643874</v>
+      </c>
+      <c r="D26">
+        <v>23576.8172671422</v>
+      </c>
+      <c r="E26">
+        <v>25566.71934987837</v>
+      </c>
+      <c r="F26">
+        <v>27539.081630906</v>
+      </c>
+      <c r="G26">
+        <v>29662.94017722029</v>
+      </c>
+      <c r="H26">
+        <v>22931.86323087272</v>
+      </c>
+      <c r="I26">
+        <v>28160.2041777713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>17301.08912537797</v>
+      </c>
+      <c r="C27">
+        <v>24667.1575419631</v>
+      </c>
+      <c r="D27">
+        <v>28049.44820132537</v>
+      </c>
+      <c r="E27">
+        <v>31512.46817270466</v>
+      </c>
+      <c r="F27">
+        <v>35079.850503353</v>
+      </c>
+      <c r="G27">
+        <v>38853.52728350694</v>
+      </c>
+      <c r="H27">
+        <v>27226.70632705936</v>
+      </c>
+      <c r="I27">
+        <v>36168.9295770751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>19987.88164182917</v>
+      </c>
+      <c r="C28">
+        <v>28651.84620114473</v>
+      </c>
+      <c r="D28">
+        <v>33035.4168817421</v>
+      </c>
+      <c r="E28">
+        <v>37960.9117828711</v>
+      </c>
+      <c r="F28">
+        <v>43368.12129100761</v>
+      </c>
+      <c r="G28">
+        <v>48919.03441613566</v>
+      </c>
+      <c r="H28">
+        <v>32039.45799185745</v>
+      </c>
+      <c r="I28">
+        <v>44977.2734767066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>21709.47728361635</v>
+      </c>
+      <c r="C29">
+        <v>32490.20419117324</v>
+      </c>
+      <c r="D29">
+        <v>38168.65554120996</v>
+      </c>
+      <c r="E29">
+        <v>44834.7894317729</v>
+      </c>
+      <c r="F29">
+        <v>52228.1605459583</v>
+      </c>
+      <c r="G29">
+        <v>59855.21094056113</v>
+      </c>
+      <c r="H29">
+        <v>37028.15252871472</v>
+      </c>
+      <c r="I29">
+        <v>54387.79801857827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>25117.18774646175</v>
+      </c>
+      <c r="C30">
+        <v>36717.78401103508</v>
+      </c>
+      <c r="D30">
+        <v>44019.89287123596</v>
+      </c>
+      <c r="E30">
+        <v>52334.35491375928</v>
+      </c>
+      <c r="F30">
+        <v>61789.17074590641</v>
+      </c>
+      <c r="G30">
+        <v>71994.25793509354</v>
+      </c>
+      <c r="H30">
+        <v>42550.93363827198</v>
+      </c>
+      <c r="I30">
+        <v>64911.76629772899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>26799.42934016962</v>
+      </c>
+      <c r="C31">
+        <v>41168.03978578529</v>
+      </c>
+      <c r="D31">
+        <v>50350.70195710942</v>
+      </c>
+      <c r="E31">
+        <v>60583.97991771682</v>
+      </c>
+      <c r="F31">
+        <v>72691.54917372197</v>
+      </c>
+      <c r="G31">
+        <v>85532.20714808986</v>
+      </c>
+      <c r="H31">
+        <v>48640.12108109532</v>
+      </c>
+      <c r="I31">
+        <v>76642.7018375706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>29542.52102672332</v>
+      </c>
+      <c r="C32">
+        <v>46201.77628806782</v>
+      </c>
+      <c r="D32">
+        <v>56565.52387007785</v>
+      </c>
+      <c r="E32">
+        <v>69079.94900981971</v>
+      </c>
+      <c r="F32">
+        <v>84745.67347260713</v>
+      </c>
+      <c r="G32">
+        <v>102133.1207604075</v>
+      </c>
+      <c r="H32">
+        <v>54757.65789300975</v>
+      </c>
+      <c r="I32">
+        <v>89639.14560214078</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>33311.46164205081</v>
+      </c>
+      <c r="C33">
+        <v>51446.22712586771</v>
+      </c>
+      <c r="D33">
+        <v>63408.42034942409</v>
+      </c>
+      <c r="E33">
+        <v>78788.38975061013</v>
+      </c>
+      <c r="F33">
+        <v>97386.36467516047</v>
+      </c>
+      <c r="G33">
+        <v>118696.2850874222</v>
+      </c>
+      <c r="H33">
+        <v>61361.33592806564</v>
+      </c>
+      <c r="I33">
+        <v>103436.9089220839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>35669.4958389805</v>
+      </c>
+      <c r="C34">
+        <v>57081.15579723792</v>
+      </c>
+      <c r="D34">
+        <v>70944.64008093589</v>
+      </c>
+      <c r="E34">
+        <v>88983.03658309369</v>
+      </c>
+      <c r="F34">
+        <v>111575.1845015927</v>
+      </c>
+      <c r="G34">
+        <v>136313.6465382142</v>
+      </c>
+      <c r="H34">
+        <v>68695.50114315</v>
+      </c>
+      <c r="I34">
+        <v>118683.7249134171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>38852.25881211022</v>
+      </c>
+      <c r="C35">
+        <v>63406.72658417116</v>
+      </c>
+      <c r="D35">
+        <v>79179.04651719297</v>
+      </c>
+      <c r="E35">
+        <v>100543.5621705786</v>
+      </c>
+      <c r="F35">
+        <v>128259.4405563373</v>
+      </c>
+      <c r="G35">
+        <v>157127.683359921</v>
+      </c>
+      <c r="H35">
+        <v>76852.76130381055</v>
+      </c>
+      <c r="I35">
+        <v>136482.2880383072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>19800</v>
+      </c>
+      <c r="C39">
+        <v>19800</v>
+      </c>
+      <c r="D39">
+        <v>19800</v>
+      </c>
+      <c r="E39">
+        <v>19800</v>
+      </c>
+      <c r="F39">
+        <v>19800</v>
+      </c>
+      <c r="G39">
+        <v>19800</v>
+      </c>
+      <c r="H39">
+        <v>19800</v>
+      </c>
+      <c r="I39">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C40">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D40">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E40">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F40">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G40">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H40">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I40">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>13596.00978199543</v>
+      </c>
+      <c r="C41">
+        <v>17844.43946645005</v>
+      </c>
+      <c r="D41">
+        <v>19488.08520938163</v>
+      </c>
+      <c r="E41">
+        <v>21137.61970572116</v>
+      </c>
+      <c r="F41">
+        <v>22710.29399688033</v>
+      </c>
+      <c r="G41">
+        <v>24315.3580622283</v>
+      </c>
+      <c r="H41">
+        <v>18993.42327195622</v>
+      </c>
+      <c r="I41">
+        <v>23199.40910577706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>15813.80242263508</v>
+      </c>
+      <c r="C42">
+        <v>21405.3796237135</v>
+      </c>
+      <c r="D42">
+        <v>23855.08125731744</v>
+      </c>
+      <c r="E42">
+        <v>26574.9988422022</v>
+      </c>
+      <c r="F42">
+        <v>29641.51271431574</v>
+      </c>
+      <c r="G42">
+        <v>32525.52286661263</v>
+      </c>
+      <c r="H42">
+        <v>23168.52644257373</v>
+      </c>
+      <c r="I42">
+        <v>30442.66667927391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>17338.43049857703</v>
+      </c>
+      <c r="C43">
+        <v>24728.4211311196</v>
+      </c>
+      <c r="D43">
+        <v>28491.09065262857</v>
+      </c>
+      <c r="E43">
+        <v>32725.08611636571</v>
+      </c>
+      <c r="F43">
+        <v>37254.30237752388</v>
+      </c>
+      <c r="G43">
+        <v>41838.28147298139</v>
+      </c>
+      <c r="H43">
+        <v>27658.41173012648</v>
+      </c>
+      <c r="I43">
+        <v>38505.82006303695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>19597.87173482678</v>
+      </c>
+      <c r="C44">
+        <v>28794.15431397393</v>
+      </c>
+      <c r="D44">
+        <v>33540.16246876984</v>
+      </c>
+      <c r="E44">
+        <v>39026.79402467982</v>
+      </c>
+      <c r="F44">
+        <v>45083.84554451489</v>
+      </c>
+      <c r="G44">
+        <v>51836.59243929743</v>
+      </c>
+      <c r="H44">
+        <v>32469.82430379712</v>
+      </c>
+      <c r="I44">
+        <v>47170.29552309792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>21135.40936121555</v>
+      </c>
+      <c r="C45">
+        <v>33007.60285448984</v>
+      </c>
+      <c r="D45">
+        <v>38661.82292853769</v>
+      </c>
+      <c r="E45">
+        <v>46108.30815027484</v>
+      </c>
+      <c r="F45">
+        <v>54404.93114855317</v>
+      </c>
+      <c r="G45">
+        <v>63010.91128309976</v>
+      </c>
+      <c r="H45">
+        <v>37592.28712059499</v>
+      </c>
+      <c r="I45">
+        <v>56902.79907485675</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>23682.32129053014</v>
+      </c>
+      <c r="C46">
+        <v>37280.07296982931</v>
+      </c>
+      <c r="D46">
+        <v>44350.75187796749</v>
+      </c>
+      <c r="E46">
+        <v>53661.10018602139</v>
+      </c>
+      <c r="F46">
+        <v>63910.91853554645</v>
+      </c>
+      <c r="G46">
+        <v>75516.31997087174</v>
+      </c>
+      <c r="H46">
+        <v>43058.88725217382</v>
+      </c>
+      <c r="I46">
+        <v>67278.19810057744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>25839.65863372471</v>
+      </c>
+      <c r="C47">
+        <v>42045.26131684128</v>
+      </c>
+      <c r="D47">
+        <v>50688.51525213724</v>
+      </c>
+      <c r="E47">
+        <v>61759.11231416867</v>
+      </c>
+      <c r="F47">
+        <v>74672.61109922617</v>
+      </c>
+      <c r="G47">
+        <v>89480.03153059291</v>
+      </c>
+      <c r="H47">
+        <v>49029.75885267889</v>
+      </c>
+      <c r="I47">
+        <v>79058.25053950402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>28911.66957236594</v>
+      </c>
+      <c r="C48">
+        <v>46479.15592591874</v>
+      </c>
+      <c r="D48">
+        <v>57070.23725665628</v>
+      </c>
+      <c r="E48">
+        <v>70520.17237842816</v>
+      </c>
+      <c r="F48">
+        <v>86853.90057758377</v>
+      </c>
+      <c r="G48">
+        <v>105197.0034851277</v>
+      </c>
+      <c r="H48">
+        <v>55180.98514467201</v>
+      </c>
+      <c r="I48">
+        <v>92209.59335539724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>31131.14475762365</v>
+      </c>
+      <c r="C49">
+        <v>52285.6510837261</v>
+      </c>
+      <c r="D49">
+        <v>64726.23398966472</v>
+      </c>
+      <c r="E49">
+        <v>80907.20189266378</v>
+      </c>
+      <c r="F49">
+        <v>100342.4060284539</v>
+      </c>
+      <c r="G49">
+        <v>122180.4103399702</v>
+      </c>
+      <c r="H49">
+        <v>62494.6776312494</v>
+      </c>
+      <c r="I49">
+        <v>106837.2272424869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>19800</v>
+      </c>
+      <c r="C53">
+        <v>19800</v>
+      </c>
+      <c r="D53">
+        <v>19800</v>
+      </c>
+      <c r="E53">
+        <v>19800</v>
+      </c>
+      <c r="F53">
+        <v>19800</v>
+      </c>
+      <c r="G53">
+        <v>19800</v>
+      </c>
+      <c r="H53">
+        <v>19800</v>
+      </c>
+      <c r="I53">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C54">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D54">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E54">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F54">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G54">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H54">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I54">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="C55">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="D55">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="E55">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="F55">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="G55">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="H55">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="I55">
+        <v>13441.83760958354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>11767.45065327859</v>
+      </c>
+      <c r="C56">
+        <v>15578.23733199353</v>
+      </c>
+      <c r="D56">
+        <v>16981.84211634357</v>
+      </c>
+      <c r="E56">
+        <v>18338.36423733683</v>
+      </c>
+      <c r="F56">
+        <v>19737.72836360058</v>
+      </c>
+      <c r="G56">
+        <v>21089.4907941232</v>
+      </c>
+      <c r="H56">
+        <v>16559.49411054092</v>
+      </c>
+      <c r="I56">
+        <v>20125.09135601021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>13594.92446338205</v>
+      </c>
+      <c r="C57">
+        <v>18713.2098780803</v>
+      </c>
+      <c r="D57">
+        <v>21078.27866935828</v>
+      </c>
+      <c r="E57">
+        <v>23481.14994278954</v>
+      </c>
+      <c r="F57">
+        <v>26053.03873935556</v>
+      </c>
+      <c r="G57">
+        <v>28750.97123331474</v>
+      </c>
+      <c r="H57">
+        <v>20477.26324422562</v>
+      </c>
+      <c r="I57">
+        <v>26875.4502544835</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>15960.35719835864</v>
+      </c>
+      <c r="C58">
+        <v>22257.78089549436</v>
+      </c>
+      <c r="D58">
+        <v>25631.16503610388</v>
+      </c>
+      <c r="E58">
+        <v>29138.87107996344</v>
+      </c>
+      <c r="F58">
+        <v>33138.59124058022</v>
+      </c>
+      <c r="G58">
+        <v>37265.16751753083</v>
+      </c>
+      <c r="H58">
+        <v>24786.15259680398</v>
+      </c>
+      <c r="I58">
+        <v>34285.19170951776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>17930.33064268229</v>
+      </c>
+      <c r="C59">
+        <v>26063.95609253814</v>
+      </c>
+      <c r="D59">
+        <v>30506.66466985742</v>
+      </c>
+      <c r="E59">
+        <v>35347.29458486415</v>
+      </c>
+      <c r="F59">
+        <v>41035.51577722136</v>
+      </c>
+      <c r="G59">
+        <v>46628.78512768912</v>
+      </c>
+      <c r="H59">
+        <v>29505.98867562245</v>
+      </c>
+      <c r="I59">
+        <v>42561.34618538051</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>19771.97066541397</v>
+      </c>
+      <c r="C60">
+        <v>30225.62329551082</v>
+      </c>
+      <c r="D60">
+        <v>35833.24452824677</v>
+      </c>
+      <c r="E60">
+        <v>42208.30054572108</v>
+      </c>
+      <c r="F60">
+        <v>49444.29378831686</v>
+      </c>
+      <c r="G60">
+        <v>56988.29203957221</v>
+      </c>
+      <c r="H60">
+        <v>34581.01110465061</v>
+      </c>
+      <c r="I60">
+        <v>51676.13423758693</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>22584.82064357261</v>
+      </c>
+      <c r="C61">
+        <v>34268.49003546149</v>
+      </c>
+      <c r="D61">
+        <v>41236.70251214915</v>
+      </c>
+      <c r="E61">
+        <v>49529.42290487849</v>
+      </c>
+      <c r="F61">
+        <v>59097.41586548665</v>
+      </c>
+      <c r="G61">
+        <v>69285.02887804933</v>
+      </c>
+      <c r="H61">
+        <v>39905.4226355061</v>
+      </c>
+      <c r="I61">
+        <v>61885.04252149583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>25781.08300154732</v>
+      </c>
+      <c r="C62">
+        <v>38846.43726148095</v>
+      </c>
+      <c r="D62">
+        <v>47065.8700921599</v>
+      </c>
+      <c r="E62">
+        <v>57284.77314355635</v>
+      </c>
+      <c r="F62">
+        <v>69326.16302575027</v>
+      </c>
+      <c r="G62">
+        <v>82314.7983335344</v>
+      </c>
+      <c r="H62">
+        <v>45552.2196348401</v>
+      </c>
+      <c r="I62">
+        <v>73156.7997379189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>10</v>
+      </c>
+      <c r="B63">
+        <v>29243.77679626707</v>
+      </c>
+      <c r="C63">
+        <v>44471.86184460957</v>
+      </c>
+      <c r="D63">
+        <v>53917.83361861663</v>
+      </c>
+      <c r="E63">
+        <v>66276.9933097707</v>
+      </c>
+      <c r="F63">
+        <v>81243.13144543109</v>
+      </c>
+      <c r="G63">
+        <v>97169.53144295565</v>
+      </c>
+      <c r="H63">
+        <v>52339.77855249484</v>
+      </c>
+      <c r="I63">
+        <v>86183.83053066328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>19800</v>
+      </c>
+      <c r="C67">
+        <v>19800</v>
+      </c>
+      <c r="D67">
+        <v>19800</v>
+      </c>
+      <c r="E67">
+        <v>19800</v>
+      </c>
+      <c r="F67">
+        <v>19800</v>
+      </c>
+      <c r="G67">
+        <v>19800</v>
+      </c>
+      <c r="H67">
+        <v>19800</v>
+      </c>
+      <c r="I67">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C68">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D68">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E68">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F68">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G68">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H68">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I68">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="C69">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="D69">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="E69">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="F69">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="G69">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="H69">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="I69">
+        <v>13441.83760958354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="C70">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="D70">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="E70">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="F70">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="G70">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="H70">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="I70">
+        <v>11849.68120845455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>10544.82717501497</v>
+      </c>
+      <c r="C71">
+        <v>14104.86906753766</v>
+      </c>
+      <c r="D71">
+        <v>15373.83018966676</v>
+      </c>
+      <c r="E71">
+        <v>16564.41751335144</v>
+      </c>
+      <c r="F71">
+        <v>17744.27795256789</v>
+      </c>
+      <c r="G71">
+        <v>18948.34704105605</v>
+      </c>
+      <c r="H71">
+        <v>14978.62445153122</v>
+      </c>
+      <c r="I71">
+        <v>18090.36577422105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>12425.71072490243</v>
+      </c>
+      <c r="C72">
+        <v>17363.01081111274</v>
+      </c>
+      <c r="D72">
+        <v>19445.12447624793</v>
+      </c>
+      <c r="E72">
+        <v>21518.29777471497</v>
+      </c>
+      <c r="F72">
+        <v>23758.33623572065</v>
+      </c>
+      <c r="G72">
+        <v>25951.2866190637</v>
+      </c>
+      <c r="H72">
+        <v>18841.17574547191</v>
+      </c>
+      <c r="I72">
+        <v>24393.20965747454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>14733.18901540934</v>
+      </c>
+      <c r="C73">
+        <v>20746.78021216067</v>
+      </c>
+      <c r="D73">
+        <v>23883.2673203306</v>
+      </c>
+      <c r="E73">
+        <v>27125.94842982416</v>
+      </c>
+      <c r="F73">
+        <v>30432.43246338655</v>
+      </c>
+      <c r="G73">
+        <v>33847.35659367389</v>
+      </c>
+      <c r="H73">
+        <v>23099.3036862403</v>
+      </c>
+      <c r="I73">
+        <v>31445.8913220802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>17288.51920638289</v>
+      </c>
+      <c r="C74">
+        <v>24700.62529493368</v>
+      </c>
+      <c r="D74">
+        <v>28437.82864990499</v>
+      </c>
+      <c r="E74">
+        <v>33049.97742184227</v>
+      </c>
+      <c r="F74">
+        <v>37877.57121055994</v>
+      </c>
+      <c r="G74">
+        <v>42809.47394907199</v>
+      </c>
+      <c r="H74">
+        <v>27672.45007158686</v>
+      </c>
+      <c r="I74">
+        <v>39264.81299176534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>19447.85615503705</v>
+      </c>
+      <c r="C75">
+        <v>28783.60210932328</v>
+      </c>
+      <c r="D75">
+        <v>33686.93004468473</v>
+      </c>
+      <c r="E75">
+        <v>39574.35032380333</v>
+      </c>
+      <c r="F75">
+        <v>46132.13152917135</v>
+      </c>
+      <c r="G75">
+        <v>53230.18420669983</v>
+      </c>
+      <c r="H75">
+        <v>32690.57587772398</v>
+      </c>
+      <c r="I75">
+        <v>48050.90975195811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>22192.41796675081</v>
+      </c>
+      <c r="C76">
+        <v>33140.46943218102</v>
+      </c>
+      <c r="D76">
+        <v>39321.87278556447</v>
+      </c>
+      <c r="E76">
+        <v>46571.8539881254</v>
+      </c>
+      <c r="F76">
+        <v>55216.7042001628</v>
+      </c>
+      <c r="G76">
+        <v>64184.79513869277</v>
+      </c>
+      <c r="H76">
+        <v>38042.93162321186</v>
+      </c>
+      <c r="I76">
+        <v>57810.94799323976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>24047.39592067039</v>
+      </c>
+      <c r="C77">
+        <v>37786.77798390553</v>
+      </c>
+      <c r="D77">
+        <v>45542.53498832512</v>
+      </c>
+      <c r="E77">
+        <v>54811.61399216932</v>
+      </c>
+      <c r="F77">
+        <v>65870.14566961076</v>
+      </c>
+      <c r="G77">
+        <v>77553.59099847492</v>
+      </c>
+      <c r="H77">
+        <v>43906.94424606965</v>
+      </c>
+      <c r="I77">
+        <v>69464.82868889382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>19800</v>
+      </c>
+      <c r="C81">
+        <v>19800</v>
+      </c>
+      <c r="D81">
+        <v>19800</v>
+      </c>
+      <c r="E81">
+        <v>19800</v>
+      </c>
+      <c r="F81">
+        <v>19800</v>
+      </c>
+      <c r="G81">
+        <v>19800</v>
+      </c>
+      <c r="H81">
+        <v>19800</v>
+      </c>
+      <c r="I81">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C82">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D82">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E82">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F82">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G82">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H82">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I82">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="C83">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="D83">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="E83">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="F83">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="G83">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="H83">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="I83">
+        <v>13441.83760958354</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="C84">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="D84">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="E84">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="F84">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="G84">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="H84">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="I84">
+        <v>11849.68120845455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="C85">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="D85">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="E85">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="F85">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="G85">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="H85">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="I85">
+        <v>10780.7254124547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>10487.41910649794</v>
+      </c>
+      <c r="C86">
+        <v>13072.85855532614</v>
+      </c>
+      <c r="D86">
+        <v>14245.42437687203</v>
+      </c>
+      <c r="E86">
+        <v>15319.30588847808</v>
+      </c>
+      <c r="F86">
+        <v>16378.83590202332</v>
+      </c>
+      <c r="G86">
+        <v>17420.97982947642</v>
+      </c>
+      <c r="H86">
+        <v>13909.08393845077</v>
+      </c>
+      <c r="I86">
+        <v>16678.59859196115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>12216.61781999409</v>
+      </c>
+      <c r="C87">
+        <v>16258.46305981949</v>
+      </c>
+      <c r="D87">
+        <v>18187.45703415738</v>
+      </c>
+      <c r="E87">
+        <v>20144.3005718962</v>
+      </c>
+      <c r="F87">
+        <v>22190.88695729482</v>
+      </c>
+      <c r="G87">
+        <v>24296.23695833131</v>
+      </c>
+      <c r="H87">
+        <v>17698.02956162763</v>
+      </c>
+      <c r="I87">
+        <v>22786.65006771566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>13933.16417623316</v>
+      </c>
+      <c r="C88">
+        <v>19753.2342641248</v>
+      </c>
+      <c r="D88">
+        <v>22482.18552965522</v>
+      </c>
+      <c r="E88">
+        <v>25435.27349256304</v>
+      </c>
+      <c r="F88">
+        <v>28668.88529890804</v>
+      </c>
+      <c r="G88">
+        <v>31829.94724005896</v>
+      </c>
+      <c r="H88">
+        <v>21769.34485310076</v>
+      </c>
+      <c r="I88">
+        <v>29494.40785831115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>16195.18415184769</v>
+      </c>
+      <c r="C89">
+        <v>23134.45764554288</v>
+      </c>
+      <c r="D89">
+        <v>26840.27463206277</v>
+      </c>
+      <c r="E89">
+        <v>31073.67497297511</v>
+      </c>
+      <c r="F89">
+        <v>35611.92734863458</v>
+      </c>
+      <c r="G89">
+        <v>39909.94734698033</v>
+      </c>
+      <c r="H89">
+        <v>26006.26703317129</v>
+      </c>
+      <c r="I89">
+        <v>36804.31843888563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>18690.71182738357</v>
+      </c>
+      <c r="C90">
+        <v>27129.55758513282</v>
+      </c>
+      <c r="D90">
+        <v>31731.80411840558</v>
+      </c>
+      <c r="E90">
+        <v>37094.32032111206</v>
+      </c>
+      <c r="F90">
+        <v>43142.50945603038</v>
+      </c>
+      <c r="G90">
+        <v>49476.99927707973</v>
+      </c>
+      <c r="H90">
+        <v>30692.63438095909</v>
+      </c>
+      <c r="I90">
+        <v>44931.16006414596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <v>20929.88687717971</v>
+      </c>
+      <c r="C91">
+        <v>31601.9128702831</v>
+      </c>
+      <c r="D91">
+        <v>37370.24716001569</v>
+      </c>
+      <c r="E91">
+        <v>44422.07953459046</v>
+      </c>
+      <c r="F91">
+        <v>52105.11132846188</v>
+      </c>
+      <c r="G91">
+        <v>61160.66689626013</v>
+      </c>
+      <c r="H91">
+        <v>36134.967904876</v>
+      </c>
+      <c r="I91">
+        <v>54812.6860015312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>19800</v>
+      </c>
+      <c r="C95">
+        <v>19800</v>
+      </c>
+      <c r="D95">
+        <v>19800</v>
+      </c>
+      <c r="E95">
+        <v>19800</v>
+      </c>
+      <c r="F95">
+        <v>19800</v>
+      </c>
+      <c r="G95">
+        <v>19800</v>
+      </c>
+      <c r="H95">
+        <v>19800</v>
+      </c>
+      <c r="I95">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="C96">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="D96">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="E96">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="F96">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="G96">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="H96">
+        <v>15900.88298583113</v>
+      </c>
+      <c r="I96">
+        <v>15900.88298583112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="C97">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="D97">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="E97">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="F97">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="G97">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="H97">
+        <v>13441.83760958354</v>
+      </c>
+      <c r="I97">
+        <v>13441.83760958354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="C98">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="D98">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="E98">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="F98">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="G98">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="H98">
+        <v>11849.68120845455</v>
+      </c>
+      <c r="I98">
+        <v>11849.68120845455</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="C99">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="D99">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="E99">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="F99">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="G99">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="H99">
+        <v>10780.72541245471</v>
+      </c>
+      <c r="I99">
+        <v>10780.7254124547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="C100">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="D100">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="E100">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="F100">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="G100">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="H100">
+        <v>10028.84867737882</v>
+      </c>
+      <c r="I100">
+        <v>10028.84867737882</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101">
+        <v>9791.099396797965</v>
+      </c>
+      <c r="C101">
+        <v>12354.99819309786</v>
+      </c>
+      <c r="D101">
+        <v>13416.90327556897</v>
+      </c>
+      <c r="E101">
+        <v>14423.92658040389</v>
+      </c>
+      <c r="F101">
+        <v>15393.49921209317</v>
+      </c>
+      <c r="G101">
+        <v>16388.42699060684</v>
+      </c>
+      <c r="H101">
+        <v>13093.91323984917</v>
+      </c>
+      <c r="I101">
+        <v>15700.68725564486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>11198.21113564981</v>
+      </c>
+      <c r="C102">
+        <v>15451.66612981207</v>
+      </c>
+      <c r="D102">
+        <v>17225.69974551021</v>
+      </c>
+      <c r="E102">
+        <v>19114.22400258261</v>
+      </c>
+      <c r="F102">
+        <v>21065.25718834791</v>
+      </c>
+      <c r="G102">
+        <v>23119.12303798803</v>
+      </c>
+      <c r="H102">
+        <v>16762.38988591585</v>
+      </c>
+      <c r="I102">
+        <v>21654.05581074976</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>13394.32570463275</v>
+      </c>
+      <c r="C103">
+        <v>18877.09579542579</v>
+      </c>
+      <c r="D103">
+        <v>21370.40425442873</v>
+      </c>
+      <c r="E103">
+        <v>24285.06947639227</v>
+      </c>
+      <c r="F103">
+        <v>27342.7469773412</v>
+      </c>
+      <c r="G103">
+        <v>30383.67650502161</v>
+      </c>
+      <c r="H103">
+        <v>20770.66123271077</v>
+      </c>
+      <c r="I103">
+        <v>28235.48309600462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>16253.17547714919</v>
+      </c>
+      <c r="C104">
+        <v>22313.24006805851</v>
+      </c>
+      <c r="D104">
+        <v>25864.14028792504</v>
+      </c>
+      <c r="E104">
+        <v>29789.77168546459</v>
+      </c>
+      <c r="F104">
+        <v>34033.70558764475</v>
+      </c>
+      <c r="G104">
+        <v>38365.08555186357</v>
+      </c>
+      <c r="H104">
+        <v>25061.0808840065</v>
+      </c>
+      <c r="I104">
+        <v>35303.12098927001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>10</v>
+      </c>
+      <c r="B105">
+        <v>17609.5409360234</v>
+      </c>
+      <c r="C105">
+        <v>26179.00273185676</v>
+      </c>
+      <c r="D105">
+        <v>30737.44322231236</v>
+      </c>
+      <c r="E105">
+        <v>36194.34860643691</v>
+      </c>
+      <c r="F105">
+        <v>42272.35400888136</v>
+      </c>
+      <c r="G105">
+        <v>48483.97482051583</v>
+      </c>
+      <c r="H105">
+        <v>29772.49835088152</v>
+      </c>
+      <c r="I105">
+        <v>43949.95517090189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -2868,7 +8661,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3236.689669549553</v>
+        <v>3156.342099951018</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2876,7 +8669,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3695.400716377385</v>
+        <v>3702.371508047523</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2884,7 +8677,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3959.269156770915</v>
+        <v>3937.315655568958</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2892,7 +8685,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4218.360485613202</v>
+        <v>4215.458592307168</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2900,7 +8693,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4492.869678979806</v>
+        <v>4496.521302976998</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2916,7 +8709,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>3913.827425813286</v>
+        <v>3916.028897711135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2932,7 +8725,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>40.84312977298499</v>
+        <v>40.8521719153354</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2940,7 +8733,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.1324617272165352</v>
+        <v>-0.1357935393470528</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2948,7 +8741,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03383513026830044</v>
+        <v>-0.03784013474978073</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2956,7 +8749,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.01093845396622279</v>
+        <v>0.01165977400412565</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2964,7 +8757,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0595133789728818</v>
+        <v>0.05919751585120801</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2972,7 +8765,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.1087850316843288</v>
+        <v>0.1072503773188561</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2980,7 +8773,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.1541294757880629</v>
+        <v>0.15500113467372</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2988,7 +8781,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>6.558727680698163E-05</v>
+        <v>-0.0005595145280498657</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2996,7 +8789,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.1199293970222776</v>
+        <v>0.1190480114653434</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3062,28 +8855,28 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1250.943017599711</v>
+        <v>1247.774096425868</v>
       </c>
       <c r="C26">
-        <v>1293.827091064017</v>
+        <v>1292.603468947629</v>
       </c>
       <c r="D26">
-        <v>1317.826665121134</v>
+        <v>1316.296868492345</v>
       </c>
       <c r="E26">
-        <v>1343.365505228439</v>
+        <v>1343.033769858308</v>
       </c>
       <c r="F26">
-        <v>1370.221812001041</v>
+        <v>1370.448139668662</v>
       </c>
       <c r="G26">
-        <v>1394.302055061993</v>
+        <v>1394.383390596427</v>
       </c>
       <c r="H26">
-        <v>1312.562503628248</v>
+        <v>1311.48848198661</v>
       </c>
       <c r="I26">
-        <v>1375.415245837632</v>
+        <v>1375.165990970124</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3091,28 +8884,28 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2205.628280020278</v>
+        <v>2192.429642900882</v>
       </c>
       <c r="C27">
-        <v>2465.259651172673</v>
+        <v>2464.901794118836</v>
       </c>
       <c r="D27">
-        <v>2577.922542292469</v>
+        <v>2579.392545780644</v>
       </c>
       <c r="E27">
-        <v>2696.622851953531</v>
+        <v>2700.628674796992</v>
       </c>
       <c r="F27">
-        <v>2818.075471643476</v>
+        <v>2823.814315198867</v>
       </c>
       <c r="G27">
-        <v>2931.830550170432</v>
+        <v>2935.441584703342</v>
       </c>
       <c r="H27">
-        <v>2548.789458355793</v>
+        <v>2549.87503127978</v>
       </c>
       <c r="I27">
-        <v>2850.172487229356</v>
+        <v>2852.200534999897</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3120,28 +8913,28 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>3236.689669549553</v>
+        <v>3156.342099951018</v>
       </c>
       <c r="C28">
-        <v>3695.400716377385</v>
+        <v>3702.371508047523</v>
       </c>
       <c r="D28">
-        <v>3959.269156770915</v>
+        <v>3937.315655568958</v>
       </c>
       <c r="E28">
-        <v>4218.360485613202</v>
+        <v>4215.458592307168</v>
       </c>
       <c r="F28">
-        <v>4492.869678979806</v>
+        <v>4496.521302976998</v>
       </c>
       <c r="G28">
-        <v>4750.064794184235</v>
+        <v>4760.454334001824</v>
       </c>
       <c r="H28">
-        <v>3894.350084001649</v>
+        <v>3884.134636720799</v>
       </c>
       <c r="I28">
-        <v>4557.382515824901</v>
+        <v>4561.344542780011</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3241,28 +9034,28 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>2024.052050036441</v>
+        <v>2045.07267306517</v>
       </c>
       <c r="C34">
-        <v>2290.861552020022</v>
+        <v>2293.904061470388</v>
       </c>
       <c r="D34">
-        <v>2386.147040332328</v>
+        <v>2386.19626205924</v>
       </c>
       <c r="E34">
-        <v>2481.076769920974</v>
+        <v>2479.776026552342</v>
       </c>
       <c r="F34">
-        <v>2578.598535907908</v>
+        <v>2579.64949152077</v>
       </c>
       <c r="G34">
-        <v>2669.937103090686</v>
+        <v>2678.09743221621</v>
       </c>
       <c r="H34">
-        <v>2356.572885068224</v>
+        <v>2358.002099607574</v>
       </c>
       <c r="I34">
-        <v>2604.793725898081</v>
+        <v>2607.230544751375</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3270,28 +9063,28 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>3033.619177219045</v>
+        <v>2946.176247827788</v>
       </c>
       <c r="C35">
-        <v>3439.304666434889</v>
+        <v>3435.616760224768</v>
       </c>
       <c r="D35">
-        <v>3658.157210609917</v>
+        <v>3656.025770758291</v>
       </c>
       <c r="E35">
-        <v>3887.726528093147</v>
+        <v>3875.816677159406</v>
       </c>
       <c r="F35">
-        <v>4126.530578437545</v>
+        <v>4123.695793055404</v>
       </c>
       <c r="G35">
-        <v>4353.529347016496</v>
+        <v>4347.340122568629</v>
       </c>
       <c r="H35">
-        <v>3604.030450229876</v>
+        <v>3594.594637542431</v>
       </c>
       <c r="I35">
-        <v>4185.281346637208</v>
+        <v>4179.810039514155</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3420,28 +9213,28 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>2516.598508147371</v>
+        <v>2549.332429997945</v>
       </c>
       <c r="C42">
-        <v>2942.008848594099</v>
+        <v>2958.641627891743</v>
       </c>
       <c r="D42">
-        <v>3109.880963074106</v>
+        <v>3110.610225566084</v>
       </c>
       <c r="E42">
-        <v>3259.468620435533</v>
+        <v>3270.528101462634</v>
       </c>
       <c r="F42">
-        <v>3412.068336127414</v>
+        <v>3418.812450889276</v>
       </c>
       <c r="G42">
-        <v>3569.0597681491</v>
+        <v>3565.540691231593</v>
       </c>
       <c r="H42">
-        <v>3059.837282691266</v>
+        <v>3069.601232522667</v>
       </c>
       <c r="I42">
-        <v>3459.55985127095</v>
+        <v>3463.468041816715</v>
       </c>
     </row>
     <row r="44" spans="1:9">
